--- a/Results/SingleDim/Matrix Analysis/average_matrix.xlsx
+++ b/Results/SingleDim/Matrix Analysis/average_matrix.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
   <si>
     <t>Hispanic</t>
   </si>
@@ -675,136 +675,136 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03652475525260818</v>
+        <v>0.04193789976379203</v>
       </c>
       <c r="D2">
-        <v>0.04300470307855115</v>
+        <v>0.06946656580512739</v>
       </c>
       <c r="E2">
-        <v>0.04097373622366203</v>
+        <v>0.05324268627018425</v>
       </c>
       <c r="F2">
-        <v>0.03299646086384318</v>
+        <v>0.08459842658087011</v>
       </c>
       <c r="G2">
-        <v>0.0396323959707886</v>
+        <v>0.05829429925102562</v>
       </c>
       <c r="H2">
-        <v>0.03018488177583526</v>
+        <v>0.08773238033597777</v>
       </c>
       <c r="I2">
-        <v>0.03215094236396324</v>
+        <v>0.05997509114834388</v>
       </c>
       <c r="J2">
-        <v>0.04350202078715131</v>
+        <v>0.06917279672957712</v>
       </c>
       <c r="K2">
-        <v>0.04928871178630551</v>
+        <v>0.0552887342421058</v>
       </c>
       <c r="L2">
-        <v>0.04194988943423203</v>
+        <v>0.05955748588827829</v>
       </c>
       <c r="M2">
-        <v>0.04239721091226546</v>
+        <v>0.05449381100825882</v>
       </c>
       <c r="N2">
-        <v>0.03136211725636208</v>
+        <v>0.07162747714013618</v>
       </c>
       <c r="O2">
-        <v>0.04598770652774311</v>
+        <v>0.05440336901949441</v>
       </c>
       <c r="P2">
-        <v>0.04011091426446236</v>
+        <v>0.05463835885356377</v>
       </c>
       <c r="Q2">
-        <v>0.04134570804275264</v>
+        <v>0.05879072304972026</v>
       </c>
       <c r="R2">
-        <v>0.04162699351365729</v>
+        <v>0.05300816510115103</v>
       </c>
       <c r="S2">
-        <v>0.03875721330764122</v>
+        <v>0.05375839731794713</v>
       </c>
       <c r="T2">
-        <v>0.03971304796222552</v>
+        <v>0.05183600868914324</v>
       </c>
       <c r="U2">
-        <v>0.04169870064624419</v>
+        <v>0.05511074694928973</v>
       </c>
       <c r="V2">
-        <v>0.04133418828211175</v>
+        <v>0.05566787848971922</v>
       </c>
       <c r="W2">
-        <v>0.05440230398579979</v>
+        <v>0.08045620251514742</v>
       </c>
       <c r="X2">
-        <v>0.03896391353790304</v>
+        <v>0.05498679515401622</v>
       </c>
       <c r="Y2">
-        <v>0.04234427184031783</v>
+        <v>0.06525778089241999</v>
       </c>
       <c r="Z2">
-        <v>0.04009888581003973</v>
+        <v>0.05504403609918306</v>
       </c>
       <c r="AA2">
-        <v>0.04117912310769635</v>
+        <v>0.05504694291959889</v>
       </c>
       <c r="AB2">
-        <v>0.03830438834759702</v>
+        <v>0.0597850619642021</v>
       </c>
       <c r="AC2">
-        <v>0.04029310240912232</v>
+        <v>0.06723532580270909</v>
       </c>
       <c r="AD2">
-        <v>0.03171937473833525</v>
+        <v>0.05400590172598703</v>
       </c>
       <c r="AE2">
-        <v>0.02594585115285237</v>
+        <v>0.05333127827972013</v>
       </c>
       <c r="AF2">
-        <v>0.03301353144081725</v>
+        <v>0.05570680939027407</v>
       </c>
       <c r="AG2">
-        <v>0.05106869870327083</v>
+        <v>0.05690176490955582</v>
       </c>
       <c r="AH2">
-        <v>0.06810614602072596</v>
+        <v>0.05777315523927899</v>
       </c>
       <c r="AI2">
-        <v>0.03785651543076501</v>
+        <v>0.05397822650679991</v>
       </c>
       <c r="AJ2">
-        <v>0.04806733621099367</v>
+        <v>0.0563239851752175</v>
       </c>
       <c r="AK2">
-        <v>0.04415571280976274</v>
+        <v>0.06021167895237288</v>
       </c>
       <c r="AL2">
-        <v>0.07253029681465017</v>
+        <v>0.05470668047432939</v>
       </c>
       <c r="AM2">
-        <v>0.04701102133355023</v>
+        <v>0.05476629800472401</v>
       </c>
       <c r="AN2">
-        <v>0.05766850098240518</v>
+        <v>0.05410109917150822</v>
       </c>
       <c r="AO2">
-        <v>0.04537022395982024</v>
+        <v>0.05482592268342372</v>
       </c>
       <c r="AP2">
-        <v>0.04483911431918399</v>
+        <v>0.05491994741922891</v>
       </c>
       <c r="AQ2">
-        <v>0.04330072674943423</v>
+        <v>0.05388861444789801</v>
       </c>
       <c r="AR2">
-        <v>0.04999071422230483</v>
+        <v>0.05896589289476222</v>
       </c>
       <c r="AS2">
-        <v>0.05479624045746774</v>
+        <v>0.05017262272277502</v>
       </c>
       <c r="AT2">
-        <v>0.02382842976265532</v>
+        <v>0.05390435931513667</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -812,139 +812,139 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03652475525260818</v>
+        <v>0.04193789976379203</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04528271092102498</v>
+        <v>0.05343178428340682</v>
       </c>
       <c r="E3">
-        <v>0.04675487613517995</v>
+        <v>0.03656510046685774</v>
       </c>
       <c r="F3">
-        <v>0.05083805310304394</v>
+        <v>0.103294835202605</v>
       </c>
       <c r="G3">
-        <v>0.04338753724787675</v>
+        <v>0.0342601896149975</v>
       </c>
       <c r="H3">
-        <v>0.04221623416062026</v>
+        <v>0.07938059681393222</v>
       </c>
       <c r="I3">
-        <v>0.0376365991678612</v>
+        <v>0.0319419600517404</v>
       </c>
       <c r="J3">
-        <v>0.04518833181965854</v>
+        <v>0.04542126310505993</v>
       </c>
       <c r="K3">
-        <v>0.04783874827289886</v>
+        <v>0.03464680199131029</v>
       </c>
       <c r="L3">
-        <v>0.04611771692634137</v>
+        <v>0.03549333365286263</v>
       </c>
       <c r="M3">
-        <v>0.04117304265805875</v>
+        <v>0.0319527350011466</v>
       </c>
       <c r="N3">
-        <v>0.04959099984565552</v>
+        <v>0.05424224243156499</v>
       </c>
       <c r="O3">
-        <v>0.04623555474770449</v>
+        <v>0.03034147098266543</v>
       </c>
       <c r="P3">
-        <v>0.04338373107918241</v>
+        <v>0.03438274214798153</v>
       </c>
       <c r="Q3">
-        <v>0.04218898892010842</v>
+        <v>0.03404106596936313</v>
       </c>
       <c r="R3">
-        <v>0.04531307448541179</v>
+        <v>0.0319147422006477</v>
       </c>
       <c r="S3">
-        <v>0.04275522084337102</v>
+        <v>0.03290328710294239</v>
       </c>
       <c r="T3">
-        <v>0.04406910430299865</v>
+        <v>0.03147241906361618</v>
       </c>
       <c r="U3">
-        <v>0.04480837887918099</v>
+        <v>0.03417780901191666</v>
       </c>
       <c r="V3">
-        <v>0.04375152880498284</v>
+        <v>0.03092147310512596</v>
       </c>
       <c r="W3">
-        <v>0.05475216551272617</v>
+        <v>0.06806345174549558</v>
       </c>
       <c r="X3">
-        <v>0.04196748978488062</v>
+        <v>0.03342929531435573</v>
       </c>
       <c r="Y3">
-        <v>0.0427870286250675</v>
+        <v>0.04379131547092761</v>
       </c>
       <c r="Z3">
-        <v>0.04277198476191919</v>
+        <v>0.03350008088907695</v>
       </c>
       <c r="AA3">
-        <v>0.04387728214603816</v>
+        <v>0.03290795731720801</v>
       </c>
       <c r="AB3">
-        <v>0.04484460956280128</v>
+        <v>0.03542073230179293</v>
       </c>
       <c r="AC3">
-        <v>0.04358654025652884</v>
+        <v>0.04664605978939144</v>
       </c>
       <c r="AD3">
-        <v>0.04167379119568698</v>
+        <v>0.02928912696213907</v>
       </c>
       <c r="AE3">
-        <v>0.03978620200638272</v>
+        <v>0.03195637262136421</v>
       </c>
       <c r="AF3">
-        <v>0.04590678095667476</v>
+        <v>0.03561428713904093</v>
       </c>
       <c r="AG3">
-        <v>0.05948625857163051</v>
+        <v>0.03579800618204791</v>
       </c>
       <c r="AH3">
-        <v>0.06930444379403601</v>
+        <v>0.036988914687517</v>
       </c>
       <c r="AI3">
-        <v>0.05081870806033381</v>
+        <v>0.03277573551560031</v>
       </c>
       <c r="AJ3">
-        <v>0.04983386324649294</v>
+        <v>0.03557840081125324</v>
       </c>
       <c r="AK3">
-        <v>0.04878577377372688</v>
+        <v>0.03627220004082532</v>
       </c>
       <c r="AL3">
-        <v>0.0743917450046586</v>
+        <v>0.03372511624504141</v>
       </c>
       <c r="AM3">
-        <v>0.04831836833451291</v>
+        <v>0.03142342445555193</v>
       </c>
       <c r="AN3">
-        <v>0.06265995317153056</v>
+        <v>0.03363735205374183</v>
       </c>
       <c r="AO3">
-        <v>0.04884090537692374</v>
+        <v>0.03344015209303641</v>
       </c>
       <c r="AP3">
-        <v>0.06283986019672173</v>
+        <v>0.03429756887760205</v>
       </c>
       <c r="AQ3">
-        <v>0.04809194998996065</v>
+        <v>0.03242816678021889</v>
       </c>
       <c r="AR3">
-        <v>0.05625611290363412</v>
+        <v>0.03744276060652852</v>
       </c>
       <c r="AS3">
-        <v>0.05556444044072776</v>
+        <v>0.03010990614422891</v>
       </c>
       <c r="AT3">
-        <v>0.03923513796421384</v>
+        <v>0.03118473693079285</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -952,139 +952,139 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.04300470307855115</v>
+        <v>0.06946656580512739</v>
       </c>
       <c r="C4">
-        <v>0.04528271092102498</v>
+        <v>0.05343178428340682</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01059650737017</v>
+        <v>0.02316435936213646</v>
       </c>
       <c r="F4">
-        <v>0.03156596127837022</v>
+        <v>0.1065058514347125</v>
       </c>
       <c r="G4">
-        <v>0.01241500628307193</v>
+        <v>0.0280871997213228</v>
       </c>
       <c r="H4">
-        <v>0.03253200475363734</v>
+        <v>0.09770878482789686</v>
       </c>
       <c r="I4">
-        <v>0.02075857878771006</v>
+        <v>0.05526347274958567</v>
       </c>
       <c r="J4">
-        <v>0.006771428980802895</v>
+        <v>0.03291628502790107</v>
       </c>
       <c r="K4">
-        <v>0.01842753017455099</v>
+        <v>0.02867697016522143</v>
       </c>
       <c r="L4">
-        <v>0.01306789270370445</v>
+        <v>0.02746016912932463</v>
       </c>
       <c r="M4">
-        <v>0.01221035509610945</v>
+        <v>0.02461904847259026</v>
       </c>
       <c r="N4">
-        <v>0.04511254847861572</v>
+        <v>0.08914249831342588</v>
       </c>
       <c r="O4">
-        <v>0.01502933218383044</v>
+        <v>0.02667984269005503</v>
       </c>
       <c r="P4">
-        <v>0.01021036112302117</v>
+        <v>0.02506509074100382</v>
       </c>
       <c r="Q4">
-        <v>0.01507354463740286</v>
+        <v>0.02413146141629753</v>
       </c>
       <c r="R4">
-        <v>0.009408872398306149</v>
+        <v>0.02292459922829019</v>
       </c>
       <c r="S4">
-        <v>0.01016996250334202</v>
+        <v>0.02235056553874644</v>
       </c>
       <c r="T4">
-        <v>0.009146146298500118</v>
+        <v>0.02586230389370293</v>
       </c>
       <c r="U4">
-        <v>0.01007099910953595</v>
+        <v>0.0246100585669885</v>
       </c>
       <c r="V4">
-        <v>0.01124328437824578</v>
+        <v>0.02649554877753993</v>
       </c>
       <c r="W4">
-        <v>0.03437882581691355</v>
+        <v>0.0759528397932672</v>
       </c>
       <c r="X4">
-        <v>0.01034016033713814</v>
+        <v>0.02851547496713834</v>
       </c>
       <c r="Y4">
-        <v>0.01493149933471404</v>
+        <v>0.03628199171768622</v>
       </c>
       <c r="Z4">
-        <v>0.0103205107598292</v>
+        <v>0.02296923052952587</v>
       </c>
       <c r="AA4">
-        <v>0.01171252259018329</v>
+        <v>0.02932545155238054</v>
       </c>
       <c r="AB4">
-        <v>0.01136045947687501</v>
+        <v>0.02942257673472198</v>
       </c>
       <c r="AC4">
-        <v>0.01865939531189539</v>
+        <v>0.04401471067296089</v>
       </c>
       <c r="AD4">
-        <v>0.02070854720423765</v>
+        <v>0.02561948623403822</v>
       </c>
       <c r="AE4">
-        <v>0.04246495318775676</v>
+        <v>0.02555913801981278</v>
       </c>
       <c r="AF4">
-        <v>0.02094047744373695</v>
+        <v>0.02771511491646006</v>
       </c>
       <c r="AG4">
-        <v>0.02865219118776338</v>
+        <v>0.02557692256687232</v>
       </c>
       <c r="AH4">
-        <v>0.0367534684396174</v>
+        <v>0.02620513989246789</v>
       </c>
       <c r="AI4">
-        <v>0.03134844110369645</v>
+        <v>0.03066116909657131</v>
       </c>
       <c r="AJ4">
-        <v>0.01555082347367704</v>
+        <v>0.0343549494121375</v>
       </c>
       <c r="AK4">
-        <v>0.01424100460158171</v>
+        <v>0.02951146707026918</v>
       </c>
       <c r="AL4">
-        <v>0.04105324371474046</v>
+        <v>0.0236077505678605</v>
       </c>
       <c r="AM4">
-        <v>0.01743926922101431</v>
+        <v>0.02552048229312353</v>
       </c>
       <c r="AN4">
-        <v>0.03037067736203134</v>
+        <v>0.0249592525537201</v>
       </c>
       <c r="AO4">
-        <v>0.01654674742472467</v>
+        <v>0.02466210108501149</v>
       </c>
       <c r="AP4">
-        <v>0.03993951649511814</v>
+        <v>0.02575445822600146</v>
       </c>
       <c r="AQ4">
-        <v>0.01213254117404474</v>
+        <v>0.02494033220719489</v>
       </c>
       <c r="AR4">
-        <v>0.02915880709954991</v>
+        <v>0.02827430265778947</v>
       </c>
       <c r="AS4">
-        <v>0.02538925961232622</v>
+        <v>0.02703218692806478</v>
       </c>
       <c r="AT4">
-        <v>0.03716681043238831</v>
+        <v>0.02578067246507064</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1092,139 +1092,139 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.04097373622366203</v>
+        <v>0.05324268627018425</v>
       </c>
       <c r="C5">
-        <v>0.04675487613517995</v>
+        <v>0.03656510046685774</v>
       </c>
       <c r="D5">
-        <v>0.01059650737017</v>
+        <v>0.02316435936213646</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.03656358004052384</v>
+        <v>0.09418081849147864</v>
       </c>
       <c r="G5">
-        <v>0.01568213715709922</v>
+        <v>0.01466787461461819</v>
       </c>
       <c r="H5">
-        <v>0.03801565665571402</v>
+        <v>0.08564599541721336</v>
       </c>
       <c r="I5">
-        <v>0.02199311143612249</v>
+        <v>0.04377156171538527</v>
       </c>
       <c r="J5">
-        <v>0.008909014446851351</v>
+        <v>0.01997828482392545</v>
       </c>
       <c r="K5">
-        <v>0.02081239413840993</v>
+        <v>0.01739481073415896</v>
       </c>
       <c r="L5">
-        <v>0.01635427634629435</v>
+        <v>0.01645079885661847</v>
       </c>
       <c r="M5">
-        <v>0.01512982623784907</v>
+        <v>0.01340728750440629</v>
       </c>
       <c r="N5">
-        <v>0.04256267907090523</v>
+        <v>0.07172005498600213</v>
       </c>
       <c r="O5">
-        <v>0.01880981081680861</v>
+        <v>0.01606728374773685</v>
       </c>
       <c r="P5">
-        <v>0.01393405064768028</v>
+        <v>0.01109221570892098</v>
       </c>
       <c r="Q5">
-        <v>0.01855586374213158</v>
+        <v>0.009997491495115814</v>
       </c>
       <c r="R5">
-        <v>0.01265740988039686</v>
+        <v>0.01416711868763975</v>
       </c>
       <c r="S5">
-        <v>0.01308657489892123</v>
+        <v>0.01206806511056659</v>
       </c>
       <c r="T5">
-        <v>0.01267151825114247</v>
+        <v>0.01466206760947426</v>
       </c>
       <c r="U5">
-        <v>0.0136021825956011</v>
+        <v>0.01248257626250896</v>
       </c>
       <c r="V5">
-        <v>0.01402262329553495</v>
+        <v>0.01658888696485998</v>
       </c>
       <c r="W5">
-        <v>0.03971636953323663</v>
+        <v>0.06379460075090307</v>
       </c>
       <c r="X5">
-        <v>0.01069761952440327</v>
+        <v>0.01554149826307993</v>
       </c>
       <c r="Y5">
-        <v>0.01671912746257688</v>
+        <v>0.02405210532717172</v>
       </c>
       <c r="Z5">
-        <v>0.01275408044014483</v>
+        <v>0.01179611677106065</v>
       </c>
       <c r="AA5">
-        <v>0.01276450692895429</v>
+        <v>0.01711928859278808</v>
       </c>
       <c r="AB5">
-        <v>0.01431099617861971</v>
+        <v>0.01573630933163983</v>
       </c>
       <c r="AC5">
-        <v>0.02402248421229968</v>
+        <v>0.02885628473748094</v>
       </c>
       <c r="AD5">
-        <v>0.02707749293922523</v>
+        <v>0.01256834930686869</v>
       </c>
       <c r="AE5">
-        <v>0.04483040838733422</v>
+        <v>0.01463121934185468</v>
       </c>
       <c r="AF5">
-        <v>0.02019481139797255</v>
+        <v>0.01482739987641583</v>
       </c>
       <c r="AG5">
-        <v>0.02930908551496157</v>
+        <v>0.01692939454778914</v>
       </c>
       <c r="AH5">
-        <v>0.04067392521840255</v>
+        <v>0.01733868033538485</v>
       </c>
       <c r="AI5">
-        <v>0.03454705335284303</v>
+        <v>0.02213756957632333</v>
       </c>
       <c r="AJ5">
-        <v>0.01737870393614773</v>
+        <v>0.02152302345237897</v>
       </c>
       <c r="AK5">
-        <v>0.01610025682162206</v>
+        <v>0.01968158667214904</v>
       </c>
       <c r="AL5">
-        <v>0.04135029019169502</v>
+        <v>0.01351888733031131</v>
       </c>
       <c r="AM5">
-        <v>0.01830603446527992</v>
+        <v>0.0140122669375429</v>
       </c>
       <c r="AN5">
-        <v>0.03495918035851417</v>
+        <v>0.01414371758999445</v>
       </c>
       <c r="AO5">
-        <v>0.01871649101298503</v>
+        <v>0.01218406248661467</v>
       </c>
       <c r="AP5">
-        <v>0.04077242002137889</v>
+        <v>0.01392542074244604</v>
       </c>
       <c r="AQ5">
-        <v>0.01645011166607361</v>
+        <v>0.0145511673320921</v>
       </c>
       <c r="AR5">
-        <v>0.03101496312676039</v>
+        <v>0.01826961187802357</v>
       </c>
       <c r="AS5">
-        <v>0.02539913085371056</v>
+        <v>0.01093834690382674</v>
       </c>
       <c r="AT5">
-        <v>0.03686016869221668</v>
+        <v>0.01565652238012753</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1232,139 +1232,139 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03299646086384318</v>
+        <v>0.08459842658087011</v>
       </c>
       <c r="C6">
-        <v>0.05083805310304394</v>
+        <v>0.103294835202605</v>
       </c>
       <c r="D6">
-        <v>0.03156596127837022</v>
+        <v>0.1065058514347125</v>
       </c>
       <c r="E6">
-        <v>0.03656358004052384</v>
+        <v>0.09418081849147864</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.03682405584948101</v>
+        <v>0.0978425851107486</v>
       </c>
       <c r="H6">
-        <v>0.02225192559676635</v>
+        <v>0.1216711849859145</v>
       </c>
       <c r="I6">
-        <v>0.03399287361851271</v>
+        <v>0.1069497250160007</v>
       </c>
       <c r="J6">
-        <v>0.03268366844070747</v>
+        <v>0.08928912773573282</v>
       </c>
       <c r="K6">
-        <v>0.03586611988761174</v>
+        <v>0.09813531231334395</v>
       </c>
       <c r="L6">
-        <v>0.03213960172985685</v>
+        <v>0.09637906743518317</v>
       </c>
       <c r="M6">
-        <v>0.03503529529324423</v>
+        <v>0.09700087740240135</v>
       </c>
       <c r="N6">
-        <v>0.04027125333543045</v>
+        <v>0.1135796020495643</v>
       </c>
       <c r="O6">
-        <v>0.03724575042844713</v>
+        <v>0.1012207519043671</v>
       </c>
       <c r="P6">
-        <v>0.03010826821116238</v>
+        <v>0.09656067921155839</v>
       </c>
       <c r="Q6">
-        <v>0.03290582042043771</v>
+        <v>0.1000938883417871</v>
       </c>
       <c r="R6">
-        <v>0.03303421165243274</v>
+        <v>0.09827059358170311</v>
       </c>
       <c r="S6">
-        <v>0.0301084252953524</v>
+        <v>0.09648752075089374</v>
       </c>
       <c r="T6">
-        <v>0.03387377102458722</v>
+        <v>0.09449284360312075</v>
       </c>
       <c r="U6">
-        <v>0.03155507800604894</v>
+        <v>0.09604965848751065</v>
       </c>
       <c r="V6">
-        <v>0.03255633818365827</v>
+        <v>0.1003938384565111</v>
       </c>
       <c r="W6">
-        <v>0.04947787544359889</v>
+        <v>0.1288788516107198</v>
       </c>
       <c r="X6">
-        <v>0.0311398893665306</v>
+        <v>0.09516711931021864</v>
       </c>
       <c r="Y6">
-        <v>0.03207797405215213</v>
+        <v>0.1053307185063418</v>
       </c>
       <c r="Z6">
-        <v>0.0314163220014865</v>
+        <v>0.09714198052648017</v>
       </c>
       <c r="AA6">
-        <v>0.03182546092210028</v>
+        <v>0.09555799923588755</v>
       </c>
       <c r="AB6">
-        <v>0.03246026705855412</v>
+        <v>0.09243234368371761</v>
       </c>
       <c r="AC6">
-        <v>0.03635575249095776</v>
+        <v>0.1151583326307535</v>
       </c>
       <c r="AD6">
-        <v>0.03384595566315188</v>
+        <v>0.09697802398824043</v>
       </c>
       <c r="AE6">
-        <v>0.04239526669598178</v>
+        <v>0.09823725269535534</v>
       </c>
       <c r="AF6">
-        <v>0.03576144970948341</v>
+        <v>0.09422201684135442</v>
       </c>
       <c r="AG6">
-        <v>0.03181936853294481</v>
+        <v>0.09355375232377969</v>
       </c>
       <c r="AH6">
-        <v>0.05137636919551229</v>
+        <v>0.1004020523797398</v>
       </c>
       <c r="AI6">
-        <v>0.03712432119384677</v>
+        <v>0.09438904433893205</v>
       </c>
       <c r="AJ6">
-        <v>0.03595788552060086</v>
+        <v>0.1009511320383926</v>
       </c>
       <c r="AK6">
-        <v>0.0286237227389657</v>
+        <v>0.0951813385243469</v>
       </c>
       <c r="AL6">
-        <v>0.05682914440352568</v>
+        <v>0.09987419115021715</v>
       </c>
       <c r="AM6">
-        <v>0.03227796212379971</v>
+        <v>0.0994908249090445</v>
       </c>
       <c r="AN6">
-        <v>0.04717198340952484</v>
+        <v>0.09693189091223745</v>
       </c>
       <c r="AO6">
-        <v>0.03736211254927323</v>
+        <v>0.09692092647084172</v>
       </c>
       <c r="AP6">
-        <v>0.02936024409863737</v>
+        <v>0.09416484255014586</v>
       </c>
       <c r="AQ6">
-        <v>0.03911199497857117</v>
+        <v>0.0983854178278073</v>
       </c>
       <c r="AR6">
-        <v>0.03947211500043202</v>
+        <v>0.09767098341239069</v>
       </c>
       <c r="AS6">
-        <v>0.03967134902663064</v>
+        <v>0.0986921437904751</v>
       </c>
       <c r="AT6">
-        <v>0.02947334698701218</v>
+        <v>0.09646173145313874</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1372,139 +1372,139 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0396323959707886</v>
+        <v>0.05829429925102562</v>
       </c>
       <c r="C7">
-        <v>0.04338753724787675</v>
+        <v>0.0342601896149975</v>
       </c>
       <c r="D7">
-        <v>0.01241500628307193</v>
+        <v>0.0280871997213228</v>
       </c>
       <c r="E7">
-        <v>0.01568213715709922</v>
+        <v>0.01466787461461819</v>
       </c>
       <c r="F7">
-        <v>0.03682405584948101</v>
+        <v>0.0978425851107486</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.03298904728429876</v>
+        <v>0.08016790049459174</v>
       </c>
       <c r="I7">
-        <v>0.02194040114241785</v>
+        <v>0.04183624806335056</v>
       </c>
       <c r="J7">
-        <v>0.01279296926417091</v>
+        <v>0.01770002600770455</v>
       </c>
       <c r="K7">
-        <v>0.02178747819519837</v>
+        <v>0.008768595973871316</v>
       </c>
       <c r="L7">
-        <v>0.01364989954139995</v>
+        <v>0.005020849713255601</v>
       </c>
       <c r="M7">
-        <v>0.01228262958122332</v>
+        <v>0.005659095814145977</v>
       </c>
       <c r="N7">
-        <v>0.04331158231338209</v>
+        <v>0.07313978312946508</v>
       </c>
       <c r="O7">
-        <v>0.01493402294672516</v>
+        <v>0.006586778660978869</v>
       </c>
       <c r="P7">
-        <v>0.01074304351147465</v>
+        <v>0.007618991331026785</v>
       </c>
       <c r="Q7">
-        <v>0.01312246093669331</v>
+        <v>0.01284789135583604</v>
       </c>
       <c r="R7">
-        <v>0.01038012733539497</v>
+        <v>0.008765056732298427</v>
       </c>
       <c r="S7">
-        <v>0.009566171480482975</v>
+        <v>0.00807791614196505</v>
       </c>
       <c r="T7">
-        <v>0.009554535238983725</v>
+        <v>0.009784617632049497</v>
       </c>
       <c r="U7">
-        <v>0.01158592372317147</v>
+        <v>0.008456915854367008</v>
       </c>
       <c r="V7">
-        <v>0.01158027967512373</v>
+        <v>0.009980784640262525</v>
       </c>
       <c r="W7">
-        <v>0.03586007423369457</v>
+        <v>0.06109810205068505</v>
       </c>
       <c r="X7">
-        <v>0.008179099910769826</v>
+        <v>0.01006854692144874</v>
       </c>
       <c r="Y7">
-        <v>0.0122234710486316</v>
+        <v>0.01544707937272155</v>
       </c>
       <c r="Z7">
-        <v>0.01100121919260071</v>
+        <v>0.007390060751850445</v>
       </c>
       <c r="AA7">
-        <v>0.01060498431292814</v>
+        <v>0.01228817946940138</v>
       </c>
       <c r="AB7">
-        <v>0.01036975064730173</v>
+        <v>0.01032154560739642</v>
       </c>
       <c r="AC7">
-        <v>0.0152104773500848</v>
+        <v>0.02611908064655402</v>
       </c>
       <c r="AD7">
-        <v>0.02156970524132865</v>
+        <v>0.0112327877278142</v>
       </c>
       <c r="AE7">
-        <v>0.04418107721127137</v>
+        <v>0.009364975701224864</v>
       </c>
       <c r="AF7">
-        <v>0.02186355612632463</v>
+        <v>0.009286460460432194</v>
       </c>
       <c r="AG7">
-        <v>0.03505999693792157</v>
+        <v>0.007443919004500083</v>
       </c>
       <c r="AH7">
-        <v>0.04216361771911469</v>
+        <v>0.01003192985678721</v>
       </c>
       <c r="AI7">
-        <v>0.03437324507496859</v>
+        <v>0.01483141968961</v>
       </c>
       <c r="AJ7">
-        <v>0.0205187497757419</v>
+        <v>0.01652937923795201</v>
       </c>
       <c r="AK7">
-        <v>0.02059380342636991</v>
+        <v>0.007818300133782338</v>
       </c>
       <c r="AL7">
-        <v>0.04677454765074987</v>
+        <v>0.007538467795619391</v>
       </c>
       <c r="AM7">
-        <v>0.02364087420201977</v>
+        <v>0.005976997489553348</v>
       </c>
       <c r="AN7">
-        <v>0.02724868266233412</v>
+        <v>0.01038439492446691</v>
       </c>
       <c r="AO7">
-        <v>0.01736300084373063</v>
+        <v>0.006392929687269061</v>
       </c>
       <c r="AP7">
-        <v>0.04018374526120401</v>
+        <v>0.007690457058978596</v>
       </c>
       <c r="AQ7">
-        <v>0.01446955236104437</v>
+        <v>0.007338022224129391</v>
       </c>
       <c r="AR7">
-        <v>0.03141821858811241</v>
+        <v>0.01366879316154228</v>
       </c>
       <c r="AS7">
-        <v>0.0311660043276254</v>
+        <v>0.01027728664643027</v>
       </c>
       <c r="AT7">
-        <v>0.03572446125504226</v>
+        <v>0.007147137698456291</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1512,139 +1512,139 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.03018488177583526</v>
+        <v>0.08773238033597777</v>
       </c>
       <c r="C8">
-        <v>0.04221623416062026</v>
+        <v>0.07938059681393222</v>
       </c>
       <c r="D8">
-        <v>0.03253200475363734</v>
+        <v>0.09770878482789686</v>
       </c>
       <c r="E8">
-        <v>0.03801565665571402</v>
+        <v>0.08564599541721336</v>
       </c>
       <c r="F8">
-        <v>0.02225192559676635</v>
+        <v>0.1216711849859145</v>
       </c>
       <c r="G8">
-        <v>0.03298904728429876</v>
+        <v>0.08016790049459174</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.02859617536411339</v>
+        <v>0.07276131318550381</v>
       </c>
       <c r="J8">
-        <v>0.03163250828204662</v>
+        <v>0.0925773366251271</v>
       </c>
       <c r="K8">
-        <v>0.03964305263431518</v>
+        <v>0.07672670163561758</v>
       </c>
       <c r="L8">
-        <v>0.03227624967991097</v>
+        <v>0.08257041839393056</v>
       </c>
       <c r="M8">
-        <v>0.03374064145729735</v>
+        <v>0.08070065948509983</v>
       </c>
       <c r="N8">
-        <v>0.02910251640926647</v>
+        <v>0.07461416230071145</v>
       </c>
       <c r="O8">
-        <v>0.03447764772375492</v>
+        <v>0.07997873335767304</v>
       </c>
       <c r="P8">
-        <v>0.03093563859298055</v>
+        <v>0.08207176155537331</v>
       </c>
       <c r="Q8">
-        <v>0.03610355950250476</v>
+        <v>0.08823777771205478</v>
       </c>
       <c r="R8">
-        <v>0.03206478912673593</v>
+        <v>0.07867559176348959</v>
       </c>
       <c r="S8">
-        <v>0.03036533781656249</v>
+        <v>0.08123538724869857</v>
       </c>
       <c r="T8">
-        <v>0.03248498193186063</v>
+        <v>0.07743883113810852</v>
       </c>
       <c r="U8">
-        <v>0.03372428786872238</v>
+        <v>0.08240807982952539</v>
       </c>
       <c r="V8">
-        <v>0.03117226141765618</v>
+        <v>0.08131642742552635</v>
       </c>
       <c r="W8">
-        <v>0.03894007824231992</v>
+        <v>0.09840547111693446</v>
       </c>
       <c r="X8">
-        <v>0.0319819037312303</v>
+        <v>0.08181217786978852</v>
       </c>
       <c r="Y8">
-        <v>0.03258795595760019</v>
+        <v>0.08166493778487684</v>
       </c>
       <c r="Z8">
-        <v>0.03010441592329413</v>
+        <v>0.08123455492499357</v>
       </c>
       <c r="AA8">
-        <v>0.02976284366976103</v>
+        <v>0.07627305305781888</v>
       </c>
       <c r="AB8">
-        <v>0.03182765269565596</v>
+        <v>0.08331580648306591</v>
       </c>
       <c r="AC8">
-        <v>0.03800399248470945</v>
+        <v>0.09095844938995094</v>
       </c>
       <c r="AD8">
-        <v>0.03135731444124275</v>
+        <v>0.08110227820169692</v>
       </c>
       <c r="AE8">
-        <v>0.04036483867899097</v>
+        <v>0.0780694175255771</v>
       </c>
       <c r="AF8">
-        <v>0.03529742345737191</v>
+        <v>0.08100725382582205</v>
       </c>
       <c r="AG8">
-        <v>0.03960992752607232</v>
+        <v>0.07983342542314738</v>
       </c>
       <c r="AH8">
-        <v>0.05379968349470306</v>
+        <v>0.07645532776147956</v>
       </c>
       <c r="AI8">
-        <v>0.03289674265604257</v>
+        <v>0.07360528677903373</v>
       </c>
       <c r="AJ8">
-        <v>0.03744686776956721</v>
+        <v>0.07181286755586094</v>
       </c>
       <c r="AK8">
-        <v>0.03205514411591696</v>
+        <v>0.08104277753095759</v>
       </c>
       <c r="AL8">
-        <v>0.06133277592554256</v>
+        <v>0.08080997462219243</v>
       </c>
       <c r="AM8">
-        <v>0.03281778309799551</v>
+        <v>0.08113506104705827</v>
       </c>
       <c r="AN8">
-        <v>0.04909391616346482</v>
+        <v>0.07960130647418449</v>
       </c>
       <c r="AO8">
-        <v>0.03770045574087377</v>
+        <v>0.08016031810635613</v>
       </c>
       <c r="AP8">
-        <v>0.03394036527280672</v>
+        <v>0.08127239290850304</v>
       </c>
       <c r="AQ8">
-        <v>0.03805009842976464</v>
+        <v>0.07890526126622807</v>
       </c>
       <c r="AR8">
-        <v>0.03381378935632511</v>
+        <v>0.07503423715804666</v>
       </c>
       <c r="AS8">
-        <v>0.04601815243447813</v>
+        <v>0.08129719027729297</v>
       </c>
       <c r="AT8">
-        <v>0.03303454547222279</v>
+        <v>0.08067603493097321</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1652,139 +1652,139 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.03215094236396324</v>
+        <v>0.05997509114834388</v>
       </c>
       <c r="C9">
-        <v>0.0376365991678612</v>
+        <v>0.0319419600517404</v>
       </c>
       <c r="D9">
-        <v>0.02075857878771006</v>
+        <v>0.05526347274958567</v>
       </c>
       <c r="E9">
-        <v>0.02199311143612249</v>
+        <v>0.04377156171538527</v>
       </c>
       <c r="F9">
-        <v>0.03399287361851271</v>
+        <v>0.1069497250160007</v>
       </c>
       <c r="G9">
-        <v>0.02194040114241785</v>
+        <v>0.04183624806335056</v>
       </c>
       <c r="H9">
-        <v>0.02859617536411339</v>
+        <v>0.07276131318550381</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02033929114598245</v>
+        <v>0.04975328479941336</v>
       </c>
       <c r="K9">
-        <v>0.02557120258416771</v>
+        <v>0.03790169148672554</v>
       </c>
       <c r="L9">
-        <v>0.02044903824219205</v>
+        <v>0.04249366321491373</v>
       </c>
       <c r="M9">
-        <v>0.02099161542859085</v>
+        <v>0.03850983013496598</v>
       </c>
       <c r="N9">
-        <v>0.03596909820596361</v>
+        <v>0.05065559894083262</v>
       </c>
       <c r="O9">
-        <v>0.02093172884593695</v>
+        <v>0.03708125998535231</v>
       </c>
       <c r="P9">
-        <v>0.01978079356994743</v>
+        <v>0.03984716678163736</v>
       </c>
       <c r="Q9">
-        <v>0.02209678097579484</v>
+        <v>0.04077101886300795</v>
       </c>
       <c r="R9">
-        <v>0.02007766989435415</v>
+        <v>0.03634487340668168</v>
       </c>
       <c r="S9">
-        <v>0.02030541863933792</v>
+        <v>0.03832946759005787</v>
       </c>
       <c r="T9">
-        <v>0.01939390304425223</v>
+        <v>0.03508158773320925</v>
       </c>
       <c r="U9">
-        <v>0.02243956794351321</v>
+        <v>0.04017254623109043</v>
       </c>
       <c r="V9">
-        <v>0.0205069000601512</v>
+        <v>0.03393402376022955</v>
       </c>
       <c r="W9">
-        <v>0.03728170332778913</v>
+        <v>0.0596521475600942</v>
       </c>
       <c r="X9">
-        <v>0.01825347325841511</v>
+        <v>0.03950982325924243</v>
       </c>
       <c r="Y9">
-        <v>0.02027467562736451</v>
+        <v>0.05015908284567523</v>
       </c>
       <c r="Z9">
-        <v>0.0195067406787667</v>
+        <v>0.03880102796082662</v>
       </c>
       <c r="AA9">
-        <v>0.02135217300350056</v>
+        <v>0.03982337381951149</v>
       </c>
       <c r="AB9">
-        <v>0.01993252925421888</v>
+        <v>0.0406722999895243</v>
       </c>
       <c r="AC9">
-        <v>0.02770265204144605</v>
+        <v>0.04864699679930624</v>
       </c>
       <c r="AD9">
-        <v>0.02325070275578613</v>
+        <v>0.03813156748043671</v>
       </c>
       <c r="AE9">
-        <v>0.04069175064633817</v>
+        <v>0.03443353080622526</v>
       </c>
       <c r="AF9">
-        <v>0.02014657834566506</v>
+        <v>0.03888159424480051</v>
       </c>
       <c r="AG9">
-        <v>0.03768707332094221</v>
+        <v>0.04026118055836534</v>
       </c>
       <c r="AH9">
-        <v>0.04725786708524021</v>
+        <v>0.04154810964125999</v>
       </c>
       <c r="AI9">
-        <v>0.03148498192990266</v>
+        <v>0.03744028086154718</v>
       </c>
       <c r="AJ9">
-        <v>0.0264579835233477</v>
+        <v>0.03596747015981763</v>
       </c>
       <c r="AK9">
-        <v>0.02353624640695681</v>
+        <v>0.0413559188872286</v>
       </c>
       <c r="AL9">
-        <v>0.05384989722717466</v>
+        <v>0.0379132378169283</v>
       </c>
       <c r="AM9">
-        <v>0.02881166898838051</v>
+        <v>0.03836821517230113</v>
       </c>
       <c r="AN9">
-        <v>0.04141233984437738</v>
+        <v>0.03631885481348181</v>
       </c>
       <c r="AO9">
-        <v>0.02597160979723891</v>
+        <v>0.03809540296217935</v>
       </c>
       <c r="AP9">
-        <v>0.04377466699915351</v>
+        <v>0.03959076644199574</v>
       </c>
       <c r="AQ9">
-        <v>0.0233963632523521</v>
+        <v>0.03675256376280353</v>
       </c>
       <c r="AR9">
-        <v>0.03321522294496122</v>
+        <v>0.03905580420003072</v>
       </c>
       <c r="AS9">
-        <v>0.03234999659011883</v>
+        <v>0.03917551076235086</v>
       </c>
       <c r="AT9">
-        <v>0.02898156029973295</v>
+        <v>0.03773266897105181</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1792,139 +1792,139 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.04350202078715131</v>
+        <v>0.06917279672957712</v>
       </c>
       <c r="C10">
-        <v>0.04518833181965854</v>
+        <v>0.04542126310505993</v>
       </c>
       <c r="D10">
-        <v>0.006771428980802895</v>
+        <v>0.03291628502790107</v>
       </c>
       <c r="E10">
-        <v>0.008909014446851351</v>
+        <v>0.01997828482392545</v>
       </c>
       <c r="F10">
-        <v>0.03268366844070747</v>
+        <v>0.08928912773573282</v>
       </c>
       <c r="G10">
-        <v>0.01279296926417091</v>
+        <v>0.01770002600770455</v>
       </c>
       <c r="H10">
-        <v>0.03163250828204662</v>
+        <v>0.0925773366251271</v>
       </c>
       <c r="I10">
-        <v>0.02033929114598245</v>
+        <v>0.04975328479941336</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.01697667209456554</v>
+        <v>0.01993921068881607</v>
       </c>
       <c r="L10">
-        <v>0.009865296789252484</v>
+        <v>0.01697355922094186</v>
       </c>
       <c r="M10">
-        <v>0.01049779962396446</v>
+        <v>0.01739592431689958</v>
       </c>
       <c r="N10">
-        <v>0.04500631125645763</v>
+        <v>0.08344646011628044</v>
       </c>
       <c r="O10">
-        <v>0.0111949937296885</v>
+        <v>0.0187572001911737</v>
       </c>
       <c r="P10">
-        <v>0.009032699733880142</v>
+        <v>0.01939761262469232</v>
       </c>
       <c r="Q10">
-        <v>0.01196530362903791</v>
+        <v>0.01935055335892632</v>
       </c>
       <c r="R10">
-        <v>0.005986949864721426</v>
+        <v>0.02024492428002214</v>
       </c>
       <c r="S10">
-        <v>0.007107884534564365</v>
+        <v>0.01970149693596242</v>
       </c>
       <c r="T10">
-        <v>0.006416079326035998</v>
+        <v>0.01873811389548437</v>
       </c>
       <c r="U10">
-        <v>0.00990679948877452</v>
+        <v>0.01985979543018674</v>
       </c>
       <c r="V10">
-        <v>0.008507255330796347</v>
+        <v>0.02078139590746045</v>
       </c>
       <c r="W10">
-        <v>0.03367737639053133</v>
+        <v>0.06519258785801868</v>
       </c>
       <c r="X10">
-        <v>0.00768436930718153</v>
+        <v>0.01840521423253255</v>
       </c>
       <c r="Y10">
-        <v>0.01135834041755049</v>
+        <v>0.03034954741959267</v>
       </c>
       <c r="Z10">
-        <v>0.006861632884321111</v>
+        <v>0.01869158239623785</v>
       </c>
       <c r="AA10">
-        <v>0.008167632174099619</v>
+        <v>0.02405368267655128</v>
       </c>
       <c r="AB10">
-        <v>0.008134730271925855</v>
+        <v>0.0164507250230348</v>
       </c>
       <c r="AC10">
-        <v>0.01770905217491705</v>
+        <v>0.03343243854513363</v>
       </c>
       <c r="AD10">
-        <v>0.02350827891308203</v>
+        <v>0.02251500957693326</v>
       </c>
       <c r="AE10">
-        <v>0.04109261274922627</v>
+        <v>0.01867550255872087</v>
       </c>
       <c r="AF10">
-        <v>0.01846843803134449</v>
+        <v>0.01668669427384041</v>
       </c>
       <c r="AG10">
-        <v>0.02831428317840349</v>
+        <v>0.01974000000027323</v>
       </c>
       <c r="AH10">
-        <v>0.0377234045448093</v>
+        <v>0.02354790802231665</v>
       </c>
       <c r="AI10">
-        <v>0.03141477359130982</v>
+        <v>0.02628880338906184</v>
       </c>
       <c r="AJ10">
-        <v>0.01548225647414354</v>
+        <v>0.02480245520276683</v>
       </c>
       <c r="AK10">
-        <v>0.01256875234704315</v>
+        <v>0.01854056150293088</v>
       </c>
       <c r="AL10">
-        <v>0.03898858060600018</v>
+        <v>0.01956873477597153</v>
       </c>
       <c r="AM10">
-        <v>0.01713456243703583</v>
+        <v>0.01752660851285315</v>
       </c>
       <c r="AN10">
-        <v>0.03032307678356585</v>
+        <v>0.01812823119501269</v>
       </c>
       <c r="AO10">
-        <v>0.01396616907208427</v>
+        <v>0.01669080109826129</v>
       </c>
       <c r="AP10">
-        <v>0.04338100394899683</v>
+        <v>0.01831751891961267</v>
       </c>
       <c r="AQ10">
-        <v>0.01104339415820724</v>
+        <v>0.01873895808522578</v>
       </c>
       <c r="AR10">
-        <v>0.02706104526673116</v>
+        <v>0.02418395757108978</v>
       </c>
       <c r="AS10">
-        <v>0.02469479461847515</v>
+        <v>0.02145865638962834</v>
       </c>
       <c r="AT10">
-        <v>0.03749675855834164</v>
+        <v>0.01944424461828469</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -1932,139 +1932,139 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.04928871178630551</v>
+        <v>0.0552887342421058</v>
       </c>
       <c r="C11">
-        <v>0.04783874827289886</v>
+        <v>0.03464680199131029</v>
       </c>
       <c r="D11">
-        <v>0.01842753017455099</v>
+        <v>0.02867697016522143</v>
       </c>
       <c r="E11">
-        <v>0.02081239413840993</v>
+        <v>0.01739481073415896</v>
       </c>
       <c r="F11">
-        <v>0.03586611988761174</v>
+        <v>0.09813531231334395</v>
       </c>
       <c r="G11">
-        <v>0.02178747819519837</v>
+        <v>0.008768595973871316</v>
       </c>
       <c r="H11">
-        <v>0.03964305263431518</v>
+        <v>0.07672670163561758</v>
       </c>
       <c r="I11">
-        <v>0.02557120258416771</v>
+        <v>0.03790169148672554</v>
       </c>
       <c r="J11">
-        <v>0.01697667209456554</v>
+        <v>0.01993921068881607</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.02014005523593954</v>
+        <v>0.01069475652804847</v>
       </c>
       <c r="M11">
-        <v>0.01876872535379491</v>
+        <v>0.00921787269851997</v>
       </c>
       <c r="N11">
-        <v>0.04534108702395444</v>
+        <v>0.07202721774019083</v>
       </c>
       <c r="O11">
-        <v>0.01892214576287768</v>
+        <v>0.0110568517227991</v>
       </c>
       <c r="P11">
-        <v>0.01661564567976367</v>
+        <v>0.01055505814905738</v>
       </c>
       <c r="Q11">
-        <v>0.01663094763398116</v>
+        <v>0.01596399725556935</v>
       </c>
       <c r="R11">
-        <v>0.01612500287562164</v>
+        <v>0.009721027222026153</v>
       </c>
       <c r="S11">
-        <v>0.01771450446039189</v>
+        <v>0.008209937213718332</v>
       </c>
       <c r="T11">
-        <v>0.0156480529732399</v>
+        <v>0.01031192225743125</v>
       </c>
       <c r="U11">
-        <v>0.01791631848723771</v>
+        <v>0.01117997216106116</v>
       </c>
       <c r="V11">
-        <v>0.0165933716578067</v>
+        <v>0.01030437397712511</v>
       </c>
       <c r="W11">
-        <v>0.03169951324148149</v>
+        <v>0.06219953751334972</v>
       </c>
       <c r="X11">
-        <v>0.01732190935547665</v>
+        <v>0.01042233254802157</v>
       </c>
       <c r="Y11">
-        <v>0.0173279728776594</v>
+        <v>0.01702585494484847</v>
       </c>
       <c r="Z11">
-        <v>0.01851283410889957</v>
+        <v>0.00748595300015964</v>
       </c>
       <c r="AA11">
-        <v>0.01651491910050933</v>
+        <v>0.01365169101721332</v>
       </c>
       <c r="AB11">
-        <v>0.01753731005598978</v>
+        <v>0.01311961656012601</v>
       </c>
       <c r="AC11">
-        <v>0.0242795561981237</v>
+        <v>0.02196682336915491</v>
       </c>
       <c r="AD11">
-        <v>0.02743848785739739</v>
+        <v>0.01132995443144478</v>
       </c>
       <c r="AE11">
-        <v>0.04628486546068662</v>
+        <v>0.00797787408585016</v>
       </c>
       <c r="AF11">
-        <v>0.02570204285830685</v>
+        <v>0.01195854455196032</v>
       </c>
       <c r="AG11">
-        <v>0.03546400835774237</v>
+        <v>0.008846767830730717</v>
       </c>
       <c r="AH11">
-        <v>0.04694978472662031</v>
+        <v>0.01303461253735104</v>
       </c>
       <c r="AI11">
-        <v>0.0348810195600425</v>
+        <v>0.01187548838469143</v>
       </c>
       <c r="AJ11">
-        <v>0.02451473817990898</v>
+        <v>0.01156708205216984</v>
       </c>
       <c r="AK11">
-        <v>0.02306816441905441</v>
+        <v>0.01015381869347671</v>
       </c>
       <c r="AL11">
-        <v>0.04917104836594471</v>
+        <v>0.01030939897157912</v>
       </c>
       <c r="AM11">
-        <v>0.0247499571783576</v>
+        <v>0.01046656124098892</v>
       </c>
       <c r="AN11">
-        <v>0.03901548049801247</v>
+        <v>0.006588882335492301</v>
       </c>
       <c r="AO11">
-        <v>0.02406453209586775</v>
+        <v>0.009092516871161341</v>
       </c>
       <c r="AP11">
-        <v>0.04453234110002164</v>
+        <v>0.009241627523581453</v>
       </c>
       <c r="AQ11">
-        <v>0.02338508074365938</v>
+        <v>0.007392410950647219</v>
       </c>
       <c r="AR11">
-        <v>0.02768717544150677</v>
+        <v>0.01238733739010823</v>
       </c>
       <c r="AS11">
-        <v>0.02734450458887372</v>
+        <v>0.01303815298110996</v>
       </c>
       <c r="AT11">
-        <v>0.04131257394969503</v>
+        <v>0.01008138631140481</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2072,139 +2072,139 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.04194988943423203</v>
+        <v>0.05955748588827829</v>
       </c>
       <c r="C12">
-        <v>0.04611771692634137</v>
+        <v>0.03549333365286263</v>
       </c>
       <c r="D12">
-        <v>0.01306789270370445</v>
+        <v>0.02746016912932463</v>
       </c>
       <c r="E12">
-        <v>0.01635427634629435</v>
+        <v>0.01645079885661847</v>
       </c>
       <c r="F12">
-        <v>0.03213960172985685</v>
+        <v>0.09637906743518317</v>
       </c>
       <c r="G12">
-        <v>0.01364989954139995</v>
+        <v>0.005020849713255601</v>
       </c>
       <c r="H12">
-        <v>0.03227624967991097</v>
+        <v>0.08257041839393056</v>
       </c>
       <c r="I12">
-        <v>0.02044903824219205</v>
+        <v>0.04249366321491373</v>
       </c>
       <c r="J12">
-        <v>0.009865296789252484</v>
+        <v>0.01697355922094186</v>
       </c>
       <c r="K12">
-        <v>0.02014005523593954</v>
+        <v>0.01069475652804847</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.01211029624328845</v>
+        <v>0.007433423195203764</v>
       </c>
       <c r="N12">
-        <v>0.04417193834296915</v>
+        <v>0.07313579558638146</v>
       </c>
       <c r="O12">
-        <v>0.01233916944311593</v>
+        <v>0.009025649011142804</v>
       </c>
       <c r="P12">
-        <v>0.01005184065283767</v>
+        <v>0.007284172478808074</v>
       </c>
       <c r="Q12">
-        <v>0.01357482502469946</v>
+        <v>0.01223014018288911</v>
       </c>
       <c r="R12">
-        <v>0.008594262547309717</v>
+        <v>0.008233691652363264</v>
       </c>
       <c r="S12">
-        <v>0.006741105174460329</v>
+        <v>0.007498739286866834</v>
       </c>
       <c r="T12">
-        <v>0.008622755176858626</v>
+        <v>0.01028181446788333</v>
       </c>
       <c r="U12">
-        <v>0.01013768924160801</v>
+        <v>0.008201969967650947</v>
       </c>
       <c r="V12">
-        <v>0.01164878281746348</v>
+        <v>0.0109118887969782</v>
       </c>
       <c r="W12">
-        <v>0.03750519306978332</v>
+        <v>0.05982738836834158</v>
       </c>
       <c r="X12">
-        <v>0.008788838197214785</v>
+        <v>0.0135336771985912</v>
       </c>
       <c r="Y12">
-        <v>0.01133481041041082</v>
+        <v>0.01815290089504839</v>
       </c>
       <c r="Z12">
-        <v>0.01078142841765661</v>
+        <v>0.007874139317064287</v>
       </c>
       <c r="AA12">
-        <v>0.009089127848447913</v>
+        <v>0.01495300706823196</v>
       </c>
       <c r="AB12">
-        <v>0.008181296671361261</v>
+        <v>0.008950684368915636</v>
       </c>
       <c r="AC12">
-        <v>0.01890170097818484</v>
+        <v>0.02716405456549946</v>
       </c>
       <c r="AD12">
-        <v>0.02205252505913948</v>
+        <v>0.01068975284233379</v>
       </c>
       <c r="AE12">
-        <v>0.04085826086184549</v>
+        <v>0.009847034235047901</v>
       </c>
       <c r="AF12">
-        <v>0.01855509557964898</v>
+        <v>0.01099729846426521</v>
       </c>
       <c r="AG12">
-        <v>0.03079632709429485</v>
+        <v>0.004335053586866439</v>
       </c>
       <c r="AH12">
-        <v>0.03732107951817897</v>
+        <v>0.01233776876846353</v>
       </c>
       <c r="AI12">
-        <v>0.03392625498362337</v>
+        <v>0.01493595421383066</v>
       </c>
       <c r="AJ12">
-        <v>0.01871065659972332</v>
+        <v>0.01887122057672731</v>
       </c>
       <c r="AK12">
-        <v>0.01537332708061988</v>
+        <v>0.006185328614443056</v>
       </c>
       <c r="AL12">
-        <v>0.04312346910007028</v>
+        <v>0.007588225835542859</v>
       </c>
       <c r="AM12">
-        <v>0.02067645285784214</v>
+        <v>0.007522006156927345</v>
       </c>
       <c r="AN12">
-        <v>0.03207166258085152</v>
+        <v>0.009788779023693331</v>
       </c>
       <c r="AO12">
-        <v>0.01334221175179959</v>
+        <v>0.007633070207640042</v>
       </c>
       <c r="AP12">
-        <v>0.04057831322869584</v>
+        <v>0.008052774694331308</v>
       </c>
       <c r="AQ12">
-        <v>0.01337704232502946</v>
+        <v>0.008877716709483586</v>
       </c>
       <c r="AR12">
-        <v>0.03048354626671991</v>
+        <v>0.01330046336830006</v>
       </c>
       <c r="AS12">
-        <v>0.02198816735591886</v>
+        <v>0.01136993704206639</v>
       </c>
       <c r="AT12">
-        <v>0.03255319763064089</v>
+        <v>0.007744005942273519</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2212,139 +2212,139 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.04239721091226546</v>
+        <v>0.05449381100825882</v>
       </c>
       <c r="C13">
-        <v>0.04117304265805875</v>
+        <v>0.0319527350011466</v>
       </c>
       <c r="D13">
-        <v>0.01221035509610945</v>
+        <v>0.02461904847259026</v>
       </c>
       <c r="E13">
-        <v>0.01512982623784907</v>
+        <v>0.01340728750440629</v>
       </c>
       <c r="F13">
-        <v>0.03503529529324423</v>
+        <v>0.09700087740240135</v>
       </c>
       <c r="G13">
-        <v>0.01228262958122332</v>
+        <v>0.005659095814145977</v>
       </c>
       <c r="H13">
-        <v>0.03374064145729735</v>
+        <v>0.08070065948509983</v>
       </c>
       <c r="I13">
-        <v>0.02099161542859085</v>
+        <v>0.03850983013496598</v>
       </c>
       <c r="J13">
-        <v>0.01049779962396446</v>
+        <v>0.01739592431689958</v>
       </c>
       <c r="K13">
-        <v>0.01876872535379491</v>
+        <v>0.00921787269851997</v>
       </c>
       <c r="L13">
-        <v>0.01211029624328845</v>
+        <v>0.007433423195203764</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.04702898561167586</v>
+        <v>0.07413071983314604</v>
       </c>
       <c r="O13">
-        <v>0.01555173282634231</v>
+        <v>0.004955146961282334</v>
       </c>
       <c r="P13">
-        <v>0.009563747023148406</v>
+        <v>0.00616646291406375</v>
       </c>
       <c r="Q13">
-        <v>0.01148645985046701</v>
+        <v>0.01272068386596374</v>
       </c>
       <c r="R13">
-        <v>0.009799026738729144</v>
+        <v>0.006840091936002072</v>
       </c>
       <c r="S13">
-        <v>0.01037370731287198</v>
+        <v>0.00500208358090436</v>
       </c>
       <c r="T13">
-        <v>0.01025949926454163</v>
+        <v>0.006709898528913247</v>
       </c>
       <c r="U13">
-        <v>0.01122685280500846</v>
+        <v>0.006809611395281961</v>
       </c>
       <c r="V13">
-        <v>0.01132330427389774</v>
+        <v>0.0079156923825813</v>
       </c>
       <c r="W13">
-        <v>0.03757768242454315</v>
+        <v>0.0592973991413642</v>
       </c>
       <c r="X13">
-        <v>0.009808210912230879</v>
+        <v>0.008484919802041732</v>
       </c>
       <c r="Y13">
-        <v>0.009692032888241588</v>
+        <v>0.01539133806883056</v>
       </c>
       <c r="Z13">
-        <v>0.01270111232702231</v>
+        <v>0.004043509842801479</v>
       </c>
       <c r="AA13">
-        <v>0.01004539822480021</v>
+        <v>0.009713928407660046</v>
       </c>
       <c r="AB13">
-        <v>0.01144583885514598</v>
+        <v>0.009023214031239469</v>
       </c>
       <c r="AC13">
-        <v>0.01671686444590459</v>
+        <v>0.02630952962687291</v>
       </c>
       <c r="AD13">
-        <v>0.02318063873288056</v>
+        <v>0.007983859492660174</v>
       </c>
       <c r="AE13">
-        <v>0.04148701073628876</v>
+        <v>0.006201371801372306</v>
       </c>
       <c r="AF13">
-        <v>0.01977700271056984</v>
+        <v>0.008937640092079185</v>
       </c>
       <c r="AG13">
-        <v>0.03044744585336049</v>
+        <v>0.008293889346006646</v>
       </c>
       <c r="AH13">
-        <v>0.04017893630586709</v>
+        <v>0.008864474886034757</v>
       </c>
       <c r="AI13">
-        <v>0.03127095435342889</v>
+        <v>0.0137167141672926</v>
       </c>
       <c r="AJ13">
-        <v>0.01799164676891251</v>
+        <v>0.01374581039049344</v>
       </c>
       <c r="AK13">
-        <v>0.01914659937038691</v>
+        <v>0.009251209674783777</v>
       </c>
       <c r="AL13">
-        <v>0.0431058480720122</v>
+        <v>0.008178662314240578</v>
       </c>
       <c r="AM13">
-        <v>0.01829434038405087</v>
+        <v>0.003930521852130366</v>
       </c>
       <c r="AN13">
-        <v>0.02801289362846712</v>
+        <v>0.007324435482410302</v>
       </c>
       <c r="AO13">
-        <v>0.01733112325269645</v>
+        <v>0.005443538710463423</v>
       </c>
       <c r="AP13">
-        <v>0.04434327205014086</v>
+        <v>0.005081472793857717</v>
       </c>
       <c r="AQ13">
-        <v>0.01625797310463391</v>
+        <v>0.00595785474085326</v>
       </c>
       <c r="AR13">
-        <v>0.03081117063938497</v>
+        <v>0.0105605746701756</v>
       </c>
       <c r="AS13">
-        <v>0.02624741649004799</v>
+        <v>0.009040537380958188</v>
       </c>
       <c r="AT13">
-        <v>0.03594263934160309</v>
+        <v>0.004460818764916974</v>
       </c>
     </row>
     <row r="14" spans="1:46">
@@ -2352,139 +2352,139 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.03136211725636208</v>
+        <v>0.07162747714013618</v>
       </c>
       <c r="C14">
-        <v>0.04959099984565552</v>
+        <v>0.05424224243156499</v>
       </c>
       <c r="D14">
-        <v>0.04511254847861572</v>
+        <v>0.08914249831342588</v>
       </c>
       <c r="E14">
-        <v>0.04256267907090523</v>
+        <v>0.07172005498600213</v>
       </c>
       <c r="F14">
-        <v>0.04027125333543045</v>
+        <v>0.1135796020495643</v>
       </c>
       <c r="G14">
-        <v>0.04331158231338209</v>
+        <v>0.07313978312946508</v>
       </c>
       <c r="H14">
-        <v>0.02910251640926647</v>
+        <v>0.07461416230071145</v>
       </c>
       <c r="I14">
-        <v>0.03596909820596361</v>
+        <v>0.05065559894083262</v>
       </c>
       <c r="J14">
-        <v>0.04500631125645763</v>
+        <v>0.08344646011628044</v>
       </c>
       <c r="K14">
-        <v>0.04534108702395444</v>
+        <v>0.07202721774019083</v>
       </c>
       <c r="L14">
-        <v>0.04417193834296915</v>
+        <v>0.07313579558638146</v>
       </c>
       <c r="M14">
-        <v>0.04702898561167586</v>
+        <v>0.07413071983314604</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.04605600507583079</v>
+        <v>0.07168625258954263</v>
       </c>
       <c r="P14">
-        <v>0.04331920284025007</v>
+        <v>0.07542627795756676</v>
       </c>
       <c r="Q14">
-        <v>0.04693826810480878</v>
+        <v>0.07332099137525037</v>
       </c>
       <c r="R14">
-        <v>0.04548390674766942</v>
+        <v>0.07205057421572833</v>
       </c>
       <c r="S14">
-        <v>0.04391225178485384</v>
+        <v>0.07415676737356036</v>
       </c>
       <c r="T14">
-        <v>0.04553890999562398</v>
+        <v>0.07383212056243779</v>
       </c>
       <c r="U14">
-        <v>0.04602661012001474</v>
+        <v>0.07581744684239652</v>
       </c>
       <c r="V14">
-        <v>0.04352028783464484</v>
+        <v>0.06980618184695739</v>
       </c>
       <c r="W14">
-        <v>0.04450071869645239</v>
+        <v>0.06214000225552536</v>
       </c>
       <c r="X14">
-        <v>0.0435408175328691</v>
+        <v>0.07311022796878294</v>
       </c>
       <c r="Y14">
-        <v>0.0447067982020626</v>
+        <v>0.08187985841598211</v>
       </c>
       <c r="Z14">
-        <v>0.04236575462748297</v>
+        <v>0.0740629618749271</v>
       </c>
       <c r="AA14">
-        <v>0.04442707949596503</v>
+        <v>0.07145017126490281</v>
       </c>
       <c r="AB14">
-        <v>0.04575410284170561</v>
+        <v>0.07195171548950915</v>
       </c>
       <c r="AC14">
-        <v>0.04732900655984339</v>
+        <v>0.08586145504672761</v>
       </c>
       <c r="AD14">
-        <v>0.04509532614634952</v>
+        <v>0.07077320608357687</v>
       </c>
       <c r="AE14">
-        <v>0.04802566073684583</v>
+        <v>0.07350086250009223</v>
       </c>
       <c r="AF14">
-        <v>0.04240458706841126</v>
+        <v>0.07434612448767952</v>
       </c>
       <c r="AG14">
-        <v>0.04748428410627523</v>
+        <v>0.07084478538573367</v>
       </c>
       <c r="AH14">
-        <v>0.06730047349497244</v>
+        <v>0.07719135417735258</v>
       </c>
       <c r="AI14">
-        <v>0.04634352072209953</v>
+        <v>0.0720741799334024</v>
       </c>
       <c r="AJ14">
-        <v>0.04840876671311948</v>
+        <v>0.07320984937345551</v>
       </c>
       <c r="AK14">
-        <v>0.04443110524674969</v>
+        <v>0.07371203594621496</v>
       </c>
       <c r="AL14">
-        <v>0.07188548449857679</v>
+        <v>0.07368049348116872</v>
       </c>
       <c r="AM14">
-        <v>0.04815056846617622</v>
+        <v>0.07243416648423623</v>
       </c>
       <c r="AN14">
-        <v>0.06410046907228213</v>
+        <v>0.07544704685864483</v>
       </c>
       <c r="AO14">
-        <v>0.04821330445803963</v>
+        <v>0.07302093475774721</v>
       </c>
       <c r="AP14">
-        <v>0.0423494373749407</v>
+        <v>0.07208607977729929</v>
       </c>
       <c r="AQ14">
-        <v>0.04924989699285121</v>
+        <v>0.07220098815896099</v>
       </c>
       <c r="AR14">
-        <v>0.03926182742896674</v>
+        <v>0.07703236452854961</v>
       </c>
       <c r="AS14">
-        <v>0.04846067714978563</v>
+        <v>0.07147757516292051</v>
       </c>
       <c r="AT14">
-        <v>0.03568309816751615</v>
+        <v>0.07585352415141475</v>
       </c>
     </row>
     <row r="15" spans="1:46">
@@ -2492,139 +2492,139 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.04598770652774311</v>
+        <v>0.05440336901949441</v>
       </c>
       <c r="C15">
-        <v>0.04623555474770449</v>
+        <v>0.03034147098266543</v>
       </c>
       <c r="D15">
-        <v>0.01502933218383044</v>
+        <v>0.02667984269005503</v>
       </c>
       <c r="E15">
-        <v>0.01880981081680861</v>
+        <v>0.01606728374773685</v>
       </c>
       <c r="F15">
-        <v>0.03724575042844713</v>
+        <v>0.1012207519043671</v>
       </c>
       <c r="G15">
-        <v>0.01493402294672516</v>
+        <v>0.006586778660978869</v>
       </c>
       <c r="H15">
-        <v>0.03447764772375492</v>
+        <v>0.07997873335767304</v>
       </c>
       <c r="I15">
-        <v>0.02093172884593695</v>
+        <v>0.03708125998535231</v>
       </c>
       <c r="J15">
-        <v>0.0111949937296885</v>
+        <v>0.0187572001911737</v>
       </c>
       <c r="K15">
-        <v>0.01892214576287768</v>
+        <v>0.0110568517227991</v>
       </c>
       <c r="L15">
-        <v>0.01233916944311593</v>
+        <v>0.009025649011142804</v>
       </c>
       <c r="M15">
-        <v>0.01555173282634231</v>
+        <v>0.004955146961282334</v>
       </c>
       <c r="N15">
-        <v>0.04605600507583079</v>
+        <v>0.07168625258954263</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.0125226056226589</v>
+        <v>0.009156857871101154</v>
       </c>
       <c r="Q15">
-        <v>0.01236317810112116</v>
+        <v>0.01404515708234663</v>
       </c>
       <c r="R15">
-        <v>0.01095748677038738</v>
+        <v>0.00814946164961639</v>
       </c>
       <c r="S15">
-        <v>0.0103680591392186</v>
+        <v>0.007734016869563293</v>
       </c>
       <c r="T15">
-        <v>0.01100512623719551</v>
+        <v>0.00961711205920119</v>
       </c>
       <c r="U15">
-        <v>0.01097175161763489</v>
+        <v>0.009796505923866064</v>
       </c>
       <c r="V15">
-        <v>0.01163240118220619</v>
+        <v>0.007067439963983291</v>
       </c>
       <c r="W15">
-        <v>0.03419669415569163</v>
+        <v>0.05732474800129547</v>
       </c>
       <c r="X15">
-        <v>0.01185150499960127</v>
+        <v>0.0084505420020338</v>
       </c>
       <c r="Y15">
-        <v>0.01478075507997729</v>
+        <v>0.01840371888109833</v>
       </c>
       <c r="Z15">
-        <v>0.01145548824234885</v>
+        <v>0.006980150793006961</v>
       </c>
       <c r="AA15">
-        <v>0.009904558437399898</v>
+        <v>0.007998709439571377</v>
       </c>
       <c r="AB15">
-        <v>0.01108433752433878</v>
+        <v>0.01136276685958559</v>
       </c>
       <c r="AC15">
-        <v>0.01560804043748189</v>
+        <v>0.02577471568597533</v>
       </c>
       <c r="AD15">
-        <v>0.02667368769942059</v>
+        <v>0.01057350862557037</v>
       </c>
       <c r="AE15">
-        <v>0.04502780379449745</v>
+        <v>0.007036595061113812</v>
       </c>
       <c r="AF15">
-        <v>0.02191373839515575</v>
+        <v>0.01069198222110405</v>
       </c>
       <c r="AG15">
-        <v>0.03183798075021377</v>
+        <v>0.00961978295860071</v>
       </c>
       <c r="AH15">
-        <v>0.03584102173659896</v>
+        <v>0.01036081986706929</v>
       </c>
       <c r="AI15">
-        <v>0.03514126782127434</v>
+        <v>0.01414197277606469</v>
       </c>
       <c r="AJ15">
-        <v>0.01967123763703993</v>
+        <v>0.01459692582680947</v>
       </c>
       <c r="AK15">
-        <v>0.02025783054480606</v>
+        <v>0.01060734705777734</v>
       </c>
       <c r="AL15">
-        <v>0.03828875660942747</v>
+        <v>0.008597726035903024</v>
       </c>
       <c r="AM15">
-        <v>0.02294624862552824</v>
+        <v>0.003159429102249406</v>
       </c>
       <c r="AN15">
-        <v>0.03505525402414931</v>
+        <v>0.009745845530776155</v>
       </c>
       <c r="AO15">
-        <v>0.01879111101714871</v>
+        <v>0.007732464447573066</v>
       </c>
       <c r="AP15">
-        <v>0.04211611136497478</v>
+        <v>0.007943248186731052</v>
       </c>
       <c r="AQ15">
-        <v>0.0185631258290101</v>
+        <v>0.00704249004587087</v>
       </c>
       <c r="AR15">
-        <v>0.02972534166070374</v>
+        <v>0.01327728383706274</v>
       </c>
       <c r="AS15">
-        <v>0.02421613133472044</v>
+        <v>0.01041922898131453</v>
       </c>
       <c r="AT15">
-        <v>0.03936436529973768</v>
+        <v>0.006453558299196242</v>
       </c>
     </row>
     <row r="16" spans="1:46">
@@ -2632,139 +2632,139 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.04011091426446236</v>
+        <v>0.05463835885356377</v>
       </c>
       <c r="C16">
-        <v>0.04338373107918241</v>
+        <v>0.03438274214798153</v>
       </c>
       <c r="D16">
-        <v>0.01021036112302117</v>
+        <v>0.02506509074100382</v>
       </c>
       <c r="E16">
-        <v>0.01393405064768028</v>
+        <v>0.01109221570892098</v>
       </c>
       <c r="F16">
-        <v>0.03010826821116238</v>
+        <v>0.09656067921155839</v>
       </c>
       <c r="G16">
-        <v>0.01074304351147465</v>
+        <v>0.007618991331026785</v>
       </c>
       <c r="H16">
-        <v>0.03093563859298055</v>
+        <v>0.08207176155537331</v>
       </c>
       <c r="I16">
-        <v>0.01978079356994743</v>
+        <v>0.03984716678163736</v>
       </c>
       <c r="J16">
-        <v>0.009032699733880142</v>
+        <v>0.01939761262469232</v>
       </c>
       <c r="K16">
-        <v>0.01661564567976367</v>
+        <v>0.01055505814905738</v>
       </c>
       <c r="L16">
-        <v>0.01005184065283767</v>
+        <v>0.007284172478808074</v>
       </c>
       <c r="M16">
-        <v>0.009563747023148406</v>
+        <v>0.00616646291406375</v>
       </c>
       <c r="N16">
-        <v>0.04331920284025007</v>
+        <v>0.07542627795756676</v>
       </c>
       <c r="O16">
-        <v>0.0125226056226589</v>
+        <v>0.009156857871101154</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.01166489290956051</v>
+        <v>0.01001373404560638</v>
       </c>
       <c r="R16">
-        <v>0.005110761607113272</v>
+        <v>0.005866869851139452</v>
       </c>
       <c r="S16">
-        <v>0.005232111208597133</v>
+        <v>0.003005417785053174</v>
       </c>
       <c r="T16">
-        <v>0.006206068858450006</v>
+        <v>0.009205184413260419</v>
       </c>
       <c r="U16">
-        <v>0.003398839147390858</v>
+        <v>0.002394115045397774</v>
       </c>
       <c r="V16">
-        <v>0.007902582270402799</v>
+        <v>0.009466397427886115</v>
       </c>
       <c r="W16">
-        <v>0.03832484591708313</v>
+        <v>0.06354914385255997</v>
       </c>
       <c r="X16">
-        <v>0.007259177334108593</v>
+        <v>0.00883669954858911</v>
       </c>
       <c r="Y16">
-        <v>0.0106085502617723</v>
+        <v>0.01681700548078744</v>
       </c>
       <c r="Z16">
-        <v>0.006366026554682636</v>
+        <v>0.003751712719825225</v>
       </c>
       <c r="AA16">
-        <v>0.008761316641915025</v>
+        <v>0.01039461209221617</v>
       </c>
       <c r="AB16">
-        <v>0.008382809623485872</v>
+        <v>0.008315580065917292</v>
       </c>
       <c r="AC16">
-        <v>0.01564720995317553</v>
+        <v>0.02452077662812961</v>
       </c>
       <c r="AD16">
-        <v>0.01790202051468371</v>
+        <v>0.007289874295054039</v>
       </c>
       <c r="AE16">
-        <v>0.03741607006141218</v>
+        <v>0.00624793503577466</v>
       </c>
       <c r="AF16">
-        <v>0.01330796234572073</v>
+        <v>0.007627474786605046</v>
       </c>
       <c r="AG16">
-        <v>0.03077407284432769</v>
+        <v>0.008307630227424844</v>
       </c>
       <c r="AH16">
-        <v>0.03807756113851244</v>
+        <v>0.00892376118572252</v>
       </c>
       <c r="AI16">
-        <v>0.03151982376814395</v>
+        <v>0.01394075448607435</v>
       </c>
       <c r="AJ16">
-        <v>0.0174231828107972</v>
+        <v>0.01464302198448059</v>
       </c>
       <c r="AK16">
-        <v>0.01335158808226011</v>
+        <v>0.01171239670828478</v>
       </c>
       <c r="AL16">
-        <v>0.04030586584356976</v>
+        <v>0.005469287282360543</v>
       </c>
       <c r="AM16">
-        <v>0.01505049151380502</v>
+        <v>0.006846523052543353</v>
       </c>
       <c r="AN16">
-        <v>0.02858430929336261</v>
+        <v>0.005762292005372247</v>
       </c>
       <c r="AO16">
-        <v>0.01412661014012835</v>
+        <v>0.005123328194246447</v>
       </c>
       <c r="AP16">
-        <v>0.03830616495277371</v>
+        <v>0.007390401801727273</v>
       </c>
       <c r="AQ16">
-        <v>0.01365509984013137</v>
+        <v>0.007350072285486572</v>
       </c>
       <c r="AR16">
-        <v>0.02909323842001368</v>
+        <v>0.00976190192131195</v>
       </c>
       <c r="AS16">
-        <v>0.02255872070007272</v>
+        <v>0.006677076470157365</v>
       </c>
       <c r="AT16">
-        <v>0.03348217415678578</v>
+        <v>0.007307793900075764</v>
       </c>
     </row>
     <row r="17" spans="1:46">
@@ -2772,139 +2772,139 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.04134570804275264</v>
+        <v>0.05879072304972026</v>
       </c>
       <c r="C17">
-        <v>0.04218898892010842</v>
+        <v>0.03404106596936313</v>
       </c>
       <c r="D17">
-        <v>0.01507354463740286</v>
+        <v>0.02413146141629753</v>
       </c>
       <c r="E17">
-        <v>0.01855586374213158</v>
+        <v>0.009997491495115814</v>
       </c>
       <c r="F17">
-        <v>0.03290582042043771</v>
+        <v>0.1000938883417871</v>
       </c>
       <c r="G17">
-        <v>0.01312246093669331</v>
+        <v>0.01284789135583604</v>
       </c>
       <c r="H17">
-        <v>0.03610355950250476</v>
+        <v>0.08823777771205478</v>
       </c>
       <c r="I17">
-        <v>0.02209678097579484</v>
+        <v>0.04077101886300795</v>
       </c>
       <c r="J17">
-        <v>0.01196530362903791</v>
+        <v>0.01935055335892632</v>
       </c>
       <c r="K17">
-        <v>0.01663094763398116</v>
+        <v>0.01596399725556935</v>
       </c>
       <c r="L17">
-        <v>0.01357482502469946</v>
+        <v>0.01223014018288911</v>
       </c>
       <c r="M17">
-        <v>0.01148645985046701</v>
+        <v>0.01272068386596374</v>
       </c>
       <c r="N17">
-        <v>0.04693826810480878</v>
+        <v>0.07332099137525037</v>
       </c>
       <c r="O17">
-        <v>0.01236317810112116</v>
+        <v>0.01404515708234663</v>
       </c>
       <c r="P17">
-        <v>0.01166489290956051</v>
+        <v>0.01001373404560638</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>0.01205085502012128</v>
+        <v>0.01014416838735627</v>
       </c>
       <c r="S17">
-        <v>0.01081783962425057</v>
+        <v>0.009448923525973088</v>
       </c>
       <c r="T17">
-        <v>0.01003010585370758</v>
+        <v>0.01565407166916915</v>
       </c>
       <c r="U17">
-        <v>0.0113076989522492</v>
+        <v>0.01057579509267517</v>
       </c>
       <c r="V17">
-        <v>0.01009300544280859</v>
+        <v>0.009036338931018014</v>
       </c>
       <c r="W17">
-        <v>0.03335733309458003</v>
+        <v>0.06259276251052354</v>
       </c>
       <c r="X17">
-        <v>0.0116669981478684</v>
+        <v>0.01551939188579681</v>
       </c>
       <c r="Y17">
-        <v>0.01155614521043315</v>
+        <v>0.02329740814321114</v>
       </c>
       <c r="Z17">
-        <v>0.01285554512736287</v>
+        <v>0.009804740489650932</v>
       </c>
       <c r="AA17">
-        <v>0.01389052389269308</v>
+        <v>0.01648566834154893</v>
       </c>
       <c r="AB17">
-        <v>0.01151022684067531</v>
+        <v>0.01438407124141285</v>
       </c>
       <c r="AC17">
-        <v>0.01896417078408286</v>
+        <v>0.02936493187824438</v>
       </c>
       <c r="AD17">
-        <v>0.02470514995096523</v>
+        <v>0.008816666165294527</v>
       </c>
       <c r="AE17">
-        <v>0.0423190951661808</v>
+        <v>0.01255608470756785</v>
       </c>
       <c r="AF17">
-        <v>0.02121051382107905</v>
+        <v>0.01267551144171359</v>
       </c>
       <c r="AG17">
-        <v>0.03274742626495229</v>
+        <v>0.01245687112206928</v>
       </c>
       <c r="AH17">
-        <v>0.0442036331995847</v>
+        <v>0.0141067136693466</v>
       </c>
       <c r="AI17">
-        <v>0.03672839760773441</v>
+        <v>0.0178044259160013</v>
       </c>
       <c r="AJ17">
-        <v>0.02177088231236912</v>
+        <v>0.02157624041685147</v>
       </c>
       <c r="AK17">
-        <v>0.01958557139848049</v>
+        <v>0.01713919741541968</v>
       </c>
       <c r="AL17">
-        <v>0.04571106597977669</v>
+        <v>0.009528125397219877</v>
       </c>
       <c r="AM17">
-        <v>0.02497387298825491</v>
+        <v>0.012749802695255</v>
       </c>
       <c r="AN17">
-        <v>0.03182990047033168</v>
+        <v>0.01181947981675563</v>
       </c>
       <c r="AO17">
-        <v>0.0192080791095733</v>
+        <v>0.01074378626533621</v>
       </c>
       <c r="AP17">
-        <v>0.04128200155358443</v>
+        <v>0.01363582191578954</v>
       </c>
       <c r="AQ17">
-        <v>0.01768622137637725</v>
+        <v>0.0116109924789877</v>
       </c>
       <c r="AR17">
-        <v>0.03289502328524639</v>
+        <v>0.015253758610655</v>
       </c>
       <c r="AS17">
-        <v>0.02614486806482633</v>
+        <v>0.009926890962267796</v>
       </c>
       <c r="AT17">
-        <v>0.03505799548061327</v>
+        <v>0.01272312858444016</v>
       </c>
     </row>
     <row r="18" spans="1:46">
@@ -2912,139 +2912,139 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.04162699351365729</v>
+        <v>0.05300816510115103</v>
       </c>
       <c r="C18">
-        <v>0.04531307448541179</v>
+        <v>0.0319147422006477</v>
       </c>
       <c r="D18">
-        <v>0.009408872398306149</v>
+        <v>0.02292459922829019</v>
       </c>
       <c r="E18">
-        <v>0.01265740988039686</v>
+        <v>0.01416711868763975</v>
       </c>
       <c r="F18">
-        <v>0.03303421165243274</v>
+        <v>0.09827059358170311</v>
       </c>
       <c r="G18">
-        <v>0.01038012733539497</v>
+        <v>0.008765056732298427</v>
       </c>
       <c r="H18">
-        <v>0.03206478912673593</v>
+        <v>0.07867559176348959</v>
       </c>
       <c r="I18">
-        <v>0.02007766989435415</v>
+        <v>0.03634487340668168</v>
       </c>
       <c r="J18">
-        <v>0.005986949864721426</v>
+        <v>0.02024492428002214</v>
       </c>
       <c r="K18">
-        <v>0.01612500287562164</v>
+        <v>0.009721027222026153</v>
       </c>
       <c r="L18">
-        <v>0.008594262547309717</v>
+        <v>0.008233691652363264</v>
       </c>
       <c r="M18">
-        <v>0.009799026738729144</v>
+        <v>0.006840091936002072</v>
       </c>
       <c r="N18">
-        <v>0.04548390674766942</v>
+        <v>0.07205057421572833</v>
       </c>
       <c r="O18">
-        <v>0.01095748677038738</v>
+        <v>0.00814946164961639</v>
       </c>
       <c r="P18">
-        <v>0.005110761607113272</v>
+        <v>0.005866869851139452</v>
       </c>
       <c r="Q18">
-        <v>0.01205085502012128</v>
+        <v>0.01014416838735627</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.006062205416949184</v>
+        <v>0.003292129512425723</v>
       </c>
       <c r="T18">
-        <v>0.00559973718580498</v>
+        <v>0.009665446010312145</v>
       </c>
       <c r="U18">
-        <v>0.006590791896005629</v>
+        <v>0.006695668453118897</v>
       </c>
       <c r="V18">
-        <v>0.007523432496546748</v>
+        <v>0.007670909925504754</v>
       </c>
       <c r="W18">
-        <v>0.03660643331527231</v>
+        <v>0.05891360568424896</v>
       </c>
       <c r="X18">
-        <v>0.006502656643172264</v>
+        <v>0.009259931899615237</v>
       </c>
       <c r="Y18">
-        <v>0.00848064635090994</v>
+        <v>0.01748822197456652</v>
       </c>
       <c r="Z18">
-        <v>0.007212183848523608</v>
+        <v>0.003797987546122327</v>
       </c>
       <c r="AA18">
-        <v>0.007152358446299256</v>
+        <v>0.01062716846251825</v>
       </c>
       <c r="AB18">
-        <v>0.006203698628627081</v>
+        <v>0.01074453525935953</v>
       </c>
       <c r="AC18">
-        <v>0.01484575487981541</v>
+        <v>0.02427415514806919</v>
       </c>
       <c r="AD18">
-        <v>0.01978066345323256</v>
+        <v>0.00680307635316646</v>
       </c>
       <c r="AE18">
-        <v>0.03935653234323354</v>
+        <v>0.00653893235351864</v>
       </c>
       <c r="AF18">
-        <v>0.0151374818004662</v>
+        <v>0.008809788309391896</v>
       </c>
       <c r="AG18">
-        <v>0.03076824082779926</v>
+        <v>0.005704097106306221</v>
       </c>
       <c r="AH18">
-        <v>0.03780736927286344</v>
+        <v>0.008013969239978845</v>
       </c>
       <c r="AI18">
-        <v>0.03203430439704148</v>
+        <v>0.009572949469667101</v>
       </c>
       <c r="AJ18">
-        <v>0.01795376664265117</v>
+        <v>0.01544686743793354</v>
       </c>
       <c r="AK18">
-        <v>0.01428260340403425</v>
+        <v>0.01101161027810921</v>
       </c>
       <c r="AL18">
-        <v>0.04176682368123934</v>
+        <v>0.002775837084152558</v>
       </c>
       <c r="AM18">
-        <v>0.01724021205732132</v>
+        <v>0.006585461205995629</v>
       </c>
       <c r="AN18">
-        <v>0.02834150845616729</v>
+        <v>0.005155148699161722</v>
       </c>
       <c r="AO18">
-        <v>0.01276764835148809</v>
+        <v>0.006590326685436816</v>
       </c>
       <c r="AP18">
-        <v>0.04105412612851578</v>
+        <v>0.00744188014812507</v>
       </c>
       <c r="AQ18">
-        <v>0.01112687243648185</v>
+        <v>0.003905801330004954</v>
       </c>
       <c r="AR18">
-        <v>0.02865229508558546</v>
+        <v>0.009156145428693023</v>
       </c>
       <c r="AS18">
-        <v>0.02323531598590304</v>
+        <v>0.009576947737413055</v>
       </c>
       <c r="AT18">
-        <v>0.03417415571571424</v>
+        <v>0.006879235465254744</v>
       </c>
     </row>
     <row r="19" spans="1:46">
@@ -3052,139 +3052,139 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.03875721330764122</v>
+        <v>0.05375839731794713</v>
       </c>
       <c r="C19">
-        <v>0.04275522084337102</v>
+        <v>0.03290328710294239</v>
       </c>
       <c r="D19">
-        <v>0.01016996250334202</v>
+        <v>0.02235056553874644</v>
       </c>
       <c r="E19">
-        <v>0.01308657489892123</v>
+        <v>0.01206806511056659</v>
       </c>
       <c r="F19">
-        <v>0.0301084252953524</v>
+        <v>0.09648752075089374</v>
       </c>
       <c r="G19">
-        <v>0.009566171480482975</v>
+        <v>0.00807791614196505</v>
       </c>
       <c r="H19">
-        <v>0.03036533781656249</v>
+        <v>0.08123538724869857</v>
       </c>
       <c r="I19">
-        <v>0.02030541863933792</v>
+        <v>0.03832946759005787</v>
       </c>
       <c r="J19">
-        <v>0.007107884534564365</v>
+        <v>0.01970149693596242</v>
       </c>
       <c r="K19">
-        <v>0.01771450446039189</v>
+        <v>0.008209937213718332</v>
       </c>
       <c r="L19">
-        <v>0.006741105174460329</v>
+        <v>0.007498739286866834</v>
       </c>
       <c r="M19">
-        <v>0.01037370731287198</v>
+        <v>0.00500208358090436</v>
       </c>
       <c r="N19">
-        <v>0.04391225178485384</v>
+        <v>0.07415676737356036</v>
       </c>
       <c r="O19">
-        <v>0.0103680591392186</v>
+        <v>0.007734016869563293</v>
       </c>
       <c r="P19">
-        <v>0.005232111208597133</v>
+        <v>0.003005417785053174</v>
       </c>
       <c r="Q19">
-        <v>0.01081783962425057</v>
+        <v>0.009448923525973088</v>
       </c>
       <c r="R19">
-        <v>0.006062205416949184</v>
+        <v>0.003292129512425723</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0.006048222921378954</v>
+        <v>0.007788852333502455</v>
       </c>
       <c r="U19">
-        <v>0.005046986657614877</v>
+        <v>0.004616558285047549</v>
       </c>
       <c r="V19">
-        <v>0.008070246603754015</v>
+        <v>0.007253379882075208</v>
       </c>
       <c r="W19">
-        <v>0.0361546570196974</v>
+        <v>0.06146216198170883</v>
       </c>
       <c r="X19">
-        <v>0.006021196319875953</v>
+        <v>0.007563278766160116</v>
       </c>
       <c r="Y19">
-        <v>0.00860304444877776</v>
+        <v>0.01550777263288055</v>
       </c>
       <c r="Z19">
-        <v>0.004652523271660966</v>
+        <v>0.001813583440173227</v>
       </c>
       <c r="AA19">
-        <v>0.006376395824989235</v>
+        <v>0.008696341978726096</v>
       </c>
       <c r="AB19">
-        <v>0.004103349129819452</v>
+        <v>0.008779539083159356</v>
       </c>
       <c r="AC19">
-        <v>0.01385096061519101</v>
+        <v>0.02434297630473567</v>
       </c>
       <c r="AD19">
-        <v>0.01783670733040084</v>
+        <v>0.004687918976281133</v>
       </c>
       <c r="AE19">
-        <v>0.0372889375338568</v>
+        <v>0.004576060814245077</v>
       </c>
       <c r="AF19">
-        <v>0.01482280036832443</v>
+        <v>0.00807033660098007</v>
       </c>
       <c r="AG19">
-        <v>0.03049340787548041</v>
+        <v>0.005843846417070146</v>
       </c>
       <c r="AH19">
-        <v>0.04108136125962741</v>
+        <v>0.007500404090181956</v>
       </c>
       <c r="AI19">
-        <v>0.03031352035945949</v>
+        <v>0.01124819766573657</v>
       </c>
       <c r="AJ19">
-        <v>0.01837217761979817</v>
+        <v>0.01296502205654445</v>
       </c>
       <c r="AK19">
-        <v>0.01463290038840996</v>
+        <v>0.01015005221540799</v>
       </c>
       <c r="AL19">
-        <v>0.04114880433081953</v>
+        <v>0.004825469896570522</v>
       </c>
       <c r="AM19">
-        <v>0.01871539807173981</v>
+        <v>0.005237591884619103</v>
       </c>
       <c r="AN19">
-        <v>0.02889525150033272</v>
+        <v>0.003256695015639538</v>
       </c>
       <c r="AO19">
-        <v>0.0127144508021394</v>
+        <v>0.006024547362128258</v>
       </c>
       <c r="AP19">
-        <v>0.04010036990626909</v>
+        <v>0.005945166426233657</v>
       </c>
       <c r="AQ19">
-        <v>0.01351352130450522</v>
+        <v>0.005240288890375251</v>
       </c>
       <c r="AR19">
-        <v>0.02936766456281282</v>
+        <v>0.007565241419858319</v>
       </c>
       <c r="AS19">
-        <v>0.02466325504105255</v>
+        <v>0.007763555463529852</v>
       </c>
       <c r="AT19">
-        <v>0.03259699918637961</v>
+        <v>0.005113865723794682</v>
       </c>
     </row>
     <row r="20" spans="1:46">
@@ -3192,139 +3192,139 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.03971304796222552</v>
+        <v>0.05183600868914324</v>
       </c>
       <c r="C20">
-        <v>0.04406910430299865</v>
+        <v>0.03147241906361618</v>
       </c>
       <c r="D20">
-        <v>0.009146146298500118</v>
+        <v>0.02586230389370293</v>
       </c>
       <c r="E20">
-        <v>0.01267151825114247</v>
+        <v>0.01466206760947426</v>
       </c>
       <c r="F20">
-        <v>0.03387377102458722</v>
+        <v>0.09449284360312075</v>
       </c>
       <c r="G20">
-        <v>0.009554535238983725</v>
+        <v>0.009784617632049497</v>
       </c>
       <c r="H20">
-        <v>0.03248498193186063</v>
+        <v>0.07743883113810852</v>
       </c>
       <c r="I20">
-        <v>0.01939390304425223</v>
+        <v>0.03508158773320925</v>
       </c>
       <c r="J20">
-        <v>0.006416079326035998</v>
+        <v>0.01873811389548437</v>
       </c>
       <c r="K20">
-        <v>0.0156480529732399</v>
+        <v>0.01031192225743125</v>
       </c>
       <c r="L20">
-        <v>0.008622755176858626</v>
+        <v>0.01028181446788333</v>
       </c>
       <c r="M20">
-        <v>0.01025949926454163</v>
+        <v>0.006709898528913247</v>
       </c>
       <c r="N20">
-        <v>0.04553890999562398</v>
+        <v>0.07383212056243779</v>
       </c>
       <c r="O20">
-        <v>0.01100512623719551</v>
+        <v>0.00961711205920119</v>
       </c>
       <c r="P20">
-        <v>0.006206068858450006</v>
+        <v>0.009205184413260419</v>
       </c>
       <c r="Q20">
-        <v>0.01003010585370758</v>
+        <v>0.01565407166916915</v>
       </c>
       <c r="R20">
-        <v>0.00559973718580498</v>
+        <v>0.009665446010312145</v>
       </c>
       <c r="S20">
-        <v>0.006048222921378954</v>
+        <v>0.007788852333502455</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0.00717713894571309</v>
+        <v>0.01012285361578965</v>
       </c>
       <c r="V20">
-        <v>0.006516615345821284</v>
+        <v>0.01105766813687459</v>
       </c>
       <c r="W20">
-        <v>0.03642874907272902</v>
+        <v>0.0590577168505302</v>
       </c>
       <c r="X20">
-        <v>0.006968410193129348</v>
+        <v>0.01118796153949233</v>
       </c>
       <c r="Y20">
-        <v>0.01021467569861533</v>
+        <v>0.01962413347837226</v>
       </c>
       <c r="Z20">
-        <v>0.006138582938047908</v>
+        <v>0.00835682252802741</v>
       </c>
       <c r="AA20">
-        <v>0.007222218292075236</v>
+        <v>0.01366646136331542</v>
       </c>
       <c r="AB20">
-        <v>0.00426445437442216</v>
+        <v>0.01296099007547872</v>
       </c>
       <c r="AC20">
-        <v>0.01670898250417568</v>
+        <v>0.02704882195806975</v>
       </c>
       <c r="AD20">
-        <v>0.01928342094878929</v>
+        <v>0.01120437099735786</v>
       </c>
       <c r="AE20">
-        <v>0.03990873292925771</v>
+        <v>0.006811324821643028</v>
       </c>
       <c r="AF20">
-        <v>0.01472535546417883</v>
+        <v>0.009450076809740207</v>
       </c>
       <c r="AG20">
-        <v>0.03202463752195706</v>
+        <v>0.01113795884702316</v>
       </c>
       <c r="AH20">
-        <v>0.04101081530138412</v>
+        <v>0.01246612046885082</v>
       </c>
       <c r="AI20">
-        <v>0.0311471823135866</v>
+        <v>0.01272524567188707</v>
       </c>
       <c r="AJ20">
-        <v>0.0185072302375193</v>
+        <v>0.01449668431857599</v>
       </c>
       <c r="AK20">
-        <v>0.01478181032762917</v>
+        <v>0.01018485486691162</v>
       </c>
       <c r="AL20">
-        <v>0.04225216152942554</v>
+        <v>0.01114956965280547</v>
       </c>
       <c r="AM20">
-        <v>0.01958705019816473</v>
+        <v>0.008197438985665684</v>
       </c>
       <c r="AN20">
-        <v>0.03023141390353301</v>
+        <v>0.006816672118471363</v>
       </c>
       <c r="AO20">
-        <v>0.01309677249114314</v>
+        <v>0.009033630613198737</v>
       </c>
       <c r="AP20">
-        <v>0.04269505530991401</v>
+        <v>0.009671861460217845</v>
       </c>
       <c r="AQ20">
-        <v>0.009223452313272235</v>
+        <v>0.009036054961448412</v>
       </c>
       <c r="AR20">
-        <v>0.02801279011163063</v>
+        <v>0.01261506858031223</v>
       </c>
       <c r="AS20">
-        <v>0.02673244825779783</v>
+        <v>0.01142273490837039</v>
       </c>
       <c r="AT20">
-        <v>0.03564613398672942</v>
+        <v>0.005203411759186357</v>
       </c>
     </row>
     <row r="21" spans="1:46">
@@ -3332,139 +3332,139 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.04169870064624419</v>
+        <v>0.05511074694928973</v>
       </c>
       <c r="C21">
-        <v>0.04480837887918099</v>
+        <v>0.03417780901191666</v>
       </c>
       <c r="D21">
-        <v>0.01007099910953595</v>
+        <v>0.0246100585669885</v>
       </c>
       <c r="E21">
-        <v>0.0136021825956011</v>
+        <v>0.01248257626250896</v>
       </c>
       <c r="F21">
-        <v>0.03155507800604894</v>
+        <v>0.09604965848751065</v>
       </c>
       <c r="G21">
-        <v>0.01158592372317147</v>
+        <v>0.008456915854367008</v>
       </c>
       <c r="H21">
-        <v>0.03372428786872238</v>
+        <v>0.08240807982952539</v>
       </c>
       <c r="I21">
-        <v>0.02243956794351321</v>
+        <v>0.04017254623109043</v>
       </c>
       <c r="J21">
-        <v>0.00990679948877452</v>
+        <v>0.01985979543018674</v>
       </c>
       <c r="K21">
-        <v>0.01791631848723771</v>
+        <v>0.01117997216106116</v>
       </c>
       <c r="L21">
-        <v>0.01013768924160801</v>
+        <v>0.008201969967650947</v>
       </c>
       <c r="M21">
-        <v>0.01122685280500846</v>
+        <v>0.006809611395281961</v>
       </c>
       <c r="N21">
-        <v>0.04602661012001474</v>
+        <v>0.07581744684239652</v>
       </c>
       <c r="O21">
-        <v>0.01097175161763489</v>
+        <v>0.009796505923866064</v>
       </c>
       <c r="P21">
-        <v>0.003398839147390858</v>
+        <v>0.002394115045397774</v>
       </c>
       <c r="Q21">
-        <v>0.0113076989522492</v>
+        <v>0.01057579509267517</v>
       </c>
       <c r="R21">
-        <v>0.006590791896005629</v>
+        <v>0.006695668453118897</v>
       </c>
       <c r="S21">
-        <v>0.005046986657614877</v>
+        <v>0.004616558285047549</v>
       </c>
       <c r="T21">
-        <v>0.00717713894571309</v>
+        <v>0.01012285361578965</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0.008080942193702499</v>
+        <v>0.01029416852619006</v>
       </c>
       <c r="W21">
-        <v>0.03728913631893434</v>
+        <v>0.06398632347798586</v>
       </c>
       <c r="X21">
-        <v>0.007133734303842751</v>
+        <v>0.009934725213389525</v>
       </c>
       <c r="Y21">
-        <v>0.01070613257315265</v>
+        <v>0.0176989592608767</v>
       </c>
       <c r="Z21">
-        <v>0.007498634217824701</v>
+        <v>0.004648166783056146</v>
       </c>
       <c r="AA21">
-        <v>0.009542668113563559</v>
+        <v>0.01028596025808747</v>
       </c>
       <c r="AB21">
-        <v>0.008409546336289365</v>
+        <v>0.009031244579513629</v>
       </c>
       <c r="AC21">
-        <v>0.01693605820688695</v>
+        <v>0.02526346223235238</v>
       </c>
       <c r="AD21">
-        <v>0.01950284872617181</v>
+        <v>0.007865944966883325</v>
       </c>
       <c r="AE21">
-        <v>0.03895507892962776</v>
+        <v>0.006989076863714932</v>
       </c>
       <c r="AF21">
-        <v>0.01608834264804199</v>
+        <v>0.008360826768776884</v>
       </c>
       <c r="AG21">
-        <v>0.03001217569767392</v>
+        <v>0.008988716518944525</v>
       </c>
       <c r="AH21">
-        <v>0.03780006624282668</v>
+        <v>0.009780363421694582</v>
       </c>
       <c r="AI21">
-        <v>0.03310864706986706</v>
+        <v>0.01363079564872606</v>
       </c>
       <c r="AJ21">
-        <v>0.01813685356605614</v>
+        <v>0.01592077050478326</v>
       </c>
       <c r="AK21">
-        <v>0.01603093410970087</v>
+        <v>0.01221315465798922</v>
       </c>
       <c r="AL21">
-        <v>0.04002447248659929</v>
+        <v>0.005406747956835597</v>
       </c>
       <c r="AM21">
-        <v>0.01786800398134496</v>
+        <v>0.0083800652166654</v>
       </c>
       <c r="AN21">
-        <v>0.03105931233679849</v>
+        <v>0.007047300012024426</v>
       </c>
       <c r="AO21">
-        <v>0.01498385465608928</v>
+        <v>0.005166735266475013</v>
       </c>
       <c r="AP21">
-        <v>0.03719215528543234</v>
+        <v>0.008230304936049201</v>
       </c>
       <c r="AQ21">
-        <v>0.01486602249220907</v>
+        <v>0.008145645248195204</v>
       </c>
       <c r="AR21">
-        <v>0.03170358865616375</v>
+        <v>0.01044059641864748</v>
       </c>
       <c r="AS21">
-        <v>0.02167443748409382</v>
+        <v>0.007524122250699083</v>
       </c>
       <c r="AT21">
-        <v>0.03505540571988994</v>
+        <v>0.008358106079230807</v>
       </c>
     </row>
     <row r="22" spans="1:46">
@@ -3472,139 +3472,139 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.04133418828211175</v>
+        <v>0.05566787848971922</v>
       </c>
       <c r="C22">
-        <v>0.04375152880498284</v>
+        <v>0.03092147310512596</v>
       </c>
       <c r="D22">
-        <v>0.01124328437824578</v>
+        <v>0.02649554877753993</v>
       </c>
       <c r="E22">
-        <v>0.01402262329553495</v>
+        <v>0.01658888696485998</v>
       </c>
       <c r="F22">
-        <v>0.03255633818365827</v>
+        <v>0.1003938384565111</v>
       </c>
       <c r="G22">
-        <v>0.01158027967512373</v>
+        <v>0.009980784640262525</v>
       </c>
       <c r="H22">
-        <v>0.03117226141765618</v>
+        <v>0.08131642742552635</v>
       </c>
       <c r="I22">
-        <v>0.0205069000601512</v>
+        <v>0.03393402376022955</v>
       </c>
       <c r="J22">
-        <v>0.008507255330796347</v>
+        <v>0.02078139590746045</v>
       </c>
       <c r="K22">
-        <v>0.0165933716578067</v>
+        <v>0.01030437397712511</v>
       </c>
       <c r="L22">
-        <v>0.01164878281746348</v>
+        <v>0.0109118887969782</v>
       </c>
       <c r="M22">
-        <v>0.01132330427389774</v>
+        <v>0.0079156923825813</v>
       </c>
       <c r="N22">
-        <v>0.04352028783464484</v>
+        <v>0.06980618184695739</v>
       </c>
       <c r="O22">
-        <v>0.01163240118220619</v>
+        <v>0.007067439963983291</v>
       </c>
       <c r="P22">
-        <v>0.007902582270402799</v>
+        <v>0.009466397427886115</v>
       </c>
       <c r="Q22">
-        <v>0.01009300544280859</v>
+        <v>0.009036338931018014</v>
       </c>
       <c r="R22">
-        <v>0.007523432496546748</v>
+        <v>0.007670909925504754</v>
       </c>
       <c r="S22">
-        <v>0.008070246603754015</v>
+        <v>0.007253379882075208</v>
       </c>
       <c r="T22">
-        <v>0.006516615345821284</v>
+        <v>0.01105766813687459</v>
       </c>
       <c r="U22">
-        <v>0.008080942193702499</v>
+        <v>0.01029416852619006</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22">
-        <v>0.03438779765217345</v>
+        <v>0.05619294104040346</v>
       </c>
       <c r="X22">
-        <v>0.009966483059427704</v>
+        <v>0.008192576055326183</v>
       </c>
       <c r="Y22">
-        <v>0.0110123859219128</v>
+        <v>0.01874543606593426</v>
       </c>
       <c r="Z22">
-        <v>0.007956053932137183</v>
+        <v>0.006509527334081355</v>
       </c>
       <c r="AA22">
-        <v>0.008274148590446714</v>
+        <v>0.01078379013156475</v>
       </c>
       <c r="AB22">
-        <v>0.008852982466822186</v>
+        <v>0.01170267858832829</v>
       </c>
       <c r="AC22">
-        <v>0.01832540338672821</v>
+        <v>0.02403114887510777</v>
       </c>
       <c r="AD22">
-        <v>0.02216173749101619</v>
+        <v>0.01010019331673513</v>
       </c>
       <c r="AE22">
-        <v>0.03885040170059194</v>
+        <v>0.009379794731070808</v>
       </c>
       <c r="AF22">
-        <v>0.01903053196782525</v>
+        <v>0.01002243106484576</v>
       </c>
       <c r="AG22">
-        <v>0.02920151278128291</v>
+        <v>0.008970441525776229</v>
       </c>
       <c r="AH22">
-        <v>0.03655218637177363</v>
+        <v>0.01120904600391724</v>
       </c>
       <c r="AI22">
-        <v>0.03076452778761539</v>
+        <v>0.01298621958705521</v>
       </c>
       <c r="AJ22">
-        <v>0.01474087827004953</v>
+        <v>0.01378094522712922</v>
       </c>
       <c r="AK22">
-        <v>0.01389580404079509</v>
+        <v>0.0138522045135445</v>
       </c>
       <c r="AL22">
-        <v>0.03820040931325405</v>
+        <v>0.008741240561789244</v>
       </c>
       <c r="AM22">
-        <v>0.01940820945881927</v>
+        <v>0.006303157177454637</v>
       </c>
       <c r="AN22">
-        <v>0.03026873284058982</v>
+        <v>0.008014964064644452</v>
       </c>
       <c r="AO22">
-        <v>0.01470529797903383</v>
+        <v>0.007109419424257943</v>
       </c>
       <c r="AP22">
-        <v>0.03781036185278947</v>
+        <v>0.008831312789146803</v>
       </c>
       <c r="AQ22">
-        <v>0.01313051598738337</v>
+        <v>0.005553141035678251</v>
       </c>
       <c r="AR22">
-        <v>0.02753669809409344</v>
+        <v>0.01131498053651569</v>
       </c>
       <c r="AS22">
-        <v>0.024190669745718</v>
+        <v>0.01168529176276773</v>
       </c>
       <c r="AT22">
-        <v>0.03451902671287916</v>
+        <v>0.009076015532146797</v>
       </c>
     </row>
     <row r="23" spans="1:46">
@@ -3612,139 +3612,139 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.05440230398579979</v>
+        <v>0.08045620251514742</v>
       </c>
       <c r="C23">
-        <v>0.05475216551272617</v>
+        <v>0.06806345174549558</v>
       </c>
       <c r="D23">
-        <v>0.03437882581691355</v>
+        <v>0.0759528397932672</v>
       </c>
       <c r="E23">
-        <v>0.03971636953323663</v>
+        <v>0.06379460075090307</v>
       </c>
       <c r="F23">
-        <v>0.04947787544359889</v>
+        <v>0.1288788516107198</v>
       </c>
       <c r="G23">
-        <v>0.03586007423369457</v>
+        <v>0.06109810205068505</v>
       </c>
       <c r="H23">
-        <v>0.03894007824231992</v>
+        <v>0.09840547111693446</v>
       </c>
       <c r="I23">
-        <v>0.03728170332778913</v>
+        <v>0.0596521475600942</v>
       </c>
       <c r="J23">
-        <v>0.03367737639053133</v>
+        <v>0.06519258785801868</v>
       </c>
       <c r="K23">
-        <v>0.03169951324148149</v>
+        <v>0.06219953751334972</v>
       </c>
       <c r="L23">
-        <v>0.03750519306978332</v>
+        <v>0.05982738836834158</v>
       </c>
       <c r="M23">
-        <v>0.03757768242454315</v>
+        <v>0.0592973991413642</v>
       </c>
       <c r="N23">
-        <v>0.04450071869645239</v>
+        <v>0.06214000225552536</v>
       </c>
       <c r="O23">
-        <v>0.03419669415569163</v>
+        <v>0.05732474800129547</v>
       </c>
       <c r="P23">
-        <v>0.03832484591708313</v>
+        <v>0.06354914385255997</v>
       </c>
       <c r="Q23">
-        <v>0.03335733309458003</v>
+        <v>0.06259276251052354</v>
       </c>
       <c r="R23">
-        <v>0.03660643331527231</v>
+        <v>0.05891360568424896</v>
       </c>
       <c r="S23">
-        <v>0.0361546570196974</v>
+        <v>0.06146216198170883</v>
       </c>
       <c r="T23">
-        <v>0.03642874907272902</v>
+        <v>0.0590577168505302</v>
       </c>
       <c r="U23">
-        <v>0.03728913631893434</v>
+        <v>0.06398632347798586</v>
       </c>
       <c r="V23">
-        <v>0.03438779765217345</v>
+        <v>0.05619294104040346</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>0.0392620178971126</v>
+        <v>0.05775187138746305</v>
       </c>
       <c r="Y23">
-        <v>0.03487316182011802</v>
+        <v>0.07133238456377573</v>
       </c>
       <c r="Z23">
-        <v>0.03563453084190217</v>
+        <v>0.06051043425272894</v>
       </c>
       <c r="AA23">
-        <v>0.03536839439292105</v>
+        <v>0.06218877771333153</v>
       </c>
       <c r="AB23">
-        <v>0.03652191272277804</v>
+        <v>0.05710176224283459</v>
       </c>
       <c r="AC23">
-        <v>0.03704817820097533</v>
+        <v>0.07430846994481753</v>
       </c>
       <c r="AD23">
-        <v>0.04628588989483058</v>
+        <v>0.06159997768308476</v>
       </c>
       <c r="AE23">
-        <v>0.05610230563599931</v>
+        <v>0.05950005618889418</v>
       </c>
       <c r="AF23">
-        <v>0.04469528462016067</v>
+        <v>0.06021048409938923</v>
       </c>
       <c r="AG23">
-        <v>0.04655400585117146</v>
+        <v>0.05943427377406758</v>
       </c>
       <c r="AH23">
-        <v>0.0536744790908306</v>
+        <v>0.06396807304894328</v>
       </c>
       <c r="AI23">
-        <v>0.0513133586402887</v>
+        <v>0.06452820547787394</v>
       </c>
       <c r="AJ23">
-        <v>0.03696047580990779</v>
+        <v>0.0630282030904921</v>
       </c>
       <c r="AK23">
-        <v>0.03615778590746139</v>
+        <v>0.06033747985915312</v>
       </c>
       <c r="AL23">
-        <v>0.06214284395949299</v>
+        <v>0.06044729503492938</v>
       </c>
       <c r="AM23">
-        <v>0.03969669112560754</v>
+        <v>0.05862350678142945</v>
       </c>
       <c r="AN23">
-        <v>0.05281089788473493</v>
+        <v>0.06139191526055104</v>
       </c>
       <c r="AO23">
-        <v>0.03659950283954468</v>
+        <v>0.06095389431174369</v>
       </c>
       <c r="AP23">
-        <v>0.04100848919114981</v>
+        <v>0.05862954069830302</v>
       </c>
       <c r="AQ23">
-        <v>0.03639915792895221</v>
+        <v>0.05851008342775611</v>
       </c>
       <c r="AR23">
-        <v>0.03798131058163905</v>
+        <v>0.06375972435514106</v>
       </c>
       <c r="AS23">
-        <v>0.04225446285856453</v>
+        <v>0.06168309096128631</v>
       </c>
       <c r="AT23">
-        <v>0.05010554430184624</v>
+        <v>0.06157066590852523</v>
       </c>
     </row>
     <row r="24" spans="1:46">
@@ -3752,139 +3752,139 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.03896391353790304</v>
+        <v>0.05498679515401622</v>
       </c>
       <c r="C24">
-        <v>0.04196748978488062</v>
+        <v>0.03342929531435573</v>
       </c>
       <c r="D24">
-        <v>0.01034016033713814</v>
+        <v>0.02851547496713834</v>
       </c>
       <c r="E24">
-        <v>0.01069761952440327</v>
+        <v>0.01554149826307993</v>
       </c>
       <c r="F24">
-        <v>0.0311398893665306</v>
+        <v>0.09516711931021864</v>
       </c>
       <c r="G24">
-        <v>0.008179099910769826</v>
+        <v>0.01006854692144874</v>
       </c>
       <c r="H24">
-        <v>0.0319819037312303</v>
+        <v>0.08181217786978852</v>
       </c>
       <c r="I24">
-        <v>0.01825347325841511</v>
+        <v>0.03950982325924243</v>
       </c>
       <c r="J24">
-        <v>0.00768436930718153</v>
+        <v>0.01840521423253255</v>
       </c>
       <c r="K24">
-        <v>0.01732190935547665</v>
+        <v>0.01042233254802157</v>
       </c>
       <c r="L24">
-        <v>0.008788838197214785</v>
+        <v>0.0135336771985912</v>
       </c>
       <c r="M24">
-        <v>0.009808210912230879</v>
+        <v>0.008484919802041732</v>
       </c>
       <c r="N24">
-        <v>0.0435408175328691</v>
+        <v>0.07311022796878294</v>
       </c>
       <c r="O24">
-        <v>0.01185150499960127</v>
+        <v>0.0084505420020338</v>
       </c>
       <c r="P24">
-        <v>0.007259177334108593</v>
+        <v>0.00883669954858911</v>
       </c>
       <c r="Q24">
-        <v>0.0116669981478684</v>
+        <v>0.01551939188579681</v>
       </c>
       <c r="R24">
-        <v>0.006502656643172264</v>
+        <v>0.009259931899615237</v>
       </c>
       <c r="S24">
-        <v>0.006021196319875953</v>
+        <v>0.007563278766160116</v>
       </c>
       <c r="T24">
-        <v>0.006968410193129348</v>
+        <v>0.01118796153949233</v>
       </c>
       <c r="U24">
-        <v>0.007133734303842751</v>
+        <v>0.009934725213389525</v>
       </c>
       <c r="V24">
-        <v>0.009966483059427704</v>
+        <v>0.008192576055326183</v>
       </c>
       <c r="W24">
-        <v>0.0392620178971126</v>
+        <v>0.05775187138746305</v>
       </c>
       <c r="X24">
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>0.009245915249276527</v>
+        <v>0.01822655053492643</v>
       </c>
       <c r="Z24">
-        <v>0.009520371376830455</v>
+        <v>0.006828281309221956</v>
       </c>
       <c r="AA24">
-        <v>0.007529877523555168</v>
+        <v>0.009173296473628927</v>
       </c>
       <c r="AB24">
-        <v>0.006969545839601813</v>
+        <v>0.008443911170358181</v>
       </c>
       <c r="AC24">
-        <v>0.01682174427027956</v>
+        <v>0.02482987611261766</v>
       </c>
       <c r="AD24">
-        <v>0.02068109650749849</v>
+        <v>0.010951202505954</v>
       </c>
       <c r="AE24">
-        <v>0.04027757184525696</v>
+        <v>0.009848509596960776</v>
       </c>
       <c r="AF24">
-        <v>0.01781825941307038</v>
+        <v>0.006865084958217465</v>
       </c>
       <c r="AG24">
-        <v>0.03240434697939207</v>
+        <v>0.01172302721550253</v>
       </c>
       <c r="AH24">
-        <v>0.0404125065352425</v>
+        <v>0.01095233587216831</v>
       </c>
       <c r="AI24">
-        <v>0.03209803106974288</v>
+        <v>0.01533039471944644</v>
       </c>
       <c r="AJ24">
-        <v>0.02028471679265633</v>
+        <v>0.01283403949367701</v>
       </c>
       <c r="AK24">
-        <v>0.01822953238615956</v>
+        <v>0.01530564726057165</v>
       </c>
       <c r="AL24">
-        <v>0.04419960469512511</v>
+        <v>0.01005307900427829</v>
       </c>
       <c r="AM24">
-        <v>0.01900633158836322</v>
+        <v>0.007675879624317451</v>
       </c>
       <c r="AN24">
-        <v>0.02993519226378068</v>
+        <v>0.008563549268837232</v>
       </c>
       <c r="AO24">
-        <v>0.01626587546731626</v>
+        <v>0.008443725356720239</v>
       </c>
       <c r="AP24">
-        <v>0.04244449066017985</v>
+        <v>0.007706286332055149</v>
       </c>
       <c r="AQ24">
-        <v>0.01379503919772936</v>
+        <v>0.007489237421549662</v>
       </c>
       <c r="AR24">
-        <v>0.02973039094479587</v>
+        <v>0.01206898955890564</v>
       </c>
       <c r="AS24">
-        <v>0.02679854924653985</v>
+        <v>0.01061031068031336</v>
       </c>
       <c r="AT24">
-        <v>0.0311450093379896</v>
+        <v>0.01018393205837697</v>
       </c>
     </row>
     <row r="25" spans="1:46">
@@ -3892,139 +3892,139 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.04234427184031783</v>
+        <v>0.06525778089241999</v>
       </c>
       <c r="C25">
-        <v>0.0427870286250675</v>
+        <v>0.04379131547092761</v>
       </c>
       <c r="D25">
-        <v>0.01493149933471404</v>
+        <v>0.03628199171768622</v>
       </c>
       <c r="E25">
-        <v>0.01671912746257688</v>
+        <v>0.02405210532717172</v>
       </c>
       <c r="F25">
-        <v>0.03207797405215213</v>
+        <v>0.1053307185063418</v>
       </c>
       <c r="G25">
-        <v>0.0122234710486316</v>
+        <v>0.01544707937272155</v>
       </c>
       <c r="H25">
-        <v>0.03258795595760019</v>
+        <v>0.08166493778487684</v>
       </c>
       <c r="I25">
-        <v>0.02027467562736451</v>
+        <v>0.05015908284567523</v>
       </c>
       <c r="J25">
-        <v>0.01135834041755049</v>
+        <v>0.03034954741959267</v>
       </c>
       <c r="K25">
-        <v>0.0173279728776594</v>
+        <v>0.01702585494484847</v>
       </c>
       <c r="L25">
-        <v>0.01133481041041082</v>
+        <v>0.01815290089504839</v>
       </c>
       <c r="M25">
-        <v>0.009692032888241588</v>
+        <v>0.01539133806883056</v>
       </c>
       <c r="N25">
-        <v>0.0447067982020626</v>
+        <v>0.08187985841598211</v>
       </c>
       <c r="O25">
-        <v>0.01478075507997729</v>
+        <v>0.01840371888109833</v>
       </c>
       <c r="P25">
-        <v>0.0106085502617723</v>
+        <v>0.01681700548078744</v>
       </c>
       <c r="Q25">
-        <v>0.01155614521043315</v>
+        <v>0.02329740814321114</v>
       </c>
       <c r="R25">
-        <v>0.00848064635090994</v>
+        <v>0.01748822197456652</v>
       </c>
       <c r="S25">
-        <v>0.00860304444877776</v>
+        <v>0.01550777263288055</v>
       </c>
       <c r="T25">
-        <v>0.01021467569861533</v>
+        <v>0.01962413347837226</v>
       </c>
       <c r="U25">
-        <v>0.01070613257315265</v>
+        <v>0.0176989592608767</v>
       </c>
       <c r="V25">
-        <v>0.0110123859219128</v>
+        <v>0.01874543606593426</v>
       </c>
       <c r="W25">
-        <v>0.03487316182011802</v>
+        <v>0.07133238456377573</v>
       </c>
       <c r="X25">
-        <v>0.009245915249276527</v>
+        <v>0.01822655053492643</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0.01230752534591668</v>
+        <v>0.0147349251185597</v>
       </c>
       <c r="AA25">
-        <v>0.01108053845327694</v>
+        <v>0.01936914194081434</v>
       </c>
       <c r="AB25">
-        <v>0.009034906163744541</v>
+        <v>0.01960994204977866</v>
       </c>
       <c r="AC25">
-        <v>0.01361014904327201</v>
+        <v>0.03652149761852576</v>
       </c>
       <c r="AD25">
-        <v>0.02196073274197098</v>
+        <v>0.01861761697258125</v>
       </c>
       <c r="AE25">
-        <v>0.04010035184846232</v>
+        <v>0.01697924074506979</v>
       </c>
       <c r="AF25">
-        <v>0.01878508138203209</v>
+        <v>0.01934532446839482</v>
       </c>
       <c r="AG25">
-        <v>0.03360068067047878</v>
+        <v>0.01641392969713232</v>
       </c>
       <c r="AH25">
-        <v>0.04232858211493496</v>
+        <v>0.01897684119255811</v>
       </c>
       <c r="AI25">
-        <v>0.03300480095803904</v>
+        <v>0.02425174587846633</v>
       </c>
       <c r="AJ25">
-        <v>0.02341010771506968</v>
+        <v>0.0233176904687711</v>
       </c>
       <c r="AK25">
-        <v>0.01701414733557467</v>
+        <v>0.01966224457770085</v>
       </c>
       <c r="AL25">
-        <v>0.04715366588597542</v>
+        <v>0.01894520301035306</v>
       </c>
       <c r="AM25">
-        <v>0.0228062142046648</v>
+        <v>0.01733274779085803</v>
       </c>
       <c r="AN25">
-        <v>0.03043988010132949</v>
+        <v>0.01787374564850243</v>
       </c>
       <c r="AO25">
-        <v>0.0184819038037841</v>
+        <v>0.01633968064899318</v>
       </c>
       <c r="AP25">
-        <v>0.0409149930192745</v>
+        <v>0.01540855070282453</v>
       </c>
       <c r="AQ25">
-        <v>0.01777447177503771</v>
+        <v>0.01658828660441808</v>
       </c>
       <c r="AR25">
-        <v>0.03212527838596959</v>
+        <v>0.02115071163840109</v>
       </c>
       <c r="AS25">
-        <v>0.02750316662888003</v>
+        <v>0.01966455174271007</v>
       </c>
       <c r="AT25">
-        <v>0.03215042379322124</v>
+        <v>0.01802618823441615</v>
       </c>
     </row>
     <row r="26" spans="1:46">
@@ -4032,139 +4032,139 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.04009888581003973</v>
+        <v>0.05504403609918306</v>
       </c>
       <c r="C26">
-        <v>0.04277198476191919</v>
+        <v>0.03350008088907695</v>
       </c>
       <c r="D26">
-        <v>0.0103205107598292</v>
+        <v>0.02296923052952587</v>
       </c>
       <c r="E26">
-        <v>0.01275408044014483</v>
+        <v>0.01179611677106065</v>
       </c>
       <c r="F26">
-        <v>0.0314163220014865</v>
+        <v>0.09714198052648017</v>
       </c>
       <c r="G26">
-        <v>0.01100121919260071</v>
+        <v>0.007390060751850445</v>
       </c>
       <c r="H26">
-        <v>0.03010441592329413</v>
+        <v>0.08123455492499357</v>
       </c>
       <c r="I26">
-        <v>0.0195067406787667</v>
+        <v>0.03880102796082662</v>
       </c>
       <c r="J26">
-        <v>0.006861632884321111</v>
+        <v>0.01869158239623785</v>
       </c>
       <c r="K26">
-        <v>0.01851283410889957</v>
+        <v>0.00748595300015964</v>
       </c>
       <c r="L26">
-        <v>0.01078142841765661</v>
+        <v>0.007874139317064287</v>
       </c>
       <c r="M26">
-        <v>0.01270111232702231</v>
+        <v>0.004043509842801479</v>
       </c>
       <c r="N26">
-        <v>0.04236575462748297</v>
+        <v>0.0740629618749271</v>
       </c>
       <c r="O26">
-        <v>0.01145548824234885</v>
+        <v>0.006980150793006961</v>
       </c>
       <c r="P26">
-        <v>0.006366026554682636</v>
+        <v>0.003751712719825225</v>
       </c>
       <c r="Q26">
-        <v>0.01285554512736287</v>
+        <v>0.009804740489650932</v>
       </c>
       <c r="R26">
-        <v>0.007212183848523608</v>
+        <v>0.003797987546122327</v>
       </c>
       <c r="S26">
-        <v>0.004652523271660966</v>
+        <v>0.001813583440173227</v>
       </c>
       <c r="T26">
-        <v>0.006138582938047908</v>
+        <v>0.00835682252802741</v>
       </c>
       <c r="U26">
-        <v>0.007498634217824701</v>
+        <v>0.004648166783056146</v>
       </c>
       <c r="V26">
-        <v>0.007956053932137183</v>
+        <v>0.006509527334081355</v>
       </c>
       <c r="W26">
-        <v>0.03563453084190217</v>
+        <v>0.06051043425272894</v>
       </c>
       <c r="X26">
-        <v>0.009520371376830455</v>
+        <v>0.006828281309221956</v>
       </c>
       <c r="Y26">
-        <v>0.01230752534591668</v>
+        <v>0.0147349251185597</v>
       </c>
       <c r="Z26">
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.008054986487208583</v>
+        <v>0.008014823769933595</v>
       </c>
       <c r="AB26">
-        <v>0.007687278980554532</v>
+        <v>0.008245562172431897</v>
       </c>
       <c r="AC26">
-        <v>0.01623025190703058</v>
+        <v>0.02362399251376162</v>
       </c>
       <c r="AD26">
-        <v>0.02152799233675105</v>
+        <v>0.005089719082332856</v>
       </c>
       <c r="AE26">
-        <v>0.03685832656842426</v>
+        <v>0.005264313250884835</v>
       </c>
       <c r="AF26">
-        <v>0.01724138430316043</v>
+        <v>0.007336543676300842</v>
       </c>
       <c r="AG26">
-        <v>0.03106735073630582</v>
+        <v>0.006417432516678832</v>
       </c>
       <c r="AH26">
-        <v>0.04136118244549541</v>
+        <v>0.008003776790851718</v>
       </c>
       <c r="AI26">
-        <v>0.0329973026127215</v>
+        <v>0.01195074186807568</v>
       </c>
       <c r="AJ26">
-        <v>0.016990621140432</v>
+        <v>0.01293822600357356</v>
       </c>
       <c r="AK26">
-        <v>0.01370973231823954</v>
+        <v>0.01088143576198344</v>
       </c>
       <c r="AL26">
-        <v>0.04027336169748393</v>
+        <v>0.005403063199190861</v>
       </c>
       <c r="AM26">
-        <v>0.01903663450111871</v>
+        <v>0.005334786436766362</v>
       </c>
       <c r="AN26">
-        <v>0.03042379731703035</v>
+        <v>0.004605739177232916</v>
       </c>
       <c r="AO26">
-        <v>0.01250944934907953</v>
+        <v>0.005236888818585039</v>
       </c>
       <c r="AP26">
-        <v>0.04148303476404577</v>
+        <v>0.005031727118984206</v>
       </c>
       <c r="AQ26">
-        <v>0.01301481543641012</v>
+        <v>0.004325186116189345</v>
       </c>
       <c r="AR26">
-        <v>0.03025087873010437</v>
+        <v>0.00784802044046448</v>
       </c>
       <c r="AS26">
-        <v>0.02615465232751547</v>
+        <v>0.008117813677363899</v>
       </c>
       <c r="AT26">
-        <v>0.03395908767784829</v>
+        <v>0.005399384047864546</v>
       </c>
     </row>
     <row r="27" spans="1:46">
@@ -4172,139 +4172,139 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.04117912310769635</v>
+        <v>0.05504694291959889</v>
       </c>
       <c r="C27">
-        <v>0.04387728214603816</v>
+        <v>0.03290795731720801</v>
       </c>
       <c r="D27">
-        <v>0.01171252259018329</v>
+        <v>0.02932545155238054</v>
       </c>
       <c r="E27">
-        <v>0.01276450692895429</v>
+        <v>0.01711928859278808</v>
       </c>
       <c r="F27">
-        <v>0.03182546092210028</v>
+        <v>0.09555799923588755</v>
       </c>
       <c r="G27">
-        <v>0.01060498431292814</v>
+        <v>0.01228817946940138</v>
       </c>
       <c r="H27">
-        <v>0.02976284366976103</v>
+        <v>0.07627305305781888</v>
       </c>
       <c r="I27">
-        <v>0.02135217300350056</v>
+        <v>0.03982337381951149</v>
       </c>
       <c r="J27">
-        <v>0.008167632174099619</v>
+        <v>0.02405368267655128</v>
       </c>
       <c r="K27">
-        <v>0.01651491910050933</v>
+        <v>0.01365169101721332</v>
       </c>
       <c r="L27">
-        <v>0.009089127848447913</v>
+        <v>0.01495300706823196</v>
       </c>
       <c r="M27">
-        <v>0.01004539822480021</v>
+        <v>0.009713928407660046</v>
       </c>
       <c r="N27">
-        <v>0.04442707949596503</v>
+        <v>0.07145017126490281</v>
       </c>
       <c r="O27">
-        <v>0.009904558437399898</v>
+        <v>0.007998709439571377</v>
       </c>
       <c r="P27">
-        <v>0.008761316641915025</v>
+        <v>0.01039461209221617</v>
       </c>
       <c r="Q27">
-        <v>0.01389052389269308</v>
+        <v>0.01648566834154893</v>
       </c>
       <c r="R27">
-        <v>0.007152358446299256</v>
+        <v>0.01062716846251825</v>
       </c>
       <c r="S27">
-        <v>0.006376395824989235</v>
+        <v>0.008696341978726096</v>
       </c>
       <c r="T27">
-        <v>0.007222218292075236</v>
+        <v>0.01366646136331542</v>
       </c>
       <c r="U27">
-        <v>0.009542668113563559</v>
+        <v>0.01028596025808747</v>
       </c>
       <c r="V27">
-        <v>0.008274148590446714</v>
+        <v>0.01078379013156475</v>
       </c>
       <c r="W27">
-        <v>0.03536839439292105</v>
+        <v>0.06218877771333153</v>
       </c>
       <c r="X27">
-        <v>0.007529877523555168</v>
+        <v>0.009173296473628927</v>
       </c>
       <c r="Y27">
-        <v>0.01108053845327694</v>
+        <v>0.01936914194081434</v>
       </c>
       <c r="Z27">
-        <v>0.008054986487208583</v>
+        <v>0.008014823769933595</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0.006978641388465446</v>
+        <v>0.01381951294937231</v>
       </c>
       <c r="AC27">
-        <v>0.01718135571956786</v>
+        <v>0.02761871736784285</v>
       </c>
       <c r="AD27">
-        <v>0.02182565411380886</v>
+        <v>0.01205924579914652</v>
       </c>
       <c r="AE27">
-        <v>0.03994104975054245</v>
+        <v>0.0087566894983118</v>
       </c>
       <c r="AF27">
-        <v>0.01794676640942741</v>
+        <v>0.01289349200030186</v>
       </c>
       <c r="AG27">
-        <v>0.02637097057952622</v>
+        <v>0.01289411608297303</v>
       </c>
       <c r="AH27">
-        <v>0.03689636772988607</v>
+        <v>0.01284097948915516</v>
       </c>
       <c r="AI27">
-        <v>0.02887471139049328</v>
+        <v>0.01132857760267139</v>
       </c>
       <c r="AJ27">
-        <v>0.01553814108869993</v>
+        <v>0.01517981133139318</v>
       </c>
       <c r="AK27">
-        <v>0.01559824864717885</v>
+        <v>0.01609222946087978</v>
       </c>
       <c r="AL27">
-        <v>0.03910481630421037</v>
+        <v>0.0122147102431034</v>
       </c>
       <c r="AM27">
-        <v>0.0166317295841908</v>
+        <v>0.009018762457219335</v>
       </c>
       <c r="AN27">
-        <v>0.02780758349342536</v>
+        <v>0.01122784755396043</v>
       </c>
       <c r="AO27">
-        <v>0.01377150368690952</v>
+        <v>0.009788993669273417</v>
       </c>
       <c r="AP27">
-        <v>0.0385959672445973</v>
+        <v>0.009731874621759144</v>
       </c>
       <c r="AQ27">
-        <v>0.0128186150439269</v>
+        <v>0.01062492155362166</v>
       </c>
       <c r="AR27">
-        <v>0.02629385196015475</v>
+        <v>0.01476464678103409</v>
       </c>
       <c r="AS27">
-        <v>0.02470331144251378</v>
+        <v>0.01061154070447737</v>
       </c>
       <c r="AT27">
-        <v>0.03523109726066883</v>
+        <v>0.01213896989830623</v>
       </c>
     </row>
     <row r="28" spans="1:46">
@@ -4312,139 +4312,139 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.03830438834759702</v>
+        <v>0.0597850619642021</v>
       </c>
       <c r="C28">
-        <v>0.04484460956280128</v>
+        <v>0.03542073230179293</v>
       </c>
       <c r="D28">
-        <v>0.01136045947687501</v>
+        <v>0.02942257673472198</v>
       </c>
       <c r="E28">
-        <v>0.01431099617861971</v>
+        <v>0.01573630933163983</v>
       </c>
       <c r="F28">
-        <v>0.03246026705855412</v>
+        <v>0.09243234368371761</v>
       </c>
       <c r="G28">
-        <v>0.01036975064730173</v>
+        <v>0.01032154560739642</v>
       </c>
       <c r="H28">
-        <v>0.03182765269565596</v>
+        <v>0.08331580648306591</v>
       </c>
       <c r="I28">
-        <v>0.01993252925421888</v>
+        <v>0.0406722999895243</v>
       </c>
       <c r="J28">
-        <v>0.008134730271925855</v>
+        <v>0.0164507250230348</v>
       </c>
       <c r="K28">
-        <v>0.01753731005598978</v>
+        <v>0.01311961656012601</v>
       </c>
       <c r="L28">
-        <v>0.008181296671361261</v>
+        <v>0.008950684368915636</v>
       </c>
       <c r="M28">
-        <v>0.01144583885514598</v>
+        <v>0.009023214031239469</v>
       </c>
       <c r="N28">
-        <v>0.04575410284170561</v>
+        <v>0.07195171548950915</v>
       </c>
       <c r="O28">
-        <v>0.01108433752433878</v>
+        <v>0.01136276685958559</v>
       </c>
       <c r="P28">
-        <v>0.008382809623485872</v>
+        <v>0.008315580065917292</v>
       </c>
       <c r="Q28">
-        <v>0.01151022684067531</v>
+        <v>0.01438407124141285</v>
       </c>
       <c r="R28">
-        <v>0.006203698628627081</v>
+        <v>0.01074453525935953</v>
       </c>
       <c r="S28">
-        <v>0.004103349129819452</v>
+        <v>0.008779539083159356</v>
       </c>
       <c r="T28">
-        <v>0.00426445437442216</v>
+        <v>0.01296099007547872</v>
       </c>
       <c r="U28">
-        <v>0.008409546336289365</v>
+        <v>0.009031244579513629</v>
       </c>
       <c r="V28">
-        <v>0.008852982466822186</v>
+        <v>0.01170267858832829</v>
       </c>
       <c r="W28">
-        <v>0.03652191272277804</v>
+        <v>0.05710176224283459</v>
       </c>
       <c r="X28">
-        <v>0.006969545839601813</v>
+        <v>0.008443911170358181</v>
       </c>
       <c r="Y28">
-        <v>0.009034906163744541</v>
+        <v>0.01960994204977866</v>
       </c>
       <c r="Z28">
-        <v>0.007687278980554532</v>
+        <v>0.008245562172431897</v>
       </c>
       <c r="AA28">
-        <v>0.006978641388465446</v>
+        <v>0.01381951294937231</v>
       </c>
       <c r="AB28">
         <v>0</v>
       </c>
       <c r="AC28">
-        <v>0.01514559355375504</v>
+        <v>0.02819312827168633</v>
       </c>
       <c r="AD28">
-        <v>0.01621491701139242</v>
+        <v>0.008863352180278729</v>
       </c>
       <c r="AE28">
-        <v>0.03914986168347834</v>
+        <v>0.01020126867415884</v>
       </c>
       <c r="AF28">
-        <v>0.01394807385601072</v>
+        <v>0.00696270795993623</v>
       </c>
       <c r="AG28">
-        <v>0.03281049595591123</v>
+        <v>0.008990225643432643</v>
       </c>
       <c r="AH28">
-        <v>0.04212905934458488</v>
+        <v>0.01340131725442551</v>
       </c>
       <c r="AI28">
-        <v>0.02983387453483462</v>
+        <v>0.01714201222120028</v>
       </c>
       <c r="AJ28">
-        <v>0.01986069739985809</v>
+        <v>0.01794287234259665</v>
       </c>
       <c r="AK28">
-        <v>0.01743274498599072</v>
+        <v>0.01255532084936139</v>
       </c>
       <c r="AL28">
-        <v>0.04362153192563661</v>
+        <v>0.009952745151272891</v>
       </c>
       <c r="AM28">
-        <v>0.02166884637831067</v>
+        <v>0.01064332925219836</v>
       </c>
       <c r="AN28">
-        <v>0.02919913835864418</v>
+        <v>0.01088352409562861</v>
       </c>
       <c r="AO28">
-        <v>0.01339956019502057</v>
+        <v>0.008374511312794283</v>
       </c>
       <c r="AP28">
-        <v>0.04239614788831791</v>
+        <v>0.006821498785244414</v>
       </c>
       <c r="AQ28">
-        <v>0.0117158925382056</v>
+        <v>0.01014406351485149</v>
       </c>
       <c r="AR28">
-        <v>0.02815714121730762</v>
+        <v>0.01432672000312472</v>
       </c>
       <c r="AS28">
-        <v>0.02638468517572253</v>
+        <v>0.01195724319442209</v>
       </c>
       <c r="AT28">
-        <v>0.03372370452888655</v>
+        <v>0.01098851396745214</v>
       </c>
     </row>
     <row r="29" spans="1:46">
@@ -4452,139 +4452,139 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.04029310240912232</v>
+        <v>0.06723532580270909</v>
       </c>
       <c r="C29">
-        <v>0.04358654025652884</v>
+        <v>0.04664605978939144</v>
       </c>
       <c r="D29">
-        <v>0.01865939531189539</v>
+        <v>0.04401471067296089</v>
       </c>
       <c r="E29">
-        <v>0.02402248421229968</v>
+        <v>0.02885628473748094</v>
       </c>
       <c r="F29">
-        <v>0.03635575249095776</v>
+        <v>0.1151583326307535</v>
       </c>
       <c r="G29">
-        <v>0.0152104773500848</v>
+        <v>0.02611908064655402</v>
       </c>
       <c r="H29">
-        <v>0.03800399248470945</v>
+        <v>0.09095844938995094</v>
       </c>
       <c r="I29">
-        <v>0.02770265204144605</v>
+        <v>0.04864699679930624</v>
       </c>
       <c r="J29">
-        <v>0.01770905217491705</v>
+        <v>0.03343243854513363</v>
       </c>
       <c r="K29">
-        <v>0.0242795561981237</v>
+        <v>0.02196682336915491</v>
       </c>
       <c r="L29">
-        <v>0.01890170097818484</v>
+        <v>0.02716405456549946</v>
       </c>
       <c r="M29">
-        <v>0.01671686444590459</v>
+        <v>0.02630952962687291</v>
       </c>
       <c r="N29">
-        <v>0.04732900655984339</v>
+        <v>0.08586145504672761</v>
       </c>
       <c r="O29">
-        <v>0.01560804043748189</v>
+        <v>0.02577471568597533</v>
       </c>
       <c r="P29">
-        <v>0.01564720995317553</v>
+        <v>0.02452077662812961</v>
       </c>
       <c r="Q29">
-        <v>0.01896417078408286</v>
+        <v>0.02936493187824438</v>
       </c>
       <c r="R29">
-        <v>0.01484575487981541</v>
+        <v>0.02427415514806919</v>
       </c>
       <c r="S29">
-        <v>0.01385096061519101</v>
+        <v>0.02434297630473567</v>
       </c>
       <c r="T29">
-        <v>0.01670898250417568</v>
+        <v>0.02704882195806975</v>
       </c>
       <c r="U29">
-        <v>0.01693605820688695</v>
+        <v>0.02526346223235238</v>
       </c>
       <c r="V29">
-        <v>0.01832540338672821</v>
+        <v>0.02403114887510777</v>
       </c>
       <c r="W29">
-        <v>0.03704817820097533</v>
+        <v>0.07430846994481753</v>
       </c>
       <c r="X29">
-        <v>0.01682174427027956</v>
+        <v>0.02482987611261766</v>
       </c>
       <c r="Y29">
-        <v>0.01361014904327201</v>
+        <v>0.03652149761852576</v>
       </c>
       <c r="Z29">
-        <v>0.01623025190703058</v>
+        <v>0.02362399251376162</v>
       </c>
       <c r="AA29">
-        <v>0.01718135571956786</v>
+        <v>0.02761871736784285</v>
       </c>
       <c r="AB29">
-        <v>0.01514559355375504</v>
+        <v>0.02819312827168633</v>
       </c>
       <c r="AC29">
         <v>0</v>
       </c>
       <c r="AD29">
-        <v>0.02276887114291963</v>
+        <v>0.02750372043837061</v>
       </c>
       <c r="AE29">
-        <v>0.03912141405045508</v>
+        <v>0.02452527528988676</v>
       </c>
       <c r="AF29">
-        <v>0.02348923947344962</v>
+        <v>0.02534631055692265</v>
       </c>
       <c r="AG29">
-        <v>0.03986669450398685</v>
+        <v>0.0265772002731541</v>
       </c>
       <c r="AH29">
-        <v>0.0420269321466104</v>
+        <v>0.02874013975802343</v>
       </c>
       <c r="AI29">
-        <v>0.03867378095939533</v>
+        <v>0.02824901737060755</v>
       </c>
       <c r="AJ29">
-        <v>0.02600055554363905</v>
+        <v>0.02526653734585096</v>
       </c>
       <c r="AK29">
-        <v>0.02560286081957661</v>
+        <v>0.02873820201598727</v>
       </c>
       <c r="AL29">
-        <v>0.04556736592720624</v>
+        <v>0.02430676534228989</v>
       </c>
       <c r="AM29">
-        <v>0.02784649217098413</v>
+        <v>0.02426276424895262</v>
       </c>
       <c r="AN29">
-        <v>0.03177619926149487</v>
+        <v>0.02157665413952094</v>
       </c>
       <c r="AO29">
-        <v>0.02369266392433125</v>
+        <v>0.02289526436185812</v>
       </c>
       <c r="AP29">
-        <v>0.0437024930174534</v>
+        <v>0.02643344066309585</v>
       </c>
       <c r="AQ29">
-        <v>0.01892100771655863</v>
+        <v>0.02362991691238918</v>
       </c>
       <c r="AR29">
-        <v>0.03910369099313865</v>
+        <v>0.02828740497404804</v>
       </c>
       <c r="AS29">
-        <v>0.03451642413614795</v>
+        <v>0.02658741614078328</v>
       </c>
       <c r="AT29">
-        <v>0.03432480170265335</v>
+        <v>0.02745858237306014</v>
       </c>
     </row>
     <row r="30" spans="1:46">
@@ -4592,139 +4592,139 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.03171937473833525</v>
+        <v>0.05400590172598703</v>
       </c>
       <c r="C30">
-        <v>0.04167379119568698</v>
+        <v>0.02928912696213907</v>
       </c>
       <c r="D30">
-        <v>0.02070854720423765</v>
+        <v>0.02561948623403822</v>
       </c>
       <c r="E30">
-        <v>0.02707749293922523</v>
+        <v>0.01256834930686869</v>
       </c>
       <c r="F30">
-        <v>0.03384595566315188</v>
+        <v>0.09697802398824043</v>
       </c>
       <c r="G30">
-        <v>0.02156970524132865</v>
+        <v>0.0112327877278142</v>
       </c>
       <c r="H30">
-        <v>0.03135731444124275</v>
+        <v>0.08110227820169692</v>
       </c>
       <c r="I30">
-        <v>0.02325070275578613</v>
+        <v>0.03813156748043671</v>
       </c>
       <c r="J30">
-        <v>0.02350827891308203</v>
+        <v>0.02251500957693326</v>
       </c>
       <c r="K30">
-        <v>0.02743848785739739</v>
+        <v>0.01132995443144478</v>
       </c>
       <c r="L30">
-        <v>0.02205252505913948</v>
+        <v>0.01068975284233379</v>
       </c>
       <c r="M30">
-        <v>0.02318063873288056</v>
+        <v>0.007983859492660174</v>
       </c>
       <c r="N30">
-        <v>0.04509532614634952</v>
+        <v>0.07077320608357687</v>
       </c>
       <c r="O30">
-        <v>0.02667368769942059</v>
+        <v>0.01057350862557037</v>
       </c>
       <c r="P30">
-        <v>0.01790202051468371</v>
+        <v>0.007289874295054039</v>
       </c>
       <c r="Q30">
-        <v>0.02470514995096523</v>
+        <v>0.008816666165294527</v>
       </c>
       <c r="R30">
-        <v>0.01978066345323256</v>
+        <v>0.00680307635316646</v>
       </c>
       <c r="S30">
-        <v>0.01783670733040084</v>
+        <v>0.004687918976281133</v>
       </c>
       <c r="T30">
-        <v>0.01928342094878929</v>
+        <v>0.01120437099735786</v>
       </c>
       <c r="U30">
-        <v>0.01950284872617181</v>
+        <v>0.007865944966883325</v>
       </c>
       <c r="V30">
-        <v>0.02216173749101619</v>
+        <v>0.01010019331673513</v>
       </c>
       <c r="W30">
-        <v>0.04628588989483058</v>
+        <v>0.06159997768308476</v>
       </c>
       <c r="X30">
-        <v>0.02068109650749849</v>
+        <v>0.010951202505954</v>
       </c>
       <c r="Y30">
-        <v>0.02196073274197098</v>
+        <v>0.01861761697258125</v>
       </c>
       <c r="Z30">
-        <v>0.02152799233675105</v>
+        <v>0.005089719082332856</v>
       </c>
       <c r="AA30">
-        <v>0.02182565411380886</v>
+        <v>0.01205924579914652</v>
       </c>
       <c r="AB30">
-        <v>0.01621491701139242</v>
+        <v>0.008863352180278729</v>
       </c>
       <c r="AC30">
-        <v>0.02276887114291963</v>
+        <v>0.02750372043837061</v>
       </c>
       <c r="AD30">
         <v>0</v>
       </c>
       <c r="AE30">
-        <v>0.03038463886779617</v>
+        <v>0.008169934537485336</v>
       </c>
       <c r="AF30">
-        <v>0.01210378422545072</v>
+        <v>0.01117829040629084</v>
       </c>
       <c r="AG30">
-        <v>0.03748246802590932</v>
+        <v>0.008935404497891162</v>
       </c>
       <c r="AH30">
-        <v>0.04439979148622535</v>
+        <v>0.0107180560167932</v>
       </c>
       <c r="AI30">
-        <v>0.02537814701695367</v>
+        <v>0.01442468769090548</v>
       </c>
       <c r="AJ30">
-        <v>0.02613253842660406</v>
+        <v>0.01701498635309492</v>
       </c>
       <c r="AK30">
-        <v>0.02284294844811543</v>
+        <v>0.0138198009299272</v>
       </c>
       <c r="AL30">
-        <v>0.05148808545955663</v>
+        <v>0.008130039800929818</v>
       </c>
       <c r="AM30">
-        <v>0.02452251161061774</v>
+        <v>0.009378013736023998</v>
       </c>
       <c r="AN30">
-        <v>0.03290785715344874</v>
+        <v>0.007079020650925333</v>
       </c>
       <c r="AO30">
-        <v>0.02428233592914561</v>
+        <v>0.009409598668095225</v>
       </c>
       <c r="AP30">
-        <v>0.03903079138094481</v>
+        <v>0.009154728781349653</v>
       </c>
       <c r="AQ30">
-        <v>0.02224168874819501</v>
+        <v>0.00830692169792463</v>
       </c>
       <c r="AR30">
-        <v>0.03473611129976145</v>
+        <v>0.01053823179257175</v>
       </c>
       <c r="AS30">
-        <v>0.03179949872079253</v>
+        <v>0.007405833712662409</v>
       </c>
       <c r="AT30">
-        <v>0.03323057477722875</v>
+        <v>0.008315706035245929</v>
       </c>
     </row>
     <row r="31" spans="1:46">
@@ -4732,139 +4732,139 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.02594585115285237</v>
+        <v>0.05333127827972013</v>
       </c>
       <c r="C31">
-        <v>0.03978620200638272</v>
+        <v>0.03195637262136421</v>
       </c>
       <c r="D31">
-        <v>0.04246495318775676</v>
+        <v>0.02555913801981278</v>
       </c>
       <c r="E31">
-        <v>0.04483040838733422</v>
+        <v>0.01463121934185468</v>
       </c>
       <c r="F31">
-        <v>0.04239526669598178</v>
+        <v>0.09823725269535534</v>
       </c>
       <c r="G31">
-        <v>0.04418107721127137</v>
+        <v>0.009364975701224864</v>
       </c>
       <c r="H31">
-        <v>0.04036483867899097</v>
+        <v>0.0780694175255771</v>
       </c>
       <c r="I31">
-        <v>0.04069175064633817</v>
+        <v>0.03443353080622526</v>
       </c>
       <c r="J31">
-        <v>0.04109261274922627</v>
+        <v>0.01867550255872087</v>
       </c>
       <c r="K31">
-        <v>0.04628486546068662</v>
+        <v>0.00797787408585016</v>
       </c>
       <c r="L31">
-        <v>0.04085826086184549</v>
+        <v>0.009847034235047901</v>
       </c>
       <c r="M31">
-        <v>0.04148701073628876</v>
+        <v>0.006201371801372306</v>
       </c>
       <c r="N31">
-        <v>0.04802566073684583</v>
+        <v>0.07350086250009223</v>
       </c>
       <c r="O31">
-        <v>0.04502780379449745</v>
+        <v>0.007036595061113812</v>
       </c>
       <c r="P31">
-        <v>0.03741607006141218</v>
+        <v>0.00624793503577466</v>
       </c>
       <c r="Q31">
-        <v>0.0423190951661808</v>
+        <v>0.01255608470756785</v>
       </c>
       <c r="R31">
-        <v>0.03935653234323354</v>
+        <v>0.00653893235351864</v>
       </c>
       <c r="S31">
-        <v>0.0372889375338568</v>
+        <v>0.004576060814245077</v>
       </c>
       <c r="T31">
-        <v>0.03990873292925771</v>
+        <v>0.006811324821643028</v>
       </c>
       <c r="U31">
-        <v>0.03895507892962776</v>
+        <v>0.006989076863714932</v>
       </c>
       <c r="V31">
-        <v>0.03885040170059194</v>
+        <v>0.009379794731070808</v>
       </c>
       <c r="W31">
-        <v>0.05610230563599931</v>
+        <v>0.05950005618889418</v>
       </c>
       <c r="X31">
-        <v>0.04027757184525696</v>
+        <v>0.009848509596960776</v>
       </c>
       <c r="Y31">
-        <v>0.04010035184846232</v>
+        <v>0.01697924074506979</v>
       </c>
       <c r="Z31">
-        <v>0.03685832656842426</v>
+        <v>0.005264313250884835</v>
       </c>
       <c r="AA31">
-        <v>0.03994104975054245</v>
+        <v>0.0087566894983118</v>
       </c>
       <c r="AB31">
-        <v>0.03914986168347834</v>
+        <v>0.01020126867415884</v>
       </c>
       <c r="AC31">
-        <v>0.03912141405045508</v>
+        <v>0.02452527528988676</v>
       </c>
       <c r="AD31">
-        <v>0.03038463886779617</v>
+        <v>0.008169934537485336</v>
       </c>
       <c r="AE31">
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>0.03612660294315716</v>
+        <v>0.01024910935286277</v>
       </c>
       <c r="AG31">
-        <v>0.05634004138063049</v>
+        <v>0.007928854940860975</v>
       </c>
       <c r="AH31">
-        <v>0.06551137899431801</v>
+        <v>0.009749362146658419</v>
       </c>
       <c r="AI31">
-        <v>0.03206570718352401</v>
+        <v>0.01338497874765612</v>
       </c>
       <c r="AJ31">
-        <v>0.04455971631471382</v>
+        <v>0.01231534593434165</v>
       </c>
       <c r="AK31">
-        <v>0.0410953667268457</v>
+        <v>0.008887751772732424</v>
       </c>
       <c r="AL31">
-        <v>0.0697704327549015</v>
+        <v>0.007934439291308472</v>
       </c>
       <c r="AM31">
-        <v>0.04565676173537628</v>
+        <v>0.007482584421609684</v>
       </c>
       <c r="AN31">
-        <v>0.05732974069210723</v>
+        <v>0.004528778540871261</v>
       </c>
       <c r="AO31">
-        <v>0.04141534885764622</v>
+        <v>0.007376697534282777</v>
       </c>
       <c r="AP31">
-        <v>0.05493469578298874</v>
+        <v>0.006786025693250963</v>
       </c>
       <c r="AQ31">
-        <v>0.04346633566744515</v>
+        <v>0.007082094997868632</v>
       </c>
       <c r="AR31">
-        <v>0.05338280540259145</v>
+        <v>0.01066885705372863</v>
       </c>
       <c r="AS31">
-        <v>0.05185456463928798</v>
+        <v>0.007674440542072692</v>
       </c>
       <c r="AT31">
-        <v>0.03285846091165673</v>
+        <v>0.007090708049865104</v>
       </c>
     </row>
     <row r="32" spans="1:46">
@@ -4872,139 +4872,139 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.03301353144081725</v>
+        <v>0.05570680939027407</v>
       </c>
       <c r="C32">
-        <v>0.04590678095667476</v>
+        <v>0.03561428713904093</v>
       </c>
       <c r="D32">
-        <v>0.02094047744373695</v>
+        <v>0.02771511491646006</v>
       </c>
       <c r="E32">
-        <v>0.02019481139797255</v>
+        <v>0.01482739987641583</v>
       </c>
       <c r="F32">
-        <v>0.03576144970948341</v>
+        <v>0.09422201684135442</v>
       </c>
       <c r="G32">
-        <v>0.02186355612632463</v>
+        <v>0.009286460460432194</v>
       </c>
       <c r="H32">
-        <v>0.03529742345737191</v>
+        <v>0.08100725382582205</v>
       </c>
       <c r="I32">
-        <v>0.02014657834566506</v>
+        <v>0.03888159424480051</v>
       </c>
       <c r="J32">
-        <v>0.01846843803134449</v>
+        <v>0.01668669427384041</v>
       </c>
       <c r="K32">
-        <v>0.02570204285830685</v>
+        <v>0.01195854455196032</v>
       </c>
       <c r="L32">
-        <v>0.01855509557964898</v>
+        <v>0.01099729846426521</v>
       </c>
       <c r="M32">
-        <v>0.01977700271056984</v>
+        <v>0.008937640092079185</v>
       </c>
       <c r="N32">
-        <v>0.04240458706841126</v>
+        <v>0.07434612448767952</v>
       </c>
       <c r="O32">
-        <v>0.02191373839515575</v>
+        <v>0.01069198222110405</v>
       </c>
       <c r="P32">
-        <v>0.01330796234572073</v>
+        <v>0.007627474786605046</v>
       </c>
       <c r="Q32">
-        <v>0.02121051382107905</v>
+        <v>0.01267551144171359</v>
       </c>
       <c r="R32">
-        <v>0.0151374818004662</v>
+        <v>0.008809788309391896</v>
       </c>
       <c r="S32">
-        <v>0.01482280036832443</v>
+        <v>0.00807033660098007</v>
       </c>
       <c r="T32">
-        <v>0.01472535546417883</v>
+        <v>0.009450076809740207</v>
       </c>
       <c r="U32">
-        <v>0.01608834264804199</v>
+        <v>0.008360826768776884</v>
       </c>
       <c r="V32">
-        <v>0.01903053196782525</v>
+        <v>0.01002243106484576</v>
       </c>
       <c r="W32">
-        <v>0.04469528462016067</v>
+        <v>0.06021048409938923</v>
       </c>
       <c r="X32">
-        <v>0.01781825941307038</v>
+        <v>0.006865084958217465</v>
       </c>
       <c r="Y32">
-        <v>0.01878508138203209</v>
+        <v>0.01934532446839482</v>
       </c>
       <c r="Z32">
-        <v>0.01724138430316043</v>
+        <v>0.007336543676300842</v>
       </c>
       <c r="AA32">
-        <v>0.01794676640942741</v>
+        <v>0.01289349200030186</v>
       </c>
       <c r="AB32">
-        <v>0.01394807385601072</v>
+        <v>0.00696270795993623</v>
       </c>
       <c r="AC32">
-        <v>0.02348923947344962</v>
+        <v>0.02534631055692265</v>
       </c>
       <c r="AD32">
-        <v>0.01210378422545072</v>
+        <v>0.01117829040629084</v>
       </c>
       <c r="AE32">
-        <v>0.03612660294315716</v>
+        <v>0.01024910935286277</v>
       </c>
       <c r="AF32">
         <v>0</v>
       </c>
       <c r="AG32">
-        <v>0.0371221690706551</v>
+        <v>0.01115222381033432</v>
       </c>
       <c r="AH32">
-        <v>0.04357392558874852</v>
+        <v>0.01146232970952082</v>
       </c>
       <c r="AI32">
-        <v>0.03039122079985057</v>
+        <v>0.01286450819161885</v>
       </c>
       <c r="AJ32">
-        <v>0.02652244565211132</v>
+        <v>0.01674921729172281</v>
       </c>
       <c r="AK32">
-        <v>0.0180263221975722</v>
+        <v>0.0147430190546263</v>
       </c>
       <c r="AL32">
-        <v>0.04851010447671105</v>
+        <v>0.008311203897823864</v>
       </c>
       <c r="AM32">
-        <v>0.02288854414889359</v>
+        <v>0.009431623938351074</v>
       </c>
       <c r="AN32">
-        <v>0.03616265439459438</v>
+        <v>0.009317253448222625</v>
       </c>
       <c r="AO32">
-        <v>0.02137437643662869</v>
+        <v>0.005885574282808668</v>
       </c>
       <c r="AP32">
-        <v>0.03937939751187494</v>
+        <v>0.009872950407565787</v>
       </c>
       <c r="AQ32">
-        <v>0.02048771760292266</v>
+        <v>0.008126998535485971</v>
       </c>
       <c r="AR32">
-        <v>0.03294663343985049</v>
+        <v>0.01267431925945149</v>
       </c>
       <c r="AS32">
-        <v>0.0299688486818623</v>
+        <v>0.009839592490452534</v>
       </c>
       <c r="AT32">
-        <v>0.0328845691708028</v>
+        <v>0.008453926443819041</v>
       </c>
     </row>
     <row r="33" spans="1:46">
@@ -5012,139 +5012,139 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.05106869870327083</v>
+        <v>0.05690176490955582</v>
       </c>
       <c r="C33">
-        <v>0.05948625857163051</v>
+        <v>0.03579800618204791</v>
       </c>
       <c r="D33">
-        <v>0.02865219118776338</v>
+        <v>0.02557692256687232</v>
       </c>
       <c r="E33">
-        <v>0.02930908551496157</v>
+        <v>0.01692939454778914</v>
       </c>
       <c r="F33">
-        <v>0.03181936853294481</v>
+        <v>0.09355375232377969</v>
       </c>
       <c r="G33">
-        <v>0.03505999693792157</v>
+        <v>0.007443919004500083</v>
       </c>
       <c r="H33">
-        <v>0.03960992752607232</v>
+        <v>0.07983342542314738</v>
       </c>
       <c r="I33">
-        <v>0.03768707332094221</v>
+        <v>0.04026118055836534</v>
       </c>
       <c r="J33">
-        <v>0.02831428317840349</v>
+        <v>0.01974000000027323</v>
       </c>
       <c r="K33">
-        <v>0.03546400835774237</v>
+        <v>0.008846767830730717</v>
       </c>
       <c r="L33">
-        <v>0.03079632709429485</v>
+        <v>0.004335053586866439</v>
       </c>
       <c r="M33">
-        <v>0.03044744585336049</v>
+        <v>0.008293889346006646</v>
       </c>
       <c r="N33">
-        <v>0.04748428410627523</v>
+        <v>0.07084478538573367</v>
       </c>
       <c r="O33">
-        <v>0.03183798075021377</v>
+        <v>0.00961978295860071</v>
       </c>
       <c r="P33">
-        <v>0.03077407284432769</v>
+        <v>0.008307630227424844</v>
       </c>
       <c r="Q33">
-        <v>0.03274742626495229</v>
+        <v>0.01245687112206928</v>
       </c>
       <c r="R33">
-        <v>0.03076824082779926</v>
+        <v>0.005704097106306221</v>
       </c>
       <c r="S33">
-        <v>0.03049340787548041</v>
+        <v>0.005843846417070146</v>
       </c>
       <c r="T33">
-        <v>0.03202463752195706</v>
+        <v>0.01113795884702316</v>
       </c>
       <c r="U33">
-        <v>0.03001217569767392</v>
+        <v>0.008988716518944525</v>
       </c>
       <c r="V33">
-        <v>0.02920151278128291</v>
+        <v>0.008970441525776229</v>
       </c>
       <c r="W33">
-        <v>0.04655400585117146</v>
+        <v>0.05943427377406758</v>
       </c>
       <c r="X33">
-        <v>0.03240434697939207</v>
+        <v>0.01172302721550253</v>
       </c>
       <c r="Y33">
-        <v>0.03360068067047878</v>
+        <v>0.01641392969713232</v>
       </c>
       <c r="Z33">
-        <v>0.03106735073630582</v>
+        <v>0.006417432516678832</v>
       </c>
       <c r="AA33">
-        <v>0.02637097057952622</v>
+        <v>0.01289411608297303</v>
       </c>
       <c r="AB33">
-        <v>0.03281049595591123</v>
+        <v>0.008990225643432643</v>
       </c>
       <c r="AC33">
-        <v>0.03986669450398685</v>
+        <v>0.0265772002731541</v>
       </c>
       <c r="AD33">
-        <v>0.03748246802590932</v>
+        <v>0.008935404497891162</v>
       </c>
       <c r="AE33">
-        <v>0.05634004138063049</v>
+        <v>0.007928854940860975</v>
       </c>
       <c r="AF33">
-        <v>0.0371221690706551</v>
+        <v>0.01115222381033432</v>
       </c>
       <c r="AG33">
         <v>0</v>
       </c>
       <c r="AH33">
-        <v>0.03832486639173658</v>
+        <v>0.01033656135420777</v>
       </c>
       <c r="AI33">
-        <v>0.03413839015293516</v>
+        <v>0.01304494059328352</v>
       </c>
       <c r="AJ33">
-        <v>0.02219642094453434</v>
+        <v>0.01715814911495325</v>
       </c>
       <c r="AK33">
-        <v>0.02492132393467254</v>
+        <v>0.006810292803648695</v>
       </c>
       <c r="AL33">
-        <v>0.04394786674271394</v>
+        <v>0.007781161191545859</v>
       </c>
       <c r="AM33">
-        <v>0.02202210945041621</v>
+        <v>0.008208373087796865</v>
       </c>
       <c r="AN33">
-        <v>0.04638453894372507</v>
+        <v>0.007527415017973495</v>
       </c>
       <c r="AO33">
-        <v>0.03085410848712676</v>
+        <v>0.008284179065607475</v>
       </c>
       <c r="AP33">
-        <v>0.03258662620976717</v>
+        <v>0.005673315159168217</v>
       </c>
       <c r="AQ33">
-        <v>0.03519799283175051</v>
+        <v>0.00694342840499021</v>
       </c>
       <c r="AR33">
-        <v>0.02743421784597325</v>
+        <v>0.01170187737810252</v>
       </c>
       <c r="AS33">
-        <v>0.02074306663375271</v>
+        <v>0.01216666774750423</v>
       </c>
       <c r="AT33">
-        <v>0.04505542483213366</v>
+        <v>0.008348755634440607</v>
       </c>
     </row>
     <row r="34" spans="1:46">
@@ -5152,139 +5152,139 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.06810614602072596</v>
+        <v>0.05777315523927899</v>
       </c>
       <c r="C34">
-        <v>0.06930444379403601</v>
+        <v>0.036988914687517</v>
       </c>
       <c r="D34">
-        <v>0.0367534684396174</v>
+        <v>0.02620513989246789</v>
       </c>
       <c r="E34">
-        <v>0.04067392521840255</v>
+        <v>0.01733868033538485</v>
       </c>
       <c r="F34">
-        <v>0.05137636919551229</v>
+        <v>0.1004020523797398</v>
       </c>
       <c r="G34">
-        <v>0.04216361771911469</v>
+        <v>0.01003192985678721</v>
       </c>
       <c r="H34">
-        <v>0.05379968349470306</v>
+        <v>0.07645532776147956</v>
       </c>
       <c r="I34">
-        <v>0.04725786708524021</v>
+        <v>0.04154810964125999</v>
       </c>
       <c r="J34">
-        <v>0.0377234045448093</v>
+        <v>0.02354790802231665</v>
       </c>
       <c r="K34">
-        <v>0.04694978472662031</v>
+        <v>0.01303461253735104</v>
       </c>
       <c r="L34">
-        <v>0.03732107951817897</v>
+        <v>0.01233776876846353</v>
       </c>
       <c r="M34">
-        <v>0.04017893630586709</v>
+        <v>0.008864474886034757</v>
       </c>
       <c r="N34">
-        <v>0.06730047349497244</v>
+        <v>0.07719135417735258</v>
       </c>
       <c r="O34">
-        <v>0.03584102173659896</v>
+        <v>0.01036081986706929</v>
       </c>
       <c r="P34">
-        <v>0.03807756113851244</v>
+        <v>0.00892376118572252</v>
       </c>
       <c r="Q34">
-        <v>0.0442036331995847</v>
+        <v>0.0141067136693466</v>
       </c>
       <c r="R34">
-        <v>0.03780736927286344</v>
+        <v>0.008013969239978845</v>
       </c>
       <c r="S34">
-        <v>0.04108136125962741</v>
+        <v>0.007500404090181956</v>
       </c>
       <c r="T34">
-        <v>0.04101081530138412</v>
+        <v>0.01246612046885082</v>
       </c>
       <c r="U34">
-        <v>0.03780006624282668</v>
+        <v>0.009780363421694582</v>
       </c>
       <c r="V34">
-        <v>0.03655218637177363</v>
+        <v>0.01120904600391724</v>
       </c>
       <c r="W34">
-        <v>0.0536744790908306</v>
+        <v>0.06396807304894328</v>
       </c>
       <c r="X34">
-        <v>0.0404125065352425</v>
+        <v>0.01095233587216831</v>
       </c>
       <c r="Y34">
-        <v>0.04232858211493496</v>
+        <v>0.01897684119255811</v>
       </c>
       <c r="Z34">
-        <v>0.04136118244549541</v>
+        <v>0.008003776790851718</v>
       </c>
       <c r="AA34">
-        <v>0.03689636772988607</v>
+        <v>0.01284097948915516</v>
       </c>
       <c r="AB34">
-        <v>0.04212905934458488</v>
+        <v>0.01340131725442551</v>
       </c>
       <c r="AC34">
-        <v>0.0420269321466104</v>
+        <v>0.02874013975802343</v>
       </c>
       <c r="AD34">
-        <v>0.04439979148622535</v>
+        <v>0.0107180560167932</v>
       </c>
       <c r="AE34">
-        <v>0.06551137899431801</v>
+        <v>0.009749362146658419</v>
       </c>
       <c r="AF34">
-        <v>0.04357392558874852</v>
+        <v>0.01146232970952082</v>
       </c>
       <c r="AG34">
-        <v>0.03832486639173658</v>
+        <v>0.01033656135420777</v>
       </c>
       <c r="AH34">
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>0.05176362324794795</v>
+        <v>0.01507953536977629</v>
       </c>
       <c r="AJ34">
-        <v>0.02875147153691986</v>
+        <v>0.01063607288726917</v>
       </c>
       <c r="AK34">
-        <v>0.03443933064237376</v>
+        <v>0.01389981223403267</v>
       </c>
       <c r="AL34">
-        <v>0.0301795121587182</v>
+        <v>0.008641160777917434</v>
       </c>
       <c r="AM34">
-        <v>0.02743813214687118</v>
+        <v>0.009799521588178452</v>
       </c>
       <c r="AN34">
-        <v>0.05272083405289651</v>
+        <v>0.009799498305348696</v>
       </c>
       <c r="AO34">
-        <v>0.03595903248995855</v>
+        <v>0.008790569205880904</v>
       </c>
       <c r="AP34">
-        <v>0.04645048222936723</v>
+        <v>0.008220384526328157</v>
       </c>
       <c r="AQ34">
-        <v>0.03713613734848762</v>
+        <v>0.009027614569409053</v>
       </c>
       <c r="AR34">
-        <v>0.04313674994686052</v>
+        <v>0.006284989234861945</v>
       </c>
       <c r="AS34">
-        <v>0.03067001432834762</v>
+        <v>0.01085465831816317</v>
       </c>
       <c r="AT34">
-        <v>0.06067238801387734</v>
+        <v>0.01011521507630939</v>
       </c>
     </row>
     <row r="35" spans="1:46">
@@ -5292,139 +5292,139 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.03785651543076501</v>
+        <v>0.05397822650679991</v>
       </c>
       <c r="C35">
-        <v>0.05081870806033381</v>
+        <v>0.03277573551560031</v>
       </c>
       <c r="D35">
-        <v>0.03134844110369645</v>
+        <v>0.03066116909657131</v>
       </c>
       <c r="E35">
-        <v>0.03454705335284303</v>
+        <v>0.02213756957632333</v>
       </c>
       <c r="F35">
-        <v>0.03712432119384677</v>
+        <v>0.09438904433893205</v>
       </c>
       <c r="G35">
-        <v>0.03437324507496859</v>
+        <v>0.01483141968961</v>
       </c>
       <c r="H35">
-        <v>0.03289674265604257</v>
+        <v>0.07360528677903373</v>
       </c>
       <c r="I35">
-        <v>0.03148498192990266</v>
+        <v>0.03744028086154718</v>
       </c>
       <c r="J35">
-        <v>0.03141477359130982</v>
+        <v>0.02628880338906184</v>
       </c>
       <c r="K35">
-        <v>0.0348810195600425</v>
+        <v>0.01187548838469143</v>
       </c>
       <c r="L35">
-        <v>0.03392625498362337</v>
+        <v>0.01493595421383066</v>
       </c>
       <c r="M35">
-        <v>0.03127095435342889</v>
+        <v>0.0137167141672926</v>
       </c>
       <c r="N35">
-        <v>0.04634352072209953</v>
+        <v>0.0720741799334024</v>
       </c>
       <c r="O35">
-        <v>0.03514126782127434</v>
+        <v>0.01414197277606469</v>
       </c>
       <c r="P35">
-        <v>0.03151982376814395</v>
+        <v>0.01394075448607435</v>
       </c>
       <c r="Q35">
-        <v>0.03672839760773441</v>
+        <v>0.0178044259160013</v>
       </c>
       <c r="R35">
-        <v>0.03203430439704148</v>
+        <v>0.009572949469667101</v>
       </c>
       <c r="S35">
-        <v>0.03031352035945949</v>
+        <v>0.01124819766573657</v>
       </c>
       <c r="T35">
-        <v>0.0311471823135866</v>
+        <v>0.01272524567188707</v>
       </c>
       <c r="U35">
-        <v>0.03310864706986706</v>
+        <v>0.01363079564872606</v>
       </c>
       <c r="V35">
-        <v>0.03076452778761539</v>
+        <v>0.01298621958705521</v>
       </c>
       <c r="W35">
-        <v>0.0513133586402887</v>
+        <v>0.06452820547787394</v>
       </c>
       <c r="X35">
-        <v>0.03209803106974288</v>
+        <v>0.01533039471944644</v>
       </c>
       <c r="Y35">
-        <v>0.03300480095803904</v>
+        <v>0.02425174587846633</v>
       </c>
       <c r="Z35">
-        <v>0.0329973026127215</v>
+        <v>0.01195074186807568</v>
       </c>
       <c r="AA35">
-        <v>0.02887471139049328</v>
+        <v>0.01132857760267139</v>
       </c>
       <c r="AB35">
-        <v>0.02983387453483462</v>
+        <v>0.01714201222120028</v>
       </c>
       <c r="AC35">
-        <v>0.03867378095939533</v>
+        <v>0.02824901737060755</v>
       </c>
       <c r="AD35">
-        <v>0.02537814701695367</v>
+        <v>0.01442468769090548</v>
       </c>
       <c r="AE35">
-        <v>0.03206570718352401</v>
+        <v>0.01338497874765612</v>
       </c>
       <c r="AF35">
-        <v>0.03039122079985057</v>
+        <v>0.01286450819161885</v>
       </c>
       <c r="AG35">
-        <v>0.03413839015293516</v>
+        <v>0.01304494059328352</v>
       </c>
       <c r="AH35">
-        <v>0.05176362324794795</v>
+        <v>0.01507953536977629</v>
       </c>
       <c r="AI35">
         <v>0</v>
       </c>
       <c r="AJ35">
-        <v>0.03228701197476478</v>
+        <v>0.01845379174319197</v>
       </c>
       <c r="AK35">
-        <v>0.03317294769827366</v>
+        <v>0.01732084469193539</v>
       </c>
       <c r="AL35">
-        <v>0.05777446791715977</v>
+        <v>0.009909405994825437</v>
       </c>
       <c r="AM35">
-        <v>0.0317141327002825</v>
+        <v>0.01342413050581863</v>
       </c>
       <c r="AN35">
-        <v>0.04865698021584893</v>
+        <v>0.01190866584853739</v>
       </c>
       <c r="AO35">
-        <v>0.03900134454490586</v>
+        <v>0.01178373496428723</v>
       </c>
       <c r="AP35">
-        <v>0.03895795334695511</v>
+        <v>0.01385145203904308</v>
       </c>
       <c r="AQ35">
-        <v>0.03585348549342634</v>
+        <v>0.00867456227830804</v>
       </c>
       <c r="AR35">
-        <v>0.03047923287165512</v>
+        <v>0.01563305614281716</v>
       </c>
       <c r="AS35">
-        <v>0.04070916381509759</v>
+        <v>0.01617718299908954</v>
       </c>
       <c r="AT35">
-        <v>0.04430817908550364</v>
+        <v>0.01076716545817212</v>
       </c>
     </row>
     <row r="36" spans="1:46">
@@ -5432,139 +5432,139 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.04806733621099367</v>
+        <v>0.0563239851752175</v>
       </c>
       <c r="C36">
-        <v>0.04983386324649294</v>
+        <v>0.03557840081125324</v>
       </c>
       <c r="D36">
-        <v>0.01555082347367704</v>
+        <v>0.0343549494121375</v>
       </c>
       <c r="E36">
-        <v>0.01737870393614773</v>
+        <v>0.02152302345237897</v>
       </c>
       <c r="F36">
-        <v>0.03595788552060086</v>
+        <v>0.1009511320383926</v>
       </c>
       <c r="G36">
-        <v>0.0205187497757419</v>
+        <v>0.01652937923795201</v>
       </c>
       <c r="H36">
-        <v>0.03744686776956721</v>
+        <v>0.07181286755586094</v>
       </c>
       <c r="I36">
-        <v>0.0264579835233477</v>
+        <v>0.03596747015981763</v>
       </c>
       <c r="J36">
-        <v>0.01548225647414354</v>
+        <v>0.02480245520276683</v>
       </c>
       <c r="K36">
-        <v>0.02451473817990898</v>
+        <v>0.01156708205216984</v>
       </c>
       <c r="L36">
-        <v>0.01871065659972332</v>
+        <v>0.01887122057672731</v>
       </c>
       <c r="M36">
-        <v>0.01799164676891251</v>
+        <v>0.01374581039049344</v>
       </c>
       <c r="N36">
-        <v>0.04840876671311948</v>
+        <v>0.07320984937345551</v>
       </c>
       <c r="O36">
-        <v>0.01967123763703993</v>
+        <v>0.01459692582680947</v>
       </c>
       <c r="P36">
-        <v>0.0174231828107972</v>
+        <v>0.01464302198448059</v>
       </c>
       <c r="Q36">
-        <v>0.02177088231236912</v>
+        <v>0.02157624041685147</v>
       </c>
       <c r="R36">
-        <v>0.01795376664265117</v>
+        <v>0.01544686743793354</v>
       </c>
       <c r="S36">
-        <v>0.01837217761979817</v>
+        <v>0.01296502205654445</v>
       </c>
       <c r="T36">
-        <v>0.0185072302375193</v>
+        <v>0.01449668431857599</v>
       </c>
       <c r="U36">
-        <v>0.01813685356605614</v>
+        <v>0.01592077050478326</v>
       </c>
       <c r="V36">
-        <v>0.01474087827004953</v>
+        <v>0.01378094522712922</v>
       </c>
       <c r="W36">
-        <v>0.03696047580990779</v>
+        <v>0.0630282030904921</v>
       </c>
       <c r="X36">
-        <v>0.02028471679265633</v>
+        <v>0.01283403949367701</v>
       </c>
       <c r="Y36">
-        <v>0.02341010771506968</v>
+        <v>0.0233176904687711</v>
       </c>
       <c r="Z36">
-        <v>0.016990621140432</v>
+        <v>0.01293822600357356</v>
       </c>
       <c r="AA36">
-        <v>0.01553814108869993</v>
+        <v>0.01517981133139318</v>
       </c>
       <c r="AB36">
-        <v>0.01986069739985809</v>
+        <v>0.01794287234259665</v>
       </c>
       <c r="AC36">
-        <v>0.02600055554363905</v>
+        <v>0.02526653734585096</v>
       </c>
       <c r="AD36">
-        <v>0.02613253842660406</v>
+        <v>0.01701498635309492</v>
       </c>
       <c r="AE36">
-        <v>0.04455971631471382</v>
+        <v>0.01231534593434165</v>
       </c>
       <c r="AF36">
-        <v>0.02652244565211132</v>
+        <v>0.01674921729172281</v>
       </c>
       <c r="AG36">
-        <v>0.02219642094453434</v>
+        <v>0.01715814911495325</v>
       </c>
       <c r="AH36">
-        <v>0.02875147153691986</v>
+        <v>0.01063607288726917</v>
       </c>
       <c r="AI36">
-        <v>0.03228701197476478</v>
+        <v>0.01845379174319197</v>
       </c>
       <c r="AJ36">
         <v>0</v>
       </c>
       <c r="AK36">
-        <v>0.01704256734578364</v>
+        <v>0.01711350198506631</v>
       </c>
       <c r="AL36">
-        <v>0.0331184140417573</v>
+        <v>0.01723001165520201</v>
       </c>
       <c r="AM36">
-        <v>0.01406576094307593</v>
+        <v>0.01273244304471663</v>
       </c>
       <c r="AN36">
-        <v>0.03561050697829802</v>
+        <v>0.01129521629798199</v>
       </c>
       <c r="AO36">
-        <v>0.0165416673817499</v>
+        <v>0.01340543293816064</v>
       </c>
       <c r="AP36">
-        <v>0.0388834046750003</v>
+        <v>0.01355245894977189</v>
       </c>
       <c r="AQ36">
-        <v>0.01725094254280368</v>
+        <v>0.01375245584476083</v>
       </c>
       <c r="AR36">
-        <v>0.0285115476074097</v>
+        <v>0.008361655404746503</v>
       </c>
       <c r="AS36">
-        <v>0.01623885873324397</v>
+        <v>0.01659814219942114</v>
       </c>
       <c r="AT36">
-        <v>0.04370194118788974</v>
+        <v>0.01628836309395713</v>
       </c>
     </row>
     <row r="37" spans="1:46">
@@ -5572,139 +5572,139 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.04415571280976274</v>
+        <v>0.06021167895237288</v>
       </c>
       <c r="C37">
-        <v>0.04878577377372688</v>
+        <v>0.03627220004082532</v>
       </c>
       <c r="D37">
-        <v>0.01424100460158171</v>
+        <v>0.02951146707026918</v>
       </c>
       <c r="E37">
-        <v>0.01610025682162206</v>
+        <v>0.01968158667214904</v>
       </c>
       <c r="F37">
-        <v>0.0286237227389657</v>
+        <v>0.0951813385243469</v>
       </c>
       <c r="G37">
-        <v>0.02059380342636991</v>
+        <v>0.007818300133782338</v>
       </c>
       <c r="H37">
-        <v>0.03205514411591696</v>
+        <v>0.08104277753095759</v>
       </c>
       <c r="I37">
-        <v>0.02353624640695681</v>
+        <v>0.0413559188872286</v>
       </c>
       <c r="J37">
-        <v>0.01256875234704315</v>
+        <v>0.01854056150293088</v>
       </c>
       <c r="K37">
-        <v>0.02306816441905441</v>
+        <v>0.01015381869347671</v>
       </c>
       <c r="L37">
-        <v>0.01537332708061988</v>
+        <v>0.006185328614443056</v>
       </c>
       <c r="M37">
-        <v>0.01914659937038691</v>
+        <v>0.009251209674783777</v>
       </c>
       <c r="N37">
-        <v>0.04443110524674969</v>
+        <v>0.07371203594621496</v>
       </c>
       <c r="O37">
-        <v>0.02025783054480606</v>
+        <v>0.01060734705777734</v>
       </c>
       <c r="P37">
-        <v>0.01335158808226011</v>
+        <v>0.01171239670828478</v>
       </c>
       <c r="Q37">
-        <v>0.01958557139848049</v>
+        <v>0.01713919741541968</v>
       </c>
       <c r="R37">
-        <v>0.01428260340403425</v>
+        <v>0.01101161027810921</v>
       </c>
       <c r="S37">
-        <v>0.01463290038840996</v>
+        <v>0.01015005221540799</v>
       </c>
       <c r="T37">
-        <v>0.01478181032762917</v>
+        <v>0.01018485486691162</v>
       </c>
       <c r="U37">
-        <v>0.01603093410970087</v>
+        <v>0.01221315465798922</v>
       </c>
       <c r="V37">
-        <v>0.01389580404079509</v>
+        <v>0.0138522045135445</v>
       </c>
       <c r="W37">
-        <v>0.03615778590746139</v>
+        <v>0.06033747985915312</v>
       </c>
       <c r="X37">
-        <v>0.01822953238615956</v>
+        <v>0.01530564726057165</v>
       </c>
       <c r="Y37">
-        <v>0.01701414733557467</v>
+        <v>0.01966224457770085</v>
       </c>
       <c r="Z37">
-        <v>0.01370973231823954</v>
+        <v>0.01088143576198344</v>
       </c>
       <c r="AA37">
-        <v>0.01559824864717885</v>
+        <v>0.01609222946087978</v>
       </c>
       <c r="AB37">
-        <v>0.01743274498599072</v>
+        <v>0.01255532084936139</v>
       </c>
       <c r="AC37">
-        <v>0.02560286081957661</v>
+        <v>0.02873820201598727</v>
       </c>
       <c r="AD37">
-        <v>0.02284294844811543</v>
+        <v>0.0138198009299272</v>
       </c>
       <c r="AE37">
-        <v>0.0410953667268457</v>
+        <v>0.008887751772732424</v>
       </c>
       <c r="AF37">
-        <v>0.0180263221975722</v>
+        <v>0.0147430190546263</v>
       </c>
       <c r="AG37">
-        <v>0.02492132393467254</v>
+        <v>0.006810292803648695</v>
       </c>
       <c r="AH37">
-        <v>0.03443933064237376</v>
+        <v>0.01389981223403267</v>
       </c>
       <c r="AI37">
-        <v>0.03317294769827366</v>
+        <v>0.01732084469193539</v>
       </c>
       <c r="AJ37">
-        <v>0.01704256734578364</v>
+        <v>0.01711350198506631</v>
       </c>
       <c r="AK37">
         <v>0</v>
       </c>
       <c r="AL37">
-        <v>0.03568165008233576</v>
+        <v>0.01229965626334502</v>
       </c>
       <c r="AM37">
-        <v>0.01439870970465083</v>
+        <v>0.009193005139070256</v>
       </c>
       <c r="AN37">
-        <v>0.03221883991485273</v>
+        <v>0.01010206846976996</v>
       </c>
       <c r="AO37">
-        <v>0.01833088465182028</v>
+        <v>0.01077917517151523</v>
       </c>
       <c r="AP37">
-        <v>0.03569156461537754</v>
+        <v>0.009232749260698088</v>
       </c>
       <c r="AQ37">
-        <v>0.01779783234267223</v>
+        <v>0.01185395505141258</v>
       </c>
       <c r="AR37">
-        <v>0.02753579914926957</v>
+        <v>0.01625111773135727</v>
       </c>
       <c r="AS37">
-        <v>0.01952373971736249</v>
+        <v>0.01477482283190137</v>
       </c>
       <c r="AT37">
-        <v>0.03706337017992199</v>
+        <v>0.01009917248685544</v>
       </c>
     </row>
     <row r="38" spans="1:46">
@@ -5712,139 +5712,139 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.07253029681465017</v>
+        <v>0.05470668047432939</v>
       </c>
       <c r="C38">
-        <v>0.0743917450046586</v>
+        <v>0.03372511624504141</v>
       </c>
       <c r="D38">
-        <v>0.04105324371474046</v>
+        <v>0.0236077505678605</v>
       </c>
       <c r="E38">
-        <v>0.04135029019169502</v>
+        <v>0.01351888733031131</v>
       </c>
       <c r="F38">
-        <v>0.05682914440352568</v>
+        <v>0.09987419115021715</v>
       </c>
       <c r="G38">
-        <v>0.04677454765074987</v>
+        <v>0.007538467795619391</v>
       </c>
       <c r="H38">
-        <v>0.06133277592554256</v>
+        <v>0.08080997462219243</v>
       </c>
       <c r="I38">
-        <v>0.05384989722717466</v>
+        <v>0.0379132378169283</v>
       </c>
       <c r="J38">
-        <v>0.03898858060600018</v>
+        <v>0.01956873477597153</v>
       </c>
       <c r="K38">
-        <v>0.04917104836594471</v>
+        <v>0.01030939897157912</v>
       </c>
       <c r="L38">
-        <v>0.04312346910007028</v>
+        <v>0.007588225835542859</v>
       </c>
       <c r="M38">
-        <v>0.0431058480720122</v>
+        <v>0.008178662314240578</v>
       </c>
       <c r="N38">
-        <v>0.07188548449857679</v>
+        <v>0.07368049348116872</v>
       </c>
       <c r="O38">
-        <v>0.03828875660942747</v>
+        <v>0.008597726035903024</v>
       </c>
       <c r="P38">
-        <v>0.04030586584356976</v>
+        <v>0.005469287282360543</v>
       </c>
       <c r="Q38">
-        <v>0.04571106597977669</v>
+        <v>0.009528125397219877</v>
       </c>
       <c r="R38">
-        <v>0.04176682368123934</v>
+        <v>0.002775837084152558</v>
       </c>
       <c r="S38">
-        <v>0.04114880433081953</v>
+        <v>0.004825469896570522</v>
       </c>
       <c r="T38">
-        <v>0.04225216152942554</v>
+        <v>0.01114956965280547</v>
       </c>
       <c r="U38">
-        <v>0.04002447248659929</v>
+        <v>0.005406747956835597</v>
       </c>
       <c r="V38">
-        <v>0.03820040931325405</v>
+        <v>0.008741240561789244</v>
       </c>
       <c r="W38">
-        <v>0.06214284395949299</v>
+        <v>0.06044729503492938</v>
       </c>
       <c r="X38">
-        <v>0.04419960469512511</v>
+        <v>0.01005307900427829</v>
       </c>
       <c r="Y38">
-        <v>0.04715366588597542</v>
+        <v>0.01894520301035306</v>
       </c>
       <c r="Z38">
-        <v>0.04027336169748393</v>
+        <v>0.005403063199190861</v>
       </c>
       <c r="AA38">
-        <v>0.03910481630421037</v>
+        <v>0.0122147102431034</v>
       </c>
       <c r="AB38">
-        <v>0.04362153192563661</v>
+        <v>0.009952745151272891</v>
       </c>
       <c r="AC38">
-        <v>0.04556736592720624</v>
+        <v>0.02430676534228989</v>
       </c>
       <c r="AD38">
-        <v>0.05148808545955663</v>
+        <v>0.008130039800929818</v>
       </c>
       <c r="AE38">
-        <v>0.0697704327549015</v>
+        <v>0.007934439291308472</v>
       </c>
       <c r="AF38">
-        <v>0.04851010447671105</v>
+        <v>0.008311203897823864</v>
       </c>
       <c r="AG38">
-        <v>0.04394786674271394</v>
+        <v>0.007781161191545859</v>
       </c>
       <c r="AH38">
-        <v>0.0301795121587182</v>
+        <v>0.008641160777917434</v>
       </c>
       <c r="AI38">
-        <v>0.05777446791715977</v>
+        <v>0.009909405994825437</v>
       </c>
       <c r="AJ38">
-        <v>0.0331184140417573</v>
+        <v>0.01723001165520201</v>
       </c>
       <c r="AK38">
-        <v>0.03568165008233576</v>
+        <v>0.01229965626334502</v>
       </c>
       <c r="AL38">
         <v>0</v>
       </c>
       <c r="AM38">
-        <v>0.03533796432981171</v>
+        <v>0.007665884507904858</v>
       </c>
       <c r="AN38">
-        <v>0.05896566035978463</v>
+        <v>0.007063920106675275</v>
       </c>
       <c r="AO38">
-        <v>0.04211848265333826</v>
+        <v>0.006207447770775913</v>
       </c>
       <c r="AP38">
-        <v>0.06043684798674051</v>
+        <v>0.008176152149653337</v>
       </c>
       <c r="AQ38">
-        <v>0.04420137623681789</v>
+        <v>0.004438393505237728</v>
       </c>
       <c r="AR38">
-        <v>0.05153677029980305</v>
+        <v>0.01045048174014725</v>
       </c>
       <c r="AS38">
-        <v>0.03799777557507319</v>
+        <v>0.008924135377415982</v>
       </c>
       <c r="AT38">
-        <v>0.0674277055695354</v>
+        <v>0.007508274417208013</v>
       </c>
     </row>
     <row r="39" spans="1:46">
@@ -5852,139 +5852,139 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.04701102133355023</v>
+        <v>0.05476629800472401</v>
       </c>
       <c r="C39">
-        <v>0.04831836833451291</v>
+        <v>0.03142342445555193</v>
       </c>
       <c r="D39">
-        <v>0.01743926922101431</v>
+        <v>0.02552048229312353</v>
       </c>
       <c r="E39">
-        <v>0.01830603446527992</v>
+        <v>0.0140122669375429</v>
       </c>
       <c r="F39">
-        <v>0.03227796212379971</v>
+        <v>0.0994908249090445</v>
       </c>
       <c r="G39">
-        <v>0.02364087420201977</v>
+        <v>0.005976997489553348</v>
       </c>
       <c r="H39">
-        <v>0.03281778309799551</v>
+        <v>0.08113506104705827</v>
       </c>
       <c r="I39">
-        <v>0.02881166898838051</v>
+        <v>0.03836821517230113</v>
       </c>
       <c r="J39">
-        <v>0.01713456243703583</v>
+        <v>0.01752660851285315</v>
       </c>
       <c r="K39">
-        <v>0.0247499571783576</v>
+        <v>0.01046656124098892</v>
       </c>
       <c r="L39">
-        <v>0.02067645285784214</v>
+        <v>0.007522006156927345</v>
       </c>
       <c r="M39">
-        <v>0.01829434038405087</v>
+        <v>0.003930521852130366</v>
       </c>
       <c r="N39">
-        <v>0.04815056846617622</v>
+        <v>0.07243416648423623</v>
       </c>
       <c r="O39">
-        <v>0.02294624862552824</v>
+        <v>0.003159429102249406</v>
       </c>
       <c r="P39">
-        <v>0.01505049151380502</v>
+        <v>0.006846523052543353</v>
       </c>
       <c r="Q39">
-        <v>0.02497387298825491</v>
+        <v>0.012749802695255</v>
       </c>
       <c r="R39">
-        <v>0.01724021205732132</v>
+        <v>0.006585461205995629</v>
       </c>
       <c r="S39">
-        <v>0.01871539807173981</v>
+        <v>0.005237591884619103</v>
       </c>
       <c r="T39">
-        <v>0.01958705019816473</v>
+        <v>0.008197438985665684</v>
       </c>
       <c r="U39">
-        <v>0.01786800398134496</v>
+        <v>0.0083800652166654</v>
       </c>
       <c r="V39">
-        <v>0.01940820945881927</v>
+        <v>0.006303157177454637</v>
       </c>
       <c r="W39">
-        <v>0.03969669112560754</v>
+        <v>0.05862350678142945</v>
       </c>
       <c r="X39">
-        <v>0.01900633158836322</v>
+        <v>0.007675879624317451</v>
       </c>
       <c r="Y39">
-        <v>0.0228062142046648</v>
+        <v>0.01733274779085803</v>
       </c>
       <c r="Z39">
-        <v>0.01903663450111871</v>
+        <v>0.005334786436766362</v>
       </c>
       <c r="AA39">
-        <v>0.0166317295841908</v>
+        <v>0.009018762457219335</v>
       </c>
       <c r="AB39">
-        <v>0.02166884637831067</v>
+        <v>0.01064332925219836</v>
       </c>
       <c r="AC39">
-        <v>0.02784649217098413</v>
+        <v>0.02426276424895262</v>
       </c>
       <c r="AD39">
-        <v>0.02452251161061774</v>
+        <v>0.009378013736023998</v>
       </c>
       <c r="AE39">
-        <v>0.04565676173537628</v>
+        <v>0.007482584421609684</v>
       </c>
       <c r="AF39">
-        <v>0.02288854414889359</v>
+        <v>0.009431623938351074</v>
       </c>
       <c r="AG39">
-        <v>0.02202210945041621</v>
+        <v>0.008208373087796865</v>
       </c>
       <c r="AH39">
-        <v>0.02743813214687118</v>
+        <v>0.009799521588178452</v>
       </c>
       <c r="AI39">
-        <v>0.0317141327002825</v>
+        <v>0.01342413050581863</v>
       </c>
       <c r="AJ39">
-        <v>0.01406576094307593</v>
+        <v>0.01273244304471663</v>
       </c>
       <c r="AK39">
-        <v>0.01439870970465083</v>
+        <v>0.009193005139070256</v>
       </c>
       <c r="AL39">
-        <v>0.03533796432981171</v>
+        <v>0.007665884507904858</v>
       </c>
       <c r="AM39">
         <v>0</v>
       </c>
       <c r="AN39">
-        <v>0.03488622959427046</v>
+        <v>0.007640998074357344</v>
       </c>
       <c r="AO39">
-        <v>0.02176629176152738</v>
+        <v>0.00625380339835937</v>
       </c>
       <c r="AP39">
-        <v>0.03483553599749779</v>
+        <v>0.007470290263737982</v>
       </c>
       <c r="AQ39">
-        <v>0.02293359249032354</v>
+        <v>0.006384989331652985</v>
       </c>
       <c r="AR39">
-        <v>0.02415001559206053</v>
+        <v>0.01188203185229039</v>
       </c>
       <c r="AS39">
-        <v>0.01738547447484208</v>
+        <v>0.01113162941800382</v>
       </c>
       <c r="AT39">
-        <v>0.0406126324698471</v>
+        <v>0.006047963986997424</v>
       </c>
     </row>
     <row r="40" spans="1:46">
@@ -5992,139 +5992,139 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.05766850098240518</v>
+        <v>0.05410109917150822</v>
       </c>
       <c r="C40">
-        <v>0.06265995317153056</v>
+        <v>0.03363735205374183</v>
       </c>
       <c r="D40">
-        <v>0.03037067736203134</v>
+        <v>0.0249592525537201</v>
       </c>
       <c r="E40">
-        <v>0.03495918035851417</v>
+        <v>0.01414371758999445</v>
       </c>
       <c r="F40">
-        <v>0.04717198340952484</v>
+        <v>0.09693189091223745</v>
       </c>
       <c r="G40">
-        <v>0.02724868266233412</v>
+        <v>0.01038439492446691</v>
       </c>
       <c r="H40">
-        <v>0.04909391616346482</v>
+        <v>0.07960130647418449</v>
       </c>
       <c r="I40">
-        <v>0.04141233984437738</v>
+        <v>0.03631885481348181</v>
       </c>
       <c r="J40">
-        <v>0.03032307678356585</v>
+        <v>0.01812823119501269</v>
       </c>
       <c r="K40">
-        <v>0.03901548049801247</v>
+        <v>0.006588882335492301</v>
       </c>
       <c r="L40">
-        <v>0.03207166258085152</v>
+        <v>0.009788779023693331</v>
       </c>
       <c r="M40">
-        <v>0.02801289362846712</v>
+        <v>0.007324435482410302</v>
       </c>
       <c r="N40">
-        <v>0.06410046907228213</v>
+        <v>0.07544704685864483</v>
       </c>
       <c r="O40">
-        <v>0.03505525402414931</v>
+        <v>0.009745845530776155</v>
       </c>
       <c r="P40">
-        <v>0.02858430929336261</v>
+        <v>0.005762292005372247</v>
       </c>
       <c r="Q40">
-        <v>0.03182990047033168</v>
+        <v>0.01181947981675563</v>
       </c>
       <c r="R40">
-        <v>0.02834150845616729</v>
+        <v>0.005155148699161722</v>
       </c>
       <c r="S40">
-        <v>0.02889525150033272</v>
+        <v>0.003256695015639538</v>
       </c>
       <c r="T40">
-        <v>0.03023141390353301</v>
+        <v>0.006816672118471363</v>
       </c>
       <c r="U40">
-        <v>0.03105931233679849</v>
+        <v>0.007047300012024426</v>
       </c>
       <c r="V40">
-        <v>0.03026873284058982</v>
+        <v>0.008014964064644452</v>
       </c>
       <c r="W40">
-        <v>0.05281089788473493</v>
+        <v>0.06139191526055104</v>
       </c>
       <c r="X40">
-        <v>0.02993519226378068</v>
+        <v>0.008563549268837232</v>
       </c>
       <c r="Y40">
-        <v>0.03043988010132949</v>
+        <v>0.01787374564850243</v>
       </c>
       <c r="Z40">
-        <v>0.03042379731703035</v>
+        <v>0.004605739177232916</v>
       </c>
       <c r="AA40">
-        <v>0.02780758349342536</v>
+        <v>0.01122784755396043</v>
       </c>
       <c r="AB40">
-        <v>0.02919913835864418</v>
+        <v>0.01088352409562861</v>
       </c>
       <c r="AC40">
-        <v>0.03177619926149487</v>
+        <v>0.02157665413952094</v>
       </c>
       <c r="AD40">
-        <v>0.03290785715344874</v>
+        <v>0.007079020650925333</v>
       </c>
       <c r="AE40">
-        <v>0.05732974069210723</v>
+        <v>0.004528778540871261</v>
       </c>
       <c r="AF40">
-        <v>0.03616265439459438</v>
+        <v>0.009317253448222625</v>
       </c>
       <c r="AG40">
-        <v>0.04638453894372507</v>
+        <v>0.007527415017973495</v>
       </c>
       <c r="AH40">
-        <v>0.05272083405289651</v>
+        <v>0.009799498305348696</v>
       </c>
       <c r="AI40">
-        <v>0.04865698021584893</v>
+        <v>0.01190866584853739</v>
       </c>
       <c r="AJ40">
-        <v>0.03561050697829802</v>
+        <v>0.01129521629798199</v>
       </c>
       <c r="AK40">
-        <v>0.03221883991485273</v>
+        <v>0.01010206846976996</v>
       </c>
       <c r="AL40">
-        <v>0.05896566035978463</v>
+        <v>0.007063920106675275</v>
       </c>
       <c r="AM40">
-        <v>0.03488622959427046</v>
+        <v>0.007640998074357344</v>
       </c>
       <c r="AN40">
         <v>0</v>
       </c>
       <c r="AO40">
-        <v>0.03127659359432016</v>
+        <v>0.007464563110514579</v>
       </c>
       <c r="AP40">
-        <v>0.05292474233484653</v>
+        <v>0.008056994964538195</v>
       </c>
       <c r="AQ40">
-        <v>0.02888688090237881</v>
+        <v>0.006191017106409627</v>
       </c>
       <c r="AR40">
-        <v>0.04844547355999796</v>
+        <v>0.008231218962258646</v>
       </c>
       <c r="AS40">
-        <v>0.04397458569466475</v>
+        <v>0.008913103664997311</v>
       </c>
       <c r="AT40">
-        <v>0.05338194003126281</v>
+        <v>0.007344529136891753</v>
       </c>
     </row>
     <row r="41" spans="1:46">
@@ -6132,139 +6132,139 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.04537022395982024</v>
+        <v>0.05482592268342372</v>
       </c>
       <c r="C41">
-        <v>0.04884090537692374</v>
+        <v>0.03344015209303641</v>
       </c>
       <c r="D41">
-        <v>0.01654674742472467</v>
+        <v>0.02466210108501149</v>
       </c>
       <c r="E41">
-        <v>0.01871649101298503</v>
+        <v>0.01218406248661467</v>
       </c>
       <c r="F41">
-        <v>0.03736211254927323</v>
+        <v>0.09692092647084172</v>
       </c>
       <c r="G41">
-        <v>0.01736300084373063</v>
+        <v>0.006392929687269061</v>
       </c>
       <c r="H41">
-        <v>0.03770045574087377</v>
+        <v>0.08016031810635613</v>
       </c>
       <c r="I41">
-        <v>0.02597160979723891</v>
+        <v>0.03809540296217935</v>
       </c>
       <c r="J41">
-        <v>0.01396616907208427</v>
+        <v>0.01669080109826129</v>
       </c>
       <c r="K41">
-        <v>0.02406453209586775</v>
+        <v>0.009092516871161341</v>
       </c>
       <c r="L41">
-        <v>0.01334221175179959</v>
+        <v>0.007633070207640042</v>
       </c>
       <c r="M41">
-        <v>0.01733112325269645</v>
+        <v>0.005443538710463423</v>
       </c>
       <c r="N41">
-        <v>0.04821330445803963</v>
+        <v>0.07302093475774721</v>
       </c>
       <c r="O41">
-        <v>0.01879111101714871</v>
+        <v>0.007732464447573066</v>
       </c>
       <c r="P41">
-        <v>0.01412661014012835</v>
+        <v>0.005123328194246447</v>
       </c>
       <c r="Q41">
-        <v>0.0192080791095733</v>
+        <v>0.01074378626533621</v>
       </c>
       <c r="R41">
-        <v>0.01276764835148809</v>
+        <v>0.006590326685436816</v>
       </c>
       <c r="S41">
-        <v>0.0127144508021394</v>
+        <v>0.006024547362128258</v>
       </c>
       <c r="T41">
-        <v>0.01309677249114314</v>
+        <v>0.009033630613198737</v>
       </c>
       <c r="U41">
-        <v>0.01498385465608928</v>
+        <v>0.005166735266475013</v>
       </c>
       <c r="V41">
-        <v>0.01470529797903383</v>
+        <v>0.007109419424257943</v>
       </c>
       <c r="W41">
-        <v>0.03659950283954468</v>
+        <v>0.06095389431174369</v>
       </c>
       <c r="X41">
-        <v>0.01626587546731626</v>
+        <v>0.008443725356720239</v>
       </c>
       <c r="Y41">
-        <v>0.0184819038037841</v>
+        <v>0.01633968064899318</v>
       </c>
       <c r="Z41">
-        <v>0.01250944934907953</v>
+        <v>0.005236888818585039</v>
       </c>
       <c r="AA41">
-        <v>0.01377150368690952</v>
+        <v>0.009788993669273417</v>
       </c>
       <c r="AB41">
-        <v>0.01339956019502057</v>
+        <v>0.008374511312794283</v>
       </c>
       <c r="AC41">
-        <v>0.02369266392433125</v>
+        <v>0.02289526436185812</v>
       </c>
       <c r="AD41">
-        <v>0.02428233592914561</v>
+        <v>0.009409598668095225</v>
       </c>
       <c r="AE41">
-        <v>0.04141534885764622</v>
+        <v>0.007376697534282777</v>
       </c>
       <c r="AF41">
-        <v>0.02137437643662869</v>
+        <v>0.005885574282808668</v>
       </c>
       <c r="AG41">
-        <v>0.03085410848712676</v>
+        <v>0.008284179065607475</v>
       </c>
       <c r="AH41">
-        <v>0.03595903248995855</v>
+        <v>0.008790569205880904</v>
       </c>
       <c r="AI41">
-        <v>0.03900134454490586</v>
+        <v>0.01178373496428723</v>
       </c>
       <c r="AJ41">
-        <v>0.0165416673817499</v>
+        <v>0.01340543293816064</v>
       </c>
       <c r="AK41">
-        <v>0.01833088465182028</v>
+        <v>0.01077917517151523</v>
       </c>
       <c r="AL41">
-        <v>0.04211848265333826</v>
+        <v>0.006207447770775913</v>
       </c>
       <c r="AM41">
-        <v>0.02176629176152738</v>
+        <v>0.00625380339835937</v>
       </c>
       <c r="AN41">
-        <v>0.03127659359432016</v>
+        <v>0.007464563110514579</v>
       </c>
       <c r="AO41">
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.04370004226224208</v>
+        <v>0.006172055040028015</v>
       </c>
       <c r="AQ41">
-        <v>0.01475430607295508</v>
+        <v>0.004955291435204639</v>
       </c>
       <c r="AR41">
-        <v>0.0373705357069832</v>
+        <v>0.01085441036000327</v>
       </c>
       <c r="AS41">
-        <v>0.02408276779353071</v>
+        <v>0.006445859143962037</v>
       </c>
       <c r="AT41">
-        <v>0.04105869670468718</v>
+        <v>0.008590242853671659</v>
       </c>
     </row>
     <row r="42" spans="1:46">
@@ -6272,139 +6272,139 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.04483911431918399</v>
+        <v>0.05491994741922891</v>
       </c>
       <c r="C42">
-        <v>0.06283986019672173</v>
+        <v>0.03429756887760205</v>
       </c>
       <c r="D42">
-        <v>0.03993951649511814</v>
+        <v>0.02575445822600146</v>
       </c>
       <c r="E42">
-        <v>0.04077242002137889</v>
+        <v>0.01392542074244604</v>
       </c>
       <c r="F42">
-        <v>0.02936024409863737</v>
+        <v>0.09416484255014586</v>
       </c>
       <c r="G42">
-        <v>0.04018374526120401</v>
+        <v>0.007690457058978596</v>
       </c>
       <c r="H42">
-        <v>0.03394036527280672</v>
+        <v>0.08127239290850304</v>
       </c>
       <c r="I42">
-        <v>0.04377466699915351</v>
+        <v>0.03959076644199574</v>
       </c>
       <c r="J42">
-        <v>0.04338100394899683</v>
+        <v>0.01831751891961267</v>
       </c>
       <c r="K42">
-        <v>0.04453234110002164</v>
+        <v>0.009241627523581453</v>
       </c>
       <c r="L42">
-        <v>0.04057831322869584</v>
+        <v>0.008052774694331308</v>
       </c>
       <c r="M42">
-        <v>0.04434327205014086</v>
+        <v>0.005081472793857717</v>
       </c>
       <c r="N42">
-        <v>0.0423494373749407</v>
+        <v>0.07208607977729929</v>
       </c>
       <c r="O42">
-        <v>0.04211611136497478</v>
+        <v>0.007943248186731052</v>
       </c>
       <c r="P42">
-        <v>0.03830616495277371</v>
+        <v>0.007390401801727273</v>
       </c>
       <c r="Q42">
-        <v>0.04128200155358443</v>
+        <v>0.01363582191578954</v>
       </c>
       <c r="R42">
-        <v>0.04105412612851578</v>
+        <v>0.00744188014812507</v>
       </c>
       <c r="S42">
-        <v>0.04010036990626909</v>
+        <v>0.005945166426233657</v>
       </c>
       <c r="T42">
-        <v>0.04269505530991401</v>
+        <v>0.009671861460217845</v>
       </c>
       <c r="U42">
-        <v>0.03719215528543234</v>
+        <v>0.008230304936049201</v>
       </c>
       <c r="V42">
-        <v>0.03781036185278947</v>
+        <v>0.008831312789146803</v>
       </c>
       <c r="W42">
-        <v>0.04100848919114981</v>
+        <v>0.05862954069830302</v>
       </c>
       <c r="X42">
-        <v>0.04244449066017985</v>
+        <v>0.007706286332055149</v>
       </c>
       <c r="Y42">
-        <v>0.0409149930192745</v>
+        <v>0.01540855070282453</v>
       </c>
       <c r="Z42">
-        <v>0.04148303476404577</v>
+        <v>0.005031727118984206</v>
       </c>
       <c r="AA42">
-        <v>0.0385959672445973</v>
+        <v>0.009731874621759144</v>
       </c>
       <c r="AB42">
-        <v>0.04239614788831791</v>
+        <v>0.006821498785244414</v>
       </c>
       <c r="AC42">
-        <v>0.0437024930174534</v>
+        <v>0.02643344066309585</v>
       </c>
       <c r="AD42">
-        <v>0.03903079138094481</v>
+        <v>0.009154728781349653</v>
       </c>
       <c r="AE42">
-        <v>0.05493469578298874</v>
+        <v>0.006786025693250963</v>
       </c>
       <c r="AF42">
-        <v>0.03937939751187494</v>
+        <v>0.009872950407565787</v>
       </c>
       <c r="AG42">
-        <v>0.03258662620976717</v>
+        <v>0.005673315159168217</v>
       </c>
       <c r="AH42">
-        <v>0.04645048222936723</v>
+        <v>0.008220384526328157</v>
       </c>
       <c r="AI42">
-        <v>0.03895795334695511</v>
+        <v>0.01385145203904308</v>
       </c>
       <c r="AJ42">
-        <v>0.0388834046750003</v>
+        <v>0.01355245894977189</v>
       </c>
       <c r="AK42">
-        <v>0.03569156461537754</v>
+        <v>0.009232749260698088</v>
       </c>
       <c r="AL42">
-        <v>0.06043684798674051</v>
+        <v>0.008176152149653337</v>
       </c>
       <c r="AM42">
-        <v>0.03483553599749779</v>
+        <v>0.007470290263737982</v>
       </c>
       <c r="AN42">
-        <v>0.05292474233484653</v>
+        <v>0.008056994964538195</v>
       </c>
       <c r="AO42">
-        <v>0.04370004226224208</v>
+        <v>0.006172055040028015</v>
       </c>
       <c r="AP42">
         <v>0</v>
       </c>
       <c r="AQ42">
-        <v>0.04542395825925626</v>
+        <v>0.005966113165172961</v>
       </c>
       <c r="AR42">
-        <v>0.04131602356496686</v>
+        <v>0.0112881905333666</v>
       </c>
       <c r="AS42">
-        <v>0.04215649083802734</v>
+        <v>0.009204778223794941</v>
       </c>
       <c r="AT42">
-        <v>0.03610421556192388</v>
+        <v>0.007148021928779382</v>
       </c>
     </row>
     <row r="43" spans="1:46">
@@ -6412,139 +6412,139 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.04330072674943423</v>
+        <v>0.05388861444789801</v>
       </c>
       <c r="C43">
-        <v>0.04809194998996065</v>
+        <v>0.03242816678021889</v>
       </c>
       <c r="D43">
-        <v>0.01213254117404474</v>
+        <v>0.02494033220719489</v>
       </c>
       <c r="E43">
-        <v>0.01645011166607361</v>
+        <v>0.0145511673320921</v>
       </c>
       <c r="F43">
-        <v>0.03911199497857117</v>
+        <v>0.0983854178278073</v>
       </c>
       <c r="G43">
-        <v>0.01446955236104437</v>
+        <v>0.007338022224129391</v>
       </c>
       <c r="H43">
-        <v>0.03805009842976464</v>
+        <v>0.07890526126622807</v>
       </c>
       <c r="I43">
-        <v>0.0233963632523521</v>
+        <v>0.03675256376280353</v>
       </c>
       <c r="J43">
-        <v>0.01104339415820724</v>
+        <v>0.01873895808522578</v>
       </c>
       <c r="K43">
-        <v>0.02338508074365938</v>
+        <v>0.007392410950647219</v>
       </c>
       <c r="L43">
-        <v>0.01337704232502946</v>
+        <v>0.008877716709483586</v>
       </c>
       <c r="M43">
-        <v>0.01625797310463391</v>
+        <v>0.00595785474085326</v>
       </c>
       <c r="N43">
-        <v>0.04924989699285121</v>
+        <v>0.07220098815896099</v>
       </c>
       <c r="O43">
-        <v>0.0185631258290101</v>
+        <v>0.00704249004587087</v>
       </c>
       <c r="P43">
-        <v>0.01365509984013137</v>
+        <v>0.007350072285486572</v>
       </c>
       <c r="Q43">
-        <v>0.01768622137637725</v>
+        <v>0.0116109924789877</v>
       </c>
       <c r="R43">
-        <v>0.01112687243648185</v>
+        <v>0.003905801330004954</v>
       </c>
       <c r="S43">
-        <v>0.01351352130450522</v>
+        <v>0.005240288890375251</v>
       </c>
       <c r="T43">
-        <v>0.009223452313272235</v>
+        <v>0.009036054961448412</v>
       </c>
       <c r="U43">
-        <v>0.01486602249220907</v>
+        <v>0.008145645248195204</v>
       </c>
       <c r="V43">
-        <v>0.01313051598738337</v>
+        <v>0.005553141035678251</v>
       </c>
       <c r="W43">
-        <v>0.03639915792895221</v>
+        <v>0.05851008342775611</v>
       </c>
       <c r="X43">
-        <v>0.01379503919772936</v>
+        <v>0.007489237421549662</v>
       </c>
       <c r="Y43">
-        <v>0.01777447177503771</v>
+        <v>0.01658828660441808</v>
       </c>
       <c r="Z43">
-        <v>0.01301481543641012</v>
+        <v>0.004325186116189345</v>
       </c>
       <c r="AA43">
-        <v>0.0128186150439269</v>
+        <v>0.01062492155362166</v>
       </c>
       <c r="AB43">
-        <v>0.0117158925382056</v>
+        <v>0.01014406351485149</v>
       </c>
       <c r="AC43">
-        <v>0.01892100771655863</v>
+        <v>0.02362991691238918</v>
       </c>
       <c r="AD43">
-        <v>0.02224168874819501</v>
+        <v>0.00830692169792463</v>
       </c>
       <c r="AE43">
-        <v>0.04346633566744515</v>
+        <v>0.007082094997868632</v>
       </c>
       <c r="AF43">
-        <v>0.02048771760292266</v>
+        <v>0.008126998535485971</v>
       </c>
       <c r="AG43">
-        <v>0.03519799283175051</v>
+        <v>0.00694342840499021</v>
       </c>
       <c r="AH43">
-        <v>0.03713613734848762</v>
+        <v>0.009027614569409053</v>
       </c>
       <c r="AI43">
-        <v>0.03585348549342634</v>
+        <v>0.00867456227830804</v>
       </c>
       <c r="AJ43">
-        <v>0.01725094254280368</v>
+        <v>0.01375245584476083</v>
       </c>
       <c r="AK43">
-        <v>0.01779783234267223</v>
+        <v>0.01185395505141258</v>
       </c>
       <c r="AL43">
-        <v>0.04420137623681789</v>
+        <v>0.004438393505237728</v>
       </c>
       <c r="AM43">
-        <v>0.02293359249032354</v>
+        <v>0.006384989331652985</v>
       </c>
       <c r="AN43">
-        <v>0.02888688090237881</v>
+        <v>0.006191017106409627</v>
       </c>
       <c r="AO43">
-        <v>0.01475430607295508</v>
+        <v>0.004955291435204639</v>
       </c>
       <c r="AP43">
-        <v>0.04542395825925626</v>
+        <v>0.005966113165172961</v>
       </c>
       <c r="AQ43">
         <v>0</v>
       </c>
       <c r="AR43">
-        <v>0.03240916839181212</v>
+        <v>0.009473080749698002</v>
       </c>
       <c r="AS43">
-        <v>0.02763371126547797</v>
+        <v>0.009926755286699541</v>
       </c>
       <c r="AT43">
-        <v>0.04089601172399394</v>
+        <v>0.006591890606117055</v>
       </c>
     </row>
     <row r="44" spans="1:46">
@@ -6552,139 +6552,139 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.04999071422230483</v>
+        <v>0.05896589289476222</v>
       </c>
       <c r="C44">
-        <v>0.05625611290363412</v>
+        <v>0.03744276060652852</v>
       </c>
       <c r="D44">
-        <v>0.02915880709954991</v>
+        <v>0.02827430265778947</v>
       </c>
       <c r="E44">
-        <v>0.03101496312676039</v>
+        <v>0.01826961187802357</v>
       </c>
       <c r="F44">
-        <v>0.03947211500043202</v>
+        <v>0.09767098341239069</v>
       </c>
       <c r="G44">
-        <v>0.03141821858811241</v>
+        <v>0.01366879316154228</v>
       </c>
       <c r="H44">
-        <v>0.03381378935632511</v>
+        <v>0.07503423715804666</v>
       </c>
       <c r="I44">
-        <v>0.03321522294496122</v>
+        <v>0.03905580420003072</v>
       </c>
       <c r="J44">
-        <v>0.02706104526673116</v>
+        <v>0.02418395757108978</v>
       </c>
       <c r="K44">
-        <v>0.02768717544150677</v>
+        <v>0.01238733739010823</v>
       </c>
       <c r="L44">
-        <v>0.03048354626671991</v>
+        <v>0.01330046336830006</v>
       </c>
       <c r="M44">
-        <v>0.03081117063938497</v>
+        <v>0.0105605746701756</v>
       </c>
       <c r="N44">
-        <v>0.03926182742896674</v>
+        <v>0.07703236452854961</v>
       </c>
       <c r="O44">
-        <v>0.02972534166070374</v>
+        <v>0.01327728383706274</v>
       </c>
       <c r="P44">
-        <v>0.02909323842001368</v>
+        <v>0.00976190192131195</v>
       </c>
       <c r="Q44">
-        <v>0.03289502328524639</v>
+        <v>0.015253758610655</v>
       </c>
       <c r="R44">
-        <v>0.02865229508558546</v>
+        <v>0.009156145428693023</v>
       </c>
       <c r="S44">
-        <v>0.02936766456281282</v>
+        <v>0.007565241419858319</v>
       </c>
       <c r="T44">
-        <v>0.02801279011163063</v>
+        <v>0.01261506858031223</v>
       </c>
       <c r="U44">
-        <v>0.03170358865616375</v>
+        <v>0.01044059641864748</v>
       </c>
       <c r="V44">
-        <v>0.02753669809409344</v>
+        <v>0.01131498053651569</v>
       </c>
       <c r="W44">
-        <v>0.03798131058163905</v>
+        <v>0.06375972435514106</v>
       </c>
       <c r="X44">
-        <v>0.02973039094479587</v>
+        <v>0.01206898955890564</v>
       </c>
       <c r="Y44">
-        <v>0.03212527838596959</v>
+        <v>0.02115071163840109</v>
       </c>
       <c r="Z44">
-        <v>0.03025087873010437</v>
+        <v>0.00784802044046448</v>
       </c>
       <c r="AA44">
-        <v>0.02629385196015475</v>
+        <v>0.01476464678103409</v>
       </c>
       <c r="AB44">
-        <v>0.02815714121730762</v>
+        <v>0.01432672000312472</v>
       </c>
       <c r="AC44">
-        <v>0.03910369099313865</v>
+        <v>0.02828740497404804</v>
       </c>
       <c r="AD44">
-        <v>0.03473611129976145</v>
+        <v>0.01053823179257175</v>
       </c>
       <c r="AE44">
-        <v>0.05338280540259145</v>
+        <v>0.01066885705372863</v>
       </c>
       <c r="AF44">
-        <v>0.03294663343985049</v>
+        <v>0.01267431925945149</v>
       </c>
       <c r="AG44">
-        <v>0.02743421784597325</v>
+        <v>0.01170187737810252</v>
       </c>
       <c r="AH44">
-        <v>0.04313674994686052</v>
+        <v>0.006284989234861945</v>
       </c>
       <c r="AI44">
-        <v>0.03047923287165512</v>
+        <v>0.01563305614281716</v>
       </c>
       <c r="AJ44">
-        <v>0.0285115476074097</v>
+        <v>0.008361655404746503</v>
       </c>
       <c r="AK44">
-        <v>0.02753579914926957</v>
+        <v>0.01625111773135727</v>
       </c>
       <c r="AL44">
-        <v>0.05153677029980305</v>
+        <v>0.01045048174014725</v>
       </c>
       <c r="AM44">
-        <v>0.02415001559206053</v>
+        <v>0.01188203185229039</v>
       </c>
       <c r="AN44">
-        <v>0.04844547355999796</v>
+        <v>0.008231218962258646</v>
       </c>
       <c r="AO44">
-        <v>0.0373705357069832</v>
+        <v>0.01085441036000327</v>
       </c>
       <c r="AP44">
-        <v>0.04131602356496686</v>
+        <v>0.0112881905333666</v>
       </c>
       <c r="AQ44">
-        <v>0.03240916839181212</v>
+        <v>0.009473080749698002</v>
       </c>
       <c r="AR44">
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>0.02521596973116021</v>
+        <v>0.01202214058775145</v>
       </c>
       <c r="AT44">
-        <v>0.04858574331231875</v>
+        <v>0.01075226035483725</v>
       </c>
     </row>
     <row r="45" spans="1:46">
@@ -6692,139 +6692,139 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.05479624045746774</v>
+        <v>0.05017262272277502</v>
       </c>
       <c r="C45">
-        <v>0.05556444044072776</v>
+        <v>0.03010990614422891</v>
       </c>
       <c r="D45">
-        <v>0.02538925961232622</v>
+        <v>0.02703218692806478</v>
       </c>
       <c r="E45">
-        <v>0.02539913085371056</v>
+        <v>0.01093834690382674</v>
       </c>
       <c r="F45">
-        <v>0.03967134902663064</v>
+        <v>0.0986921437904751</v>
       </c>
       <c r="G45">
-        <v>0.0311660043276254</v>
+        <v>0.01027728664643027</v>
       </c>
       <c r="H45">
-        <v>0.04601815243447813</v>
+        <v>0.08129719027729297</v>
       </c>
       <c r="I45">
-        <v>0.03234999659011883</v>
+        <v>0.03917551076235086</v>
       </c>
       <c r="J45">
-        <v>0.02469479461847515</v>
+        <v>0.02145865638962834</v>
       </c>
       <c r="K45">
-        <v>0.02734450458887372</v>
+        <v>0.01303815298110996</v>
       </c>
       <c r="L45">
-        <v>0.02198816735591886</v>
+        <v>0.01136993704206639</v>
       </c>
       <c r="M45">
-        <v>0.02624741649004799</v>
+        <v>0.009040537380958188</v>
       </c>
       <c r="N45">
-        <v>0.04846067714978563</v>
+        <v>0.07147757516292051</v>
       </c>
       <c r="O45">
-        <v>0.02421613133472044</v>
+        <v>0.01041922898131453</v>
       </c>
       <c r="P45">
-        <v>0.02255872070007272</v>
+        <v>0.006677076470157365</v>
       </c>
       <c r="Q45">
-        <v>0.02614486806482633</v>
+        <v>0.009926890962267796</v>
       </c>
       <c r="R45">
-        <v>0.02323531598590304</v>
+        <v>0.009576947737413055</v>
       </c>
       <c r="S45">
-        <v>0.02466325504105255</v>
+        <v>0.007763555463529852</v>
       </c>
       <c r="T45">
-        <v>0.02673244825779783</v>
+        <v>0.01142273490837039</v>
       </c>
       <c r="U45">
-        <v>0.02167443748409382</v>
+        <v>0.007524122250699083</v>
       </c>
       <c r="V45">
-        <v>0.024190669745718</v>
+        <v>0.01168529176276773</v>
       </c>
       <c r="W45">
-        <v>0.04225446285856453</v>
+        <v>0.06168309096128631</v>
       </c>
       <c r="X45">
-        <v>0.02679854924653985</v>
+        <v>0.01061031068031336</v>
       </c>
       <c r="Y45">
-        <v>0.02750316662888003</v>
+        <v>0.01966455174271007</v>
       </c>
       <c r="Z45">
-        <v>0.02615465232751547</v>
+        <v>0.008117813677363899</v>
       </c>
       <c r="AA45">
-        <v>0.02470331144251378</v>
+        <v>0.01061154070447737</v>
       </c>
       <c r="AB45">
-        <v>0.02638468517572253</v>
+        <v>0.01195724319442209</v>
       </c>
       <c r="AC45">
-        <v>0.03451642413614795</v>
+        <v>0.02658741614078328</v>
       </c>
       <c r="AD45">
-        <v>0.03179949872079253</v>
+        <v>0.007405833712662409</v>
       </c>
       <c r="AE45">
-        <v>0.05185456463928798</v>
+        <v>0.007674440542072692</v>
       </c>
       <c r="AF45">
-        <v>0.0299688486818623</v>
+        <v>0.009839592490452534</v>
       </c>
       <c r="AG45">
-        <v>0.02074306663375271</v>
+        <v>0.01216666774750423</v>
       </c>
       <c r="AH45">
-        <v>0.03067001432834762</v>
+        <v>0.01085465831816317</v>
       </c>
       <c r="AI45">
-        <v>0.04070916381509759</v>
+        <v>0.01617718299908954</v>
       </c>
       <c r="AJ45">
-        <v>0.01623885873324397</v>
+        <v>0.01659814219942114</v>
       </c>
       <c r="AK45">
-        <v>0.01952373971736249</v>
+        <v>0.01477482283190137</v>
       </c>
       <c r="AL45">
-        <v>0.03799777557507319</v>
+        <v>0.008924135377415982</v>
       </c>
       <c r="AM45">
-        <v>0.01738547447484208</v>
+        <v>0.01113162941800382</v>
       </c>
       <c r="AN45">
-        <v>0.04397458569466475</v>
+        <v>0.008913103664997311</v>
       </c>
       <c r="AO45">
-        <v>0.02408276779353071</v>
+        <v>0.006445859143962037</v>
       </c>
       <c r="AP45">
-        <v>0.04215649083802734</v>
+        <v>0.009204778223794941</v>
       </c>
       <c r="AQ45">
-        <v>0.02763371126547797</v>
+        <v>0.009926755286699541</v>
       </c>
       <c r="AR45">
-        <v>0.02521596973116021</v>
+        <v>0.01202214058775145</v>
       </c>
       <c r="AS45">
         <v>0</v>
       </c>
       <c r="AT45">
-        <v>0.04779077350207541</v>
+        <v>0.01091829944918276</v>
       </c>
     </row>
     <row r="46" spans="1:46">
@@ -6832,136 +6832,136 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.02382842976265532</v>
+        <v>0.05390435931513667</v>
       </c>
       <c r="C46">
-        <v>0.03923513796421384</v>
+        <v>0.03118473693079285</v>
       </c>
       <c r="D46">
-        <v>0.03716681043238831</v>
+        <v>0.02578067246507064</v>
       </c>
       <c r="E46">
-        <v>0.03686016869221668</v>
+        <v>0.01565652238012753</v>
       </c>
       <c r="F46">
-        <v>0.02947334698701218</v>
+        <v>0.09646173145313874</v>
       </c>
       <c r="G46">
-        <v>0.03572446125504226</v>
+        <v>0.007147137698456291</v>
       </c>
       <c r="H46">
-        <v>0.03303454547222279</v>
+        <v>0.08067603493097321</v>
       </c>
       <c r="I46">
-        <v>0.02898156029973295</v>
+        <v>0.03773266897105181</v>
       </c>
       <c r="J46">
-        <v>0.03749675855834164</v>
+        <v>0.01944424461828469</v>
       </c>
       <c r="K46">
-        <v>0.04131257394969503</v>
+        <v>0.01008138631140481</v>
       </c>
       <c r="L46">
-        <v>0.03255319763064089</v>
+        <v>0.007744005942273519</v>
       </c>
       <c r="M46">
-        <v>0.03594263934160309</v>
+        <v>0.004460818764916974</v>
       </c>
       <c r="N46">
-        <v>0.03568309816751615</v>
+        <v>0.07585352415141475</v>
       </c>
       <c r="O46">
-        <v>0.03936436529973768</v>
+        <v>0.006453558299196242</v>
       </c>
       <c r="P46">
-        <v>0.03348217415678578</v>
+        <v>0.007307793900075764</v>
       </c>
       <c r="Q46">
-        <v>0.03505799548061327</v>
+        <v>0.01272312858444016</v>
       </c>
       <c r="R46">
-        <v>0.03417415571571424</v>
+        <v>0.006879235465254744</v>
       </c>
       <c r="S46">
-        <v>0.03259699918637961</v>
+        <v>0.005113865723794682</v>
       </c>
       <c r="T46">
-        <v>0.03564613398672942</v>
+        <v>0.005203411759186357</v>
       </c>
       <c r="U46">
-        <v>0.03505540571988994</v>
+        <v>0.008358106079230807</v>
       </c>
       <c r="V46">
-        <v>0.03451902671287916</v>
+        <v>0.009076015532146797</v>
       </c>
       <c r="W46">
-        <v>0.05010554430184624</v>
+        <v>0.06157066590852523</v>
       </c>
       <c r="X46">
-        <v>0.0311450093379896</v>
+        <v>0.01018393205837697</v>
       </c>
       <c r="Y46">
-        <v>0.03215042379322124</v>
+        <v>0.01802618823441615</v>
       </c>
       <c r="Z46">
-        <v>0.03395908767784829</v>
+        <v>0.005399384047864546</v>
       </c>
       <c r="AA46">
-        <v>0.03523109726066883</v>
+        <v>0.01213896989830623</v>
       </c>
       <c r="AB46">
-        <v>0.03372370452888655</v>
+        <v>0.01098851396745214</v>
       </c>
       <c r="AC46">
-        <v>0.03432480170265335</v>
+        <v>0.02745858237306014</v>
       </c>
       <c r="AD46">
-        <v>0.03323057477722875</v>
+        <v>0.008315706035245929</v>
       </c>
       <c r="AE46">
-        <v>0.03285846091165673</v>
+        <v>0.007090708049865104</v>
       </c>
       <c r="AF46">
-        <v>0.0328845691708028</v>
+        <v>0.008453926443819041</v>
       </c>
       <c r="AG46">
-        <v>0.04505542483213366</v>
+        <v>0.008348755634440607</v>
       </c>
       <c r="AH46">
-        <v>0.06067238801387734</v>
+        <v>0.01011521507630939</v>
       </c>
       <c r="AI46">
-        <v>0.04430817908550364</v>
+        <v>0.01076716545817212</v>
       </c>
       <c r="AJ46">
-        <v>0.04370194118788974</v>
+        <v>0.01628836309395713</v>
       </c>
       <c r="AK46">
-        <v>0.03706337017992199</v>
+        <v>0.01009917248685544</v>
       </c>
       <c r="AL46">
-        <v>0.0674277055695354</v>
+        <v>0.007508274417208013</v>
       </c>
       <c r="AM46">
-        <v>0.0406126324698471</v>
+        <v>0.006047963986997424</v>
       </c>
       <c r="AN46">
-        <v>0.05338194003126281</v>
+        <v>0.007344529136891753</v>
       </c>
       <c r="AO46">
-        <v>0.04105869670468718</v>
+        <v>0.008590242853671659</v>
       </c>
       <c r="AP46">
-        <v>0.03610421556192388</v>
+        <v>0.007148021928779382</v>
       </c>
       <c r="AQ46">
-        <v>0.04089601172399394</v>
+        <v>0.006591890606117055</v>
       </c>
       <c r="AR46">
-        <v>0.04858574331231875</v>
+        <v>0.01075226035483725</v>
       </c>
       <c r="AS46">
-        <v>0.04779077350207541</v>
+        <v>0.01091829944918276</v>
       </c>
       <c r="AT46">
         <v>0</v>
@@ -6972,139 +6972,139 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.869396722399878</v>
+        <v>2.578897684293974</v>
       </c>
       <c r="C47">
-        <v>2.101436583211579</v>
+        <v>1.708444872938315</v>
       </c>
       <c r="D47">
-        <v>0.953657883344058</v>
+        <v>1.556779662305423</v>
       </c>
       <c r="E47">
-        <v>1.056613541624357</v>
+        <v>1.041048769294076</v>
       </c>
       <c r="F47">
-        <v>1.574804645422793</v>
+        <v>4.375172099206567</v>
       </c>
       <c r="G47">
-        <v>1.009923620039375</v>
+        <v>0.8432498531764877</v>
       </c>
       <c r="H47">
-        <v>1.556348064772552</v>
+        <v>3.619104886553805</v>
       </c>
       <c r="I47">
-        <v>1.212502147610055</v>
+        <v>1.901662814635013</v>
       </c>
       <c r="J47">
-        <v>0.900538597468438</v>
+        <v>1.262825075665173</v>
       </c>
       <c r="K47">
-        <v>1.205387587232472</v>
+        <v>0.87793604225334</v>
       </c>
       <c r="L47">
-        <v>0.9543725667614371</v>
+        <v>0.867863628723454</v>
       </c>
       <c r="M47">
-        <v>0.9827648054649901</v>
+        <v>0.7808781819133169</v>
       </c>
       <c r="N47">
-        <v>2.009099325454674</v>
+        <v>3.256900188895948</v>
       </c>
       <c r="O47">
-        <v>1.031848602750475</v>
+        <v>0.8317027027672954</v>
       </c>
       <c r="P47">
-        <v>0.8701126912666889</v>
+        <v>0.795782222905426</v>
       </c>
       <c r="Q47">
-        <v>1.032176748452265</v>
+        <v>0.9779883450472858</v>
       </c>
       <c r="R47">
-        <v>0.8769312196060277</v>
+        <v>0.7777193841043266</v>
       </c>
       <c r="S47">
-        <v>0.858929103695337</v>
+        <v>0.7470988244932111</v>
       </c>
       <c r="T47">
-        <v>0.8867878563580296</v>
+        <v>0.8571417249476364</v>
       </c>
       <c r="U47">
-        <v>0.9088516484840542</v>
+        <v>0.8231309664734567</v>
       </c>
       <c r="V47">
-        <v>0.9013223889524746</v>
+        <v>0.839953594269631</v>
       </c>
       <c r="W47">
-        <v>1.805966208463022</v>
+        <v>2.849408155745617</v>
       </c>
       <c r="X47">
-        <v>0.9109138728447651</v>
+        <v>0.86379122763573</v>
       </c>
       <c r="Y47">
-        <v>0.9840349727302048</v>
+        <v>1.231055909428382</v>
       </c>
       <c r="Z47">
-        <v>0.9016265092676621</v>
+        <v>0.7468407436380924</v>
       </c>
       <c r="AA47">
-        <v>0.886591421459522</v>
+        <v>0.9234551174292142</v>
       </c>
       <c r="AB47">
-        <v>0.901259588469245</v>
+        <v>0.8994490825804826</v>
       </c>
       <c r="AC47">
-        <v>1.172695917866437</v>
+        <v>1.522470824367233</v>
       </c>
       <c r="AD47">
-        <v>1.204553302328442</v>
+        <v>0.846224947720379</v>
       </c>
       <c r="AE47">
-        <v>1.905834891208065</v>
+        <v>0.7943069513624895</v>
       </c>
       <c r="AF47">
-        <v>1.136661907736118</v>
+        <v>0.8651677548080033</v>
       </c>
       <c r="AG47">
-        <v>1.530484580604476</v>
+        <v>0.8338400113941337</v>
       </c>
       <c r="AH47">
-        <v>1.921239994092211</v>
+        <v>0.9043794308589768</v>
       </c>
       <c r="AI47">
-        <v>1.582492051368225</v>
+        <v>0.9942437720715167</v>
       </c>
       <c r="AJ47">
-        <v>1.123357019065581</v>
+        <v>1.041828728026445</v>
       </c>
       <c r="AK47">
-        <v>1.043026905206954</v>
+        <v>0.9465423456207571</v>
       </c>
       <c r="AL47">
-        <v>2.112641038389343</v>
+        <v>0.8095084546819737</v>
       </c>
       <c r="AM47">
-        <v>1.134725688688598</v>
+        <v>0.7970519667630952</v>
       </c>
       <c r="AN47">
-        <v>1.715501246440363</v>
+        <v>0.7935608775019414</v>
       </c>
       <c r="AO47">
-        <v>1.103789986477353</v>
+        <v>0.780778508901784</v>
       </c>
       <c r="AP47">
-        <v>1.844749035064049</v>
+        <v>0.8030749056061181</v>
       </c>
       <c r="AQ47">
-        <v>1.071091695062536</v>
+        <v>0.7772492188867183</v>
       </c>
       <c r="AR47">
-        <v>1.507466688697223</v>
+        <v>0.9345061971395034</v>
       </c>
       <c r="AS47">
-        <v>1.368566536520855</v>
+        <v>0.8712859107630789</v>
       </c>
       <c r="AT47">
-        <v>1.683461280409783</v>
+        <v>0.8173896907767194</v>
       </c>
     </row>
     <row r="48" spans="1:46">
@@ -7115,139 +7115,139 @@
         <v>46</v>
       </c>
       <c r="B49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="C49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="D49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="E49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="F49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="G49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="H49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="I49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="J49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="K49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="L49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="M49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="N49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="O49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="P49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="Q49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="R49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="S49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="T49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="U49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="V49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="W49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="X49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="Y49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="Z49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="AA49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="AB49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="AC49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="AD49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="AE49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="AF49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="AG49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="AH49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="AI49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="AJ49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="AK49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="AL49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="AM49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="AN49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="AO49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="AP49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="AQ49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="AR49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="AS49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
       <c r="AT49">
-        <v>1.273478637529623</v>
+        <v>1.221526494634924</v>
       </c>
     </row>
     <row r="50" spans="1:46">
@@ -7255,139 +7255,139 @@
         <v>47</v>
       </c>
       <c r="B50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="C50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="D50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="E50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="F50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="G50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="H50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="I50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="J50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="K50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="L50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="M50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="N50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="O50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="P50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="Q50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="R50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="S50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="T50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="U50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="V50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="W50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="X50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="Y50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="Z50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="AA50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="AB50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="AC50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="AD50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="AE50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="AF50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="AG50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="AH50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="AI50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="AJ50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="AK50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="AL50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="AM50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="AN50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="AO50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="AP50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="AQ50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="AR50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="AS50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
       <c r="AT50">
-        <v>0.3959141477357634</v>
+        <v>0.8253516646139144</v>
       </c>
     </row>
     <row r="51" spans="1:46">
@@ -7395,152 +7395,155 @@
         <v>48</v>
       </c>
       <c r="B51">
-        <v>0.1322803842867382</v>
+        <v>0.1000528664128391</v>
       </c>
       <c r="C51">
-        <v>0.03650509717307249</v>
+        <v>0.5552224136627051</v>
       </c>
       <c r="D51">
-        <v>0.4192038263969771</v>
+        <v>0.6845998187378313</v>
       </c>
       <c r="E51">
-        <v>0.5838581605237072</v>
+        <v>0.8269089351882026</v>
       </c>
       <c r="F51">
-        <v>0.4466037516457653</v>
+        <v>0.0001329267421721347</v>
       </c>
       <c r="G51">
-        <v>0.5056109968766356</v>
+        <v>0.6467212810020011</v>
       </c>
       <c r="H51">
-        <v>0.4749355916588724</v>
+        <v>0.003673500589551182</v>
       </c>
       <c r="I51">
-        <v>0.8775983615739382</v>
+        <v>0.4099075131629757</v>
       </c>
       <c r="J51">
-        <v>0.3462069774398953</v>
+        <v>0.9600924595704272</v>
       </c>
       <c r="K51">
-        <v>0.8634498068604424</v>
+        <v>0.677193547025416</v>
       </c>
       <c r="L51">
-        <v>0.420243915612232</v>
+        <v>0.6682874178613634</v>
       </c>
       <c r="M51">
-        <v>0.4627750393484422</v>
+        <v>0.5934165407944039</v>
       </c>
       <c r="N51">
-        <v>0.06316463798336946</v>
+        <v>0.01366052291900233</v>
       </c>
       <c r="O51">
-        <v>0.5416570237902751</v>
+        <v>0.636703849930446</v>
       </c>
       <c r="P51">
-        <v>0.308287596284041</v>
+        <v>0.6059705050232078</v>
       </c>
       <c r="Q51">
-        <v>0.5422061006526369</v>
+        <v>0.7679388942346099</v>
       </c>
       <c r="R51">
-        <v>0.3165370558503537</v>
+        <v>0.5907711948573939</v>
       </c>
       <c r="S51">
-        <v>0.2950676355901272</v>
+        <v>0.565413837040585</v>
       </c>
       <c r="T51">
-        <v>0.3287159026594755</v>
+        <v>0.6588580685613652</v>
       </c>
       <c r="U51">
-        <v>0.3570635363916075</v>
+        <v>0.6293102434575895</v>
       </c>
       <c r="V51">
-        <v>0.3472215126239431</v>
+        <v>0.6438550573171411</v>
       </c>
       <c r="W51">
-        <v>0.1786390669047959</v>
+        <v>0.04856976146970515</v>
       </c>
       <c r="X51">
-        <v>0.3597895746082749</v>
+        <v>0.6646996861104886</v>
       </c>
       <c r="Y51">
-        <v>0.4647322185585787</v>
+        <v>0.990787921881654</v>
       </c>
       <c r="Z51">
-        <v>0.347615673099869</v>
+        <v>0.5652023573274674</v>
       </c>
       <c r="AA51">
-        <v>0.3284702594049755</v>
+        <v>0.7179912810756783</v>
       </c>
       <c r="AB51">
-        <v>0.3471401543942305</v>
+        <v>0.6963660928414395</v>
       </c>
       <c r="AC51">
-        <v>0.7990652704335102</v>
+        <v>0.7153909172292536</v>
       </c>
       <c r="AD51">
-        <v>0.8617934592238299</v>
+        <v>0.6493127496292004</v>
       </c>
       <c r="AE51">
-        <v>0.1102199074775807</v>
+        <v>0.6047225669037322</v>
       </c>
       <c r="AF51">
-        <v>0.7296646082681824</v>
+        <v>0.6659115344512234</v>
       </c>
       <c r="AG51">
-        <v>0.516244243718297</v>
+        <v>0.6385530862672721</v>
       </c>
       <c r="AH51">
-        <v>0.1018153730513047</v>
+        <v>0.7007880566275131</v>
       </c>
       <c r="AI51">
-        <v>0.4350930288313719</v>
+        <v>0.783026745481282</v>
       </c>
       <c r="AJ51">
-        <v>0.7045562804895793</v>
+        <v>0.8276452006830806</v>
       </c>
       <c r="AK51">
-        <v>0.5605161555917468</v>
+        <v>0.7390043756117439</v>
       </c>
       <c r="AL51">
-        <v>0.03404346516059875</v>
+        <v>0.6176363703266927</v>
       </c>
       <c r="AM51">
-        <v>0.7259918428988841</v>
+        <v>0.6070455083283481</v>
       </c>
       <c r="AN51">
-        <v>0.2642249592752992</v>
+        <v>0.604091899248645</v>
       </c>
       <c r="AO51">
-        <v>0.6682146262081807</v>
+        <v>0.5933329864743921</v>
       </c>
       <c r="AP51">
-        <v>0.1490444633366064</v>
+        <v>0.612156267977666</v>
       </c>
       <c r="AQ51">
-        <v>0.6092187465854146</v>
+        <v>0.590377917712398</v>
       </c>
       <c r="AR51">
-        <v>0.5545156995164753</v>
+        <v>0.7280240697666636</v>
       </c>
       <c r="AS51">
-        <v>0.8101961237024891</v>
+        <v>0.671308278124592</v>
       </c>
       <c r="AT51">
-        <v>0.300419500125777</v>
+        <v>0.6243787064045851</v>
       </c>
     </row>
     <row r="52" spans="1:46">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C52" t="s">
+      <c r="F52" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" t="s">
         <v>50</v>
       </c>
       <c r="N52" t="s">
         <v>50</v>
       </c>
-      <c r="AL52" t="s">
+      <c r="W52" t="s">
         <v>50</v>
       </c>
     </row>
